--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" r:id="rId1"/>
@@ -2450,15 +2450,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>151840</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>115821</xdr:rowOff>
+      <xdr:colOff>18490</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2467,8 +2467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="885825"/>
-          <a:ext cx="8962465" cy="12088746"/>
+          <a:off x="7153275" y="809626"/>
+          <a:ext cx="8638615" cy="3381374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2648,6 +2648,62 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177053</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>64834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="2095500"/>
+          <a:ext cx="8962465" cy="12088746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>移动端</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>168728</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -2699,62 +2755,6 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>服务器端</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>151535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1245533" y="2168594"/>
-          <a:ext cx="5858996" cy="9126935"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>移动端：</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -2848,7 +2848,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/userid/timesheetquery?begin:20130101&amp;end:20131231</a:t>
+            <a:t>/timesheetquery?{'begin':'20130101','end':'20131231'}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2933,83 +2933,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/</a:t>
+            <a:t>?</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>拆分</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CCCCC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>DDDDD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>解密后，变成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AAAA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>BBBB,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用公钥解密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AAAA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>userid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>userid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>查找私钥，用私钥解密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>BBBB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>成</a:t>
+            <a:t>拆分成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -3021,7 +2949,67 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>timesheetquery?begin:20130101&amp;end:20131231</a:t>
+            <a:t>timesheetquery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDDDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，密</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钥解密</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DDDDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{'begin':'20130101'&amp;'end':'20131231</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -3029,7 +3017,18 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'}}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，之后转换成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>json</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3093,32 +3092,29 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{user:XXXX,</a:t>
+            <a:t>{err</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'404',</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> return:modulenofound</a:t>
+            <a:t>errinfo:'404 NOT FOUND'</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>key:null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
+            <a:t> }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3141,10 +3137,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>用私钥加密和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3153,7 +3149,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>base64</a:t>
+            <a:t>密</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -3165,82 +3161,34 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>加密成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>EEEEE,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/crypto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>组成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/crypto?EEEEE,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+            <a:t>钥加密</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3250,18 +3198,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>response</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3333,92 +3269,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>timesheetquery?begin:20130101&amp;end:20131231</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>拆分成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>timesheetquery</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>begin:20130101&amp;end:20131231</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
@@ -3502,15 +3352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>541805</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25134</xdr:rowOff>
+      <xdr:colOff>508187</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>661145</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3519,7 +3369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12162305" y="6076310"/>
+          <a:off x="12128687" y="5684104"/>
           <a:ext cx="836517" cy="983396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4066,36 +3916,9 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>公钥文件绑定在安装文件中，每次版本升级时发生变更。</a:t>
+            <a:t>密钥文件绑定在安装文件中，每次版本升级时发生变更。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>私钥产生于用户登录时，由</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>位随机密码组成，有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>个月的有效期，同时保存在移动端和服务器端。</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4159,46 +3982,52 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:effectLst/>
             </a:rPr>
-            <a:t>userid</a:t>
+            <a:t>?</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>使用公钥加密成</a:t>
+            <a:t>以后部分使用私钥加密成</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:effectLst/>
             </a:rPr>
-            <a:t>AAAA</a:t>
+            <a:t>BBBB</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>，组成发送给服务器端的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>request</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -4210,113 +4039,13 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>timesheetquery?begin:20130101&amp;end:20131231</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>使用私钥加密成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>BBBB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>，将</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>AAAA</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>BBBB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>通过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>加密后变成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>CCCCC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>和</a:t>
+            <a:t>timesheetquery?</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN">
               <a:effectLst/>
             </a:rPr>
             <a:t>DDDDD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>，最后组成发送给服务器端的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>/CCCCC/DDDDD</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4453,15 +4182,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34257</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61952</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>157522</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4471,8 +4200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12961043" y="7845238"/>
-          <a:ext cx="3225053" cy="2877191"/>
+          <a:off x="15195816" y="7625922"/>
+          <a:ext cx="3237860" cy="2736318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,21 +4242,21 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{userid:XXXX,</a:t>
+            <a:t>{err:'200',</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> return:{</a:t>
+            <a:t>errinfo:'',</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>                </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
@@ -4739,39 +4468,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字符串，用私钥加密和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>加密成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>EEEEE,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/crypto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>组成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>/crypto?EEEEE,</a:t>
+            <a:t>字符串，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
@@ -4793,16 +4490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>286070</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>46265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>61952</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409334</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61951</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4813,15 +4510,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14573570" y="5883729"/>
-          <a:ext cx="590230" cy="1961509"/>
+        <a:xfrm>
+          <a:off x="15234237" y="5593177"/>
+          <a:ext cx="1580509" cy="2032745"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -38731"/>
-            <a:gd name="adj2" fmla="val 81390"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4846,16 +4540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>571502</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>40901</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>399489</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>64514</xdr:rowOff>
+      <xdr:rowOff>8485</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4864,7 +4558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14926237" y="6981265"/>
+          <a:off x="15968384" y="6925236"/>
           <a:ext cx="836517" cy="983396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4968,6 +4662,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -4977,333 +4683,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>私钥</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>解密和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>解密，后调用相应的模块处理</a:t>
+            <a:t>密后调用相应的模块处理</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>672112</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>169944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>141511</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>144811</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="矩形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2713183" y="8130123"/>
-          <a:ext cx="830114" cy="1036224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>已</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>crypto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>开头的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>respones</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>505942</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>225635</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>25550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="矩形 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4607295" y="8519289"/>
-          <a:ext cx="1770369" cy="1927732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>以公钥解密和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>解密，后调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>模块处理</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>153439</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>41879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>303196</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>16745</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="矩形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5596296" y="9594093"/>
-          <a:ext cx="830114" cy="1036223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>nocrypto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>开头的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>respones</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5363,66 +4747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>18489</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>575342</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>24009</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114877</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="53" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486960" y="7003677"/>
-          <a:ext cx="5520" cy="1515612"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>134789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454638</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398609</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5431,7 +4765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14986106" y="10724348"/>
+          <a:off x="10828724" y="8965024"/>
           <a:ext cx="3241061" cy="2521005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5480,13 +4814,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{user:XXXX,</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+            <a:t>{err</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -5497,11 +4838,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>userid:null,</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
+            <a:t>'401',</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -5514,7 +4852,65 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> return:success</a:t>
+            <a:t>errinfo:'401 key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> invalid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> }</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>json</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -5526,7 +4922,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>结果，用密钥加密</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -5534,139 +4930,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> key:xxxxx12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>位，</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> keyinvalid:20131130</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>json</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字符串，用公钥钥加密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>base64</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>加密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>FFFFF,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/nocrypto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>组成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>/nocrypto?EEEEE,</a:t>
+            <a:t>字符串，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
@@ -5688,262 +4957,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120702</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273661</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>46103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvPr id="38" name="矩形 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5356412" y="2487707"/>
-          <a:ext cx="3104030" cy="918882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>唯有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>模块全部用公钥加密，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>模块加密前的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/login/username=XX&amp;password=XXX</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>64673</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="矩形 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12368732" y="2872707"/>
-          <a:ext cx="2073088" cy="701969"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>userid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>没有找到私钥时，调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>处理模块，返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>keyinvalid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>456879</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="矩形 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16862291" y="2195071"/>
-          <a:ext cx="3241061" cy="1995929"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>处理模块</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>286553</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>439510</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="矩形 78"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16008406" y="2256384"/>
-          <a:ext cx="836516" cy="1363116"/>
+          <a:off x="13108320" y="8475648"/>
+          <a:ext cx="836517" cy="983396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5969,18 +5002,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AAAA</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>解密结果是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>login</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>解密失败</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5989,78 +5013,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>675156</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>167448</xdr:rowOff>
+      <xdr:colOff>398610</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>456880</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>53069</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>675156</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>140232</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="肘形连接符 79"/>
+        <xdr:cNvPr id="39" name="肘形连接符 38"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="78" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="14989148" y="2550220"/>
-          <a:ext cx="1230327" cy="2515960"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454639</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>26735</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>50586</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="肘形连接符 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="2"/>
+          <a:stCxn id="9" idx="2"/>
           <a:endCxn id="66" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="14458070" y="7960098"/>
-          <a:ext cx="7793851" cy="255655"/>
+          <a:off x="12476790" y="8355985"/>
+          <a:ext cx="3462537" cy="276546"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6319,7 +5293,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/login/username=XX&amp;password=XXX</a:t>
+            <a:t>/login/{username=XX&amp;password=XXX}</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -6962,16 +5936,32 @@
             <a:t>没有找到</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>key</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>token</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>或者</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>keyinvalid</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>expiretime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -7141,16 +6131,32 @@
             <a:t>有</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>key</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>token</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>且</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>keyinvalid</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>expiretime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -7581,7 +6587,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>key</a:t>
+            <a:t>token</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -7605,7 +6611,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>keyvalid</a:t>
+            <a:t>expiretime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -7730,7 +6736,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>key</a:t>
+            <a:t>token</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -7754,7 +6760,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>keyvalid</a:t>
+            <a:t>expiretime</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
@@ -8363,10 +7369,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:t>expiretime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -8387,7 +7393,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>keyinvalid</a:t>
+            <a:t>token</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -8845,6 +7851,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4303060" y="8998324"/>
+          <a:ext cx="4202205" cy="2633382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>的规则？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9033,10 +8109,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:t>expiretime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -9057,7 +8133,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>keyinvalid</a:t>
+            <a:t>token</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
@@ -17197,8 +16273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17213,8 +16289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17290,8 +16366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17321,7 +16397,7 @@
   <dimension ref="I3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17364,8 +16440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7395" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" r:id="rId1"/>
@@ -16273,8 +16273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16366,8 +16366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16397,7 +16397,7 @@
   <dimension ref="I3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16418,8 +16418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16440,8 +16440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,27 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7395" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" r:id="rId1"/>
-    <sheet name="报销" sheetId="17" r:id="rId2"/>
-    <sheet name="画面流转一览" sheetId="12" r:id="rId3"/>
+    <sheet name="画面流转一览" sheetId="12" r:id="rId2"/>
+    <sheet name="业务功能点" sheetId="4" r:id="rId3"/>
     <sheet name="交互数据格式" sheetId="18" r:id="rId4"/>
     <sheet name="通讯加密" sheetId="16" r:id="rId5"/>
     <sheet name="login功能" sheetId="2" r:id="rId6"/>
     <sheet name="logout功能" sheetId="13" r:id="rId7"/>
     <sheet name="消息通知" sheetId="15" r:id="rId8"/>
-    <sheet name="工时查询" sheetId="4" r:id="rId9"/>
-    <sheet name="工时填报" sheetId="7" r:id="rId10"/>
-    <sheet name="工时审批" sheetId="8" r:id="rId11"/>
+    <sheet name="工时填报" sheetId="7" r:id="rId9"/>
+    <sheet name="工时审批" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +326,6 @@
   </si>
   <si>
     <t>9：00-15：30 项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有填写完整工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,30 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未填审批信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日常市内交通费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +681,138 @@
   </si>
   <si>
     <t>文件的下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传出结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，查询的月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月中每一天是否已填报工时等标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，在日历上点击的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以周为单位的json，包含这个星期每一天的具体明细工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(工时日历)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(项目一览)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的项目工时合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时明细画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(加班一览)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(休假一览)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的加班合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的休假合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，日期等工时信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回传入的参数和是否成功的标志，以及错误消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的未填工时天数合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前月的json，包含这个月中共有几天未填工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，级别等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1058,18 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1172,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,503 +1205,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28501</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28487</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="3267075"/>
-          <a:ext cx="590476" cy="704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73670</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="1114425"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="1114425"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="6600825"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="6600825"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14030325" y="1114425"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="下箭头 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5762625" y="5057776"/>
-          <a:ext cx="1457325" cy="1323974"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>点击没有填写的工时</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="左右箭头 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6124575" y="152400"/>
-          <a:ext cx="7410450" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>左右滑动，循环显示</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TAB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="11229975"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="6600825"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="11229975"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="下箭头 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9277350" y="5019675"/>
-          <a:ext cx="1457325" cy="1323974"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>点击某天</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2257,7 +1860,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2644,7 +2247,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5063,7 +4666,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7924,7 +7527,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8545,7 +8148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10394,7 +9997,7 @@
   <dimension ref="C1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10429,13 +10032,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -10443,13 +10046,13 @@
     </row>
     <row r="4" spans="3:7" ht="30" customHeight="1">
       <c r="D4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -10581,7 +10184,7 @@
     </row>
     <row r="18" spans="3:5" ht="22.5" customHeight="1">
       <c r="D18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>52</v>
@@ -10589,35 +10192,35 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -10627,19 +10230,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10657,2417 +10247,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G7:BH90"/>
-  <sheetViews>
-    <sheetView topLeftCell="O28" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="39" max="45" width="3.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="7:60">
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="3"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="16"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="16"/>
-    </row>
-    <row r="8" spans="7:60">
-      <c r="G8" s="8"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="3"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="18"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="18"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="18"/>
-    </row>
-    <row r="9" spans="7:60">
-      <c r="G9" s="8"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="3"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="18"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="18"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="18"/>
-    </row>
-    <row r="10" spans="7:60">
-      <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="3"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="9"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="9"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="9"/>
-    </row>
-    <row r="11" spans="7:60">
-      <c r="G11" s="8"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="3"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="9"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN11" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="9"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="9"/>
-    </row>
-    <row r="12" spans="7:60">
-      <c r="G12" s="8"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="3"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="9"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="25">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>2</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>3</v>
-      </c>
-      <c r="AR12" s="24">
-        <v>4</v>
-      </c>
-      <c r="AS12" s="23">
-        <v>5</v>
-      </c>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="9"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BH12" s="9"/>
-    </row>
-    <row r="13" spans="7:60">
-      <c r="G13" s="8"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="3"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="9"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="23">
-        <v>6</v>
-      </c>
-      <c r="AN13" s="24">
-        <v>7</v>
-      </c>
-      <c r="AO13" s="24">
-        <v>8</v>
-      </c>
-      <c r="AP13" s="24">
-        <v>9</v>
-      </c>
-      <c r="AQ13" s="24">
-        <v>10</v>
-      </c>
-      <c r="AR13" s="24">
-        <v>11</v>
-      </c>
-      <c r="AS13" s="23">
-        <v>12</v>
-      </c>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="9"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="26"/>
-      <c r="BB13" s="26"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="26"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="9"/>
-    </row>
-    <row r="14" spans="7:60">
-      <c r="G14" s="8"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="3"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="9"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="23">
-        <v>13</v>
-      </c>
-      <c r="AN14" s="25">
-        <v>14</v>
-      </c>
-      <c r="AO14" s="25">
-        <v>15</v>
-      </c>
-      <c r="AP14" s="25">
-        <v>16</v>
-      </c>
-      <c r="AQ14" s="25">
-        <v>17</v>
-      </c>
-      <c r="AR14" s="25">
-        <v>18</v>
-      </c>
-      <c r="AS14" s="23">
-        <v>19</v>
-      </c>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="9"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="28"/>
-      <c r="BH14" s="9"/>
-    </row>
-    <row r="15" spans="7:60">
-      <c r="G15" s="8"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="3"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="9"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="23">
-        <v>20</v>
-      </c>
-      <c r="AN15" s="25">
-        <v>21</v>
-      </c>
-      <c r="AO15" s="25">
-        <v>22</v>
-      </c>
-      <c r="AP15" s="25">
-        <v>22</v>
-      </c>
-      <c r="AQ15" s="25">
-        <v>23</v>
-      </c>
-      <c r="AR15" s="25">
-        <v>24</v>
-      </c>
-      <c r="AS15" s="23">
-        <v>25</v>
-      </c>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="9"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BH15" s="9"/>
-    </row>
-    <row r="16" spans="7:60">
-      <c r="G16" s="8"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="3"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="9"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="23">
-        <v>26</v>
-      </c>
-      <c r="AN16" s="25">
-        <v>27</v>
-      </c>
-      <c r="AO16" s="25">
-        <v>28</v>
-      </c>
-      <c r="AP16" s="25">
-        <v>29</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>30</v>
-      </c>
-      <c r="AR16" s="25">
-        <v>31</v>
-      </c>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="9"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="9"/>
-    </row>
-    <row r="17" spans="7:60">
-      <c r="G17" s="8"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="3"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="9"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="9"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="9"/>
-    </row>
-    <row r="18" spans="7:60">
-      <c r="G18" s="8"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="3"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="9"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="9"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BH18" s="9"/>
-    </row>
-    <row r="19" spans="7:60">
-      <c r="G19" s="8"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="3"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="9"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3">
-        <v>30</v>
-      </c>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="31">
-        <v>18</v>
-      </c>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="9"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="26"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="9"/>
-    </row>
-    <row r="20" spans="7:60">
-      <c r="G20" s="8"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="3"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="9"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3">
-        <v>20</v>
-      </c>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3">
-        <v>20</v>
-      </c>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="9"/>
-      <c r="AY20" s="8"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BH20" s="9"/>
-    </row>
-    <row r="21" spans="7:60">
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="3"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="9"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="9"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="9"/>
-    </row>
-    <row r="22" spans="7:60">
-      <c r="G22" s="8"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="3"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="9"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="9"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA22" s="32"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BH22" s="9"/>
-    </row>
-    <row r="23" spans="7:60">
-      <c r="G23" s="8"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="3"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="9"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="9"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="9"/>
-    </row>
-    <row r="24" spans="7:60">
-      <c r="G24" s="8"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="3"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="9"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="9"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="9"/>
-    </row>
-    <row r="25" spans="7:60">
-      <c r="G25" s="8"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="3"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="9"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="9"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BH25" s="9"/>
-    </row>
-    <row r="26" spans="7:60">
-      <c r="G26" s="8"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="3"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="9"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="9"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="9"/>
-    </row>
-    <row r="27" spans="7:60">
-      <c r="G27" s="8"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="3"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="9"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="9"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="9"/>
-    </row>
-    <row r="28" spans="7:60">
-      <c r="G28" s="8"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="3"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="9"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="9"/>
-      <c r="AY28" s="8"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="9"/>
-    </row>
-    <row r="29" spans="7:60">
-      <c r="G29" s="8"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="3"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="18"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="18"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="18"/>
-    </row>
-    <row r="30" spans="7:60">
-      <c r="G30" s="8"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="3"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="18"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="18"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="4"/>
-      <c r="BA30" s="4"/>
-      <c r="BB30" s="4"/>
-      <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
-      <c r="BE30" s="4"/>
-      <c r="BF30" s="4"/>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="18"/>
-    </row>
-    <row r="31" spans="7:60">
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="3"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="21"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="20"/>
-      <c r="AU31" s="21"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="20"/>
-      <c r="BA31" s="20"/>
-      <c r="BB31" s="20"/>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="20"/>
-      <c r="BE31" s="20"/>
-      <c r="BF31" s="20"/>
-      <c r="BG31" s="20"/>
-      <c r="BH31" s="21"/>
-    </row>
-    <row r="39" spans="23:47">
-      <c r="W39" s="14"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="16"/>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="16"/>
-    </row>
-    <row r="40" spans="23:47">
-      <c r="W40" s="17"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="18"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="18"/>
-    </row>
-    <row r="41" spans="23:47">
-      <c r="W41" s="17"/>
-      <c r="X41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="18"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="18"/>
-    </row>
-    <row r="42" spans="23:47">
-      <c r="W42" s="8"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="9"/>
-      <c r="AL42" s="8"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="9"/>
-    </row>
-    <row r="43" spans="23:47">
-      <c r="W43" s="8"/>
-      <c r="X43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="9"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="28"/>
-      <c r="AU43" s="9"/>
-    </row>
-    <row r="44" spans="23:47">
-      <c r="W44" s="8"/>
-      <c r="X44" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AF44" s="9"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AU44" s="9"/>
-    </row>
-    <row r="45" spans="23:47">
-      <c r="W45" s="8"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="9"/>
-      <c r="AL45" s="8"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="26"/>
-      <c r="AO45" s="26"/>
-      <c r="AP45" s="26"/>
-      <c r="AQ45" s="26"/>
-      <c r="AR45" s="26"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="9"/>
-    </row>
-    <row r="46" spans="23:47">
-      <c r="W46" s="8"/>
-      <c r="X46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="9"/>
-      <c r="AL46" s="8"/>
-      <c r="AM46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
-      <c r="AS46" s="3"/>
-      <c r="AT46" s="28"/>
-      <c r="AU46" s="9"/>
-    </row>
-    <row r="47" spans="23:47">
-      <c r="W47" s="8"/>
-      <c r="X47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AF47" s="9"/>
-      <c r="AL47" s="8"/>
-      <c r="AM47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="3"/>
-      <c r="AP47" s="3"/>
-      <c r="AQ47" s="3"/>
-      <c r="AR47" s="3"/>
-      <c r="AS47" s="3"/>
-      <c r="AU47" s="9"/>
-    </row>
-    <row r="48" spans="23:47">
-      <c r="W48" s="8"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="9"/>
-      <c r="AL48" s="8"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="26"/>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="26"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="26"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="9"/>
-    </row>
-    <row r="49" spans="23:47">
-      <c r="W49" s="8"/>
-      <c r="X49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="9"/>
-      <c r="AL49" s="8"/>
-      <c r="AM49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="28"/>
-      <c r="AU49" s="9"/>
-    </row>
-    <row r="50" spans="23:47">
-      <c r="W50" s="8"/>
-      <c r="X50" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AF50" s="9"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AU50" s="9"/>
-    </row>
-    <row r="51" spans="23:47">
-      <c r="W51" s="8"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="9"/>
-      <c r="AL51" s="8"/>
-      <c r="AM51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN51" s="26"/>
-      <c r="AO51" s="26"/>
-      <c r="AP51" s="26"/>
-      <c r="AQ51" s="26"/>
-      <c r="AR51" s="26"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="3"/>
-      <c r="AU51" s="9"/>
-    </row>
-    <row r="52" spans="23:47">
-      <c r="W52" s="8"/>
-      <c r="X52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="9"/>
-      <c r="AL52" s="8"/>
-      <c r="AN52" s="30"/>
-      <c r="AO52" s="30"/>
-      <c r="AP52" s="30"/>
-      <c r="AQ52" s="30"/>
-      <c r="AR52" s="30"/>
-      <c r="AS52" s="30"/>
-      <c r="AU52" s="9"/>
-    </row>
-    <row r="53" spans="23:47">
-      <c r="W53" s="8"/>
-      <c r="X53" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AF53" s="9"/>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="29"/>
-      <c r="AU53" s="9"/>
-    </row>
-    <row r="54" spans="23:47">
-      <c r="W54" s="8"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="9"/>
-      <c r="AL54" s="8"/>
-      <c r="AM54" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN54" s="32"/>
-      <c r="AO54" s="32"/>
-      <c r="AP54" s="32"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AU54" s="9"/>
-    </row>
-    <row r="55" spans="23:47">
-      <c r="W55" s="8"/>
-      <c r="X55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="9"/>
-      <c r="AL55" s="8"/>
-      <c r="AM55" s="3"/>
-      <c r="AN55" s="3"/>
-      <c r="AO55" s="3"/>
-      <c r="AP55" s="3"/>
-      <c r="AQ55" s="3"/>
-      <c r="AR55" s="3"/>
-      <c r="AS55" s="3"/>
-      <c r="AT55" s="3"/>
-      <c r="AU55" s="9"/>
-    </row>
-    <row r="56" spans="23:47">
-      <c r="W56" s="8"/>
-      <c r="X56" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="9"/>
-      <c r="AL56" s="8"/>
-      <c r="AM56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="29"/>
-      <c r="AU56" s="9"/>
-    </row>
-    <row r="57" spans="23:47">
-      <c r="W57" s="8"/>
-      <c r="X57" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="9"/>
-      <c r="AL57" s="8"/>
-      <c r="AM57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AU57" s="9"/>
-    </row>
-    <row r="58" spans="23:47">
-      <c r="W58" s="8"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="9"/>
-      <c r="AL58" s="8"/>
-      <c r="AM58" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="9"/>
-    </row>
-    <row r="59" spans="23:47">
-      <c r="W59" s="8"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="9"/>
-      <c r="AL59" s="8"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="9"/>
-    </row>
-    <row r="60" spans="23:47">
-      <c r="W60" s="8"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="9"/>
-      <c r="AL60" s="8"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
-      <c r="AP60" s="3"/>
-      <c r="AQ60" s="3"/>
-      <c r="AR60" s="3"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="9"/>
-    </row>
-    <row r="61" spans="23:47">
-      <c r="W61" s="17"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="18"/>
-      <c r="AL61" s="17"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="18"/>
-    </row>
-    <row r="62" spans="23:47">
-      <c r="W62" s="17"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA62" s="46"/>
-      <c r="AB62" s="46"/>
-      <c r="AC62" s="47"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="18"/>
-      <c r="AL62" s="17"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="4"/>
-      <c r="AO62" s="4"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
-      <c r="AS62" s="4"/>
-      <c r="AT62" s="4"/>
-      <c r="AU62" s="18"/>
-    </row>
-    <row r="63" spans="23:47">
-      <c r="W63" s="19"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20"/>
-      <c r="AC63" s="20"/>
-      <c r="AD63" s="20"/>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="21"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="20"/>
-      <c r="AN63" s="20"/>
-      <c r="AO63" s="20"/>
-      <c r="AP63" s="20"/>
-      <c r="AQ63" s="20"/>
-      <c r="AR63" s="20"/>
-      <c r="AS63" s="20"/>
-      <c r="AT63" s="20"/>
-      <c r="AU63" s="21"/>
-    </row>
-    <row r="66" spans="23:47">
-      <c r="W66" s="14"/>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="16"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="15"/>
-      <c r="AN66" s="15"/>
-      <c r="AO66" s="15"/>
-      <c r="AP66" s="15"/>
-      <c r="AQ66" s="15"/>
-      <c r="AR66" s="15"/>
-      <c r="AS66" s="15"/>
-      <c r="AT66" s="15"/>
-      <c r="AU66" s="16"/>
-    </row>
-    <row r="67" spans="23:47">
-      <c r="W67" s="17"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="18"/>
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="4"/>
-      <c r="AO67" s="4"/>
-      <c r="AP67" s="4"/>
-      <c r="AQ67" s="4"/>
-      <c r="AR67" s="4"/>
-      <c r="AS67" s="4"/>
-      <c r="AT67" s="4"/>
-      <c r="AU67" s="18"/>
-    </row>
-    <row r="68" spans="23:47">
-      <c r="W68" s="17"/>
-      <c r="X68" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="18"/>
-      <c r="AL68" s="17"/>
-      <c r="AM68" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN68" s="4"/>
-      <c r="AO68" s="4"/>
-      <c r="AP68" s="4"/>
-      <c r="AQ68" s="4"/>
-      <c r="AR68" s="4"/>
-      <c r="AS68" s="4"/>
-      <c r="AT68" s="4"/>
-      <c r="AU68" s="18"/>
-    </row>
-    <row r="69" spans="23:47">
-      <c r="W69" s="8"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="9"/>
-      <c r="AL69" s="8"/>
-      <c r="AM69" s="3"/>
-      <c r="AN69" s="3"/>
-      <c r="AO69" s="3"/>
-      <c r="AP69" s="3"/>
-      <c r="AQ69" s="3"/>
-      <c r="AR69" s="3"/>
-      <c r="AS69" s="3"/>
-      <c r="AT69" s="3"/>
-      <c r="AU69" s="9"/>
-    </row>
-    <row r="70" spans="23:47">
-      <c r="W70" s="8"/>
-      <c r="X70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="27"/>
-      <c r="AF70" s="9"/>
-      <c r="AL70" s="8"/>
-      <c r="AM70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN70" s="3"/>
-      <c r="AO70" s="3"/>
-      <c r="AP70" s="3"/>
-      <c r="AQ70" s="3"/>
-      <c r="AR70" s="3"/>
-      <c r="AS70" s="3"/>
-      <c r="AT70" s="27"/>
-      <c r="AU70" s="9"/>
-    </row>
-    <row r="71" spans="23:47">
-      <c r="W71" s="8"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="9"/>
-      <c r="AL71" s="8"/>
-      <c r="AM71" s="3"/>
-      <c r="AN71" s="3"/>
-      <c r="AO71" s="3"/>
-      <c r="AP71" s="3"/>
-      <c r="AQ71" s="3"/>
-      <c r="AR71" s="3"/>
-      <c r="AS71" s="3"/>
-      <c r="AT71" s="30"/>
-      <c r="AU71" s="9"/>
-    </row>
-    <row r="72" spans="23:47">
-      <c r="W72" s="8"/>
-      <c r="X72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="26"/>
-      <c r="AA72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="26"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="9"/>
-      <c r="AL72" s="8"/>
-      <c r="AM72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN72" s="26"/>
-      <c r="AO72" s="26"/>
-      <c r="AP72" s="26"/>
-      <c r="AQ72" s="26"/>
-      <c r="AR72" s="26"/>
-      <c r="AS72" s="3"/>
-      <c r="AT72" s="3"/>
-      <c r="AU72" s="9"/>
-    </row>
-    <row r="73" spans="23:47">
-      <c r="W73" s="8"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="27"/>
-      <c r="AF73" s="9"/>
-      <c r="AL73" s="8"/>
-      <c r="AM73" s="33"/>
-      <c r="AN73" s="34"/>
-      <c r="AO73" s="34"/>
-      <c r="AP73" s="34"/>
-      <c r="AQ73" s="34"/>
-      <c r="AR73" s="35"/>
-      <c r="AS73" s="3"/>
-      <c r="AT73" s="27"/>
-      <c r="AU73" s="9"/>
-    </row>
-    <row r="74" spans="23:47">
-      <c r="W74" s="8"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="9"/>
-      <c r="AL74" s="8"/>
-      <c r="AM74" s="3"/>
-      <c r="AN74" s="3"/>
-      <c r="AO74" s="3"/>
-      <c r="AP74" s="3"/>
-      <c r="AQ74" s="3"/>
-      <c r="AR74" s="3"/>
-      <c r="AS74" s="3"/>
-      <c r="AT74" s="30"/>
-      <c r="AU74" s="9"/>
-    </row>
-    <row r="75" spans="23:47">
-      <c r="W75" s="8"/>
-      <c r="X75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="9"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN75" s="26"/>
-      <c r="AO75" s="26"/>
-      <c r="AP75" s="26"/>
-      <c r="AQ75" s="26"/>
-      <c r="AR75" s="26"/>
-      <c r="AS75" s="3"/>
-      <c r="AT75" s="3"/>
-      <c r="AU75" s="9"/>
-    </row>
-    <row r="76" spans="23:47">
-      <c r="W76" s="8"/>
-      <c r="X76" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="34"/>
-      <c r="AC76" s="35"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="9"/>
-      <c r="AL76" s="8"/>
-      <c r="AM76" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN76" s="34"/>
-      <c r="AO76" s="34"/>
-      <c r="AP76" s="34"/>
-      <c r="AQ76" s="34"/>
-      <c r="AR76" s="35"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="27"/>
-      <c r="AU76" s="9"/>
-    </row>
-    <row r="77" spans="23:47">
-      <c r="W77" s="8"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="30"/>
-      <c r="AF77" s="9"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="3"/>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
-      <c r="AP77" s="3"/>
-      <c r="AQ77" s="3"/>
-      <c r="AR77" s="3"/>
-      <c r="AS77" s="3"/>
-      <c r="AT77" s="30"/>
-      <c r="AU77" s="9"/>
-    </row>
-    <row r="78" spans="23:47">
-      <c r="W78" s="8"/>
-      <c r="X78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="26"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="9"/>
-      <c r="AL78" s="8"/>
-      <c r="AM78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN78" s="26"/>
-      <c r="AO78" s="26"/>
-      <c r="AP78" s="26"/>
-      <c r="AQ78" s="26"/>
-      <c r="AR78" s="26"/>
-      <c r="AS78" s="3"/>
-      <c r="AT78" s="3"/>
-      <c r="AU78" s="9"/>
-    </row>
-    <row r="79" spans="23:47">
-      <c r="W79" s="8"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
-      <c r="AB79" s="34"/>
-      <c r="AC79" s="35"/>
-      <c r="AD79" s="30"/>
-      <c r="AE79" s="30"/>
-      <c r="AF79" s="9"/>
-      <c r="AL79" s="8"/>
-      <c r="AM79" s="36"/>
-      <c r="AN79" s="34"/>
-      <c r="AO79" s="34"/>
-      <c r="AP79" s="34"/>
-      <c r="AQ79" s="34"/>
-      <c r="AR79" s="35"/>
-      <c r="AS79" s="30"/>
-      <c r="AT79" s="30"/>
-      <c r="AU79" s="9"/>
-    </row>
-    <row r="80" spans="23:47">
-      <c r="W80" s="8"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="27"/>
-      <c r="AF80" s="9"/>
-      <c r="AL80" s="8"/>
-      <c r="AM80" s="3"/>
-      <c r="AN80" s="3"/>
-      <c r="AO80" s="3"/>
-      <c r="AP80" s="3"/>
-      <c r="AQ80" s="3"/>
-      <c r="AR80" s="3"/>
-      <c r="AS80" s="3"/>
-      <c r="AT80" s="27"/>
-      <c r="AU80" s="9"/>
-    </row>
-    <row r="81" spans="23:47">
-      <c r="W81" s="8"/>
-      <c r="X81" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="30"/>
-      <c r="AF81" s="9"/>
-      <c r="AL81" s="8"/>
-      <c r="AM81" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN81" s="32"/>
-      <c r="AO81" s="32"/>
-      <c r="AP81" s="32"/>
-      <c r="AQ81" s="3"/>
-      <c r="AR81" s="3"/>
-      <c r="AS81" s="3"/>
-      <c r="AT81" s="30"/>
-      <c r="AU81" s="9"/>
-    </row>
-    <row r="82" spans="23:47">
-      <c r="W82" s="8"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
-      <c r="AB82" s="34"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="9"/>
-      <c r="AL82" s="8"/>
-      <c r="AM82" s="33"/>
-      <c r="AN82" s="34"/>
-      <c r="AO82" s="34"/>
-      <c r="AP82" s="34"/>
-      <c r="AQ82" s="34"/>
-      <c r="AR82" s="35"/>
-      <c r="AS82" s="3"/>
-      <c r="AT82" s="3"/>
-      <c r="AU82" s="9"/>
-    </row>
-    <row r="83" spans="23:47">
-      <c r="W83" s="8"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="27"/>
-      <c r="AF83" s="9"/>
-      <c r="AL83" s="8"/>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="3"/>
-      <c r="AT83" s="27"/>
-      <c r="AU83" s="9"/>
-    </row>
-    <row r="84" spans="23:47">
-      <c r="W84" s="8"/>
-      <c r="X84" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="9"/>
-      <c r="AL84" s="8"/>
-      <c r="AM84" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN84" s="3"/>
-      <c r="AO84" s="3"/>
-      <c r="AP84" s="3"/>
-      <c r="AQ84" s="3"/>
-      <c r="AR84" s="3"/>
-      <c r="AS84" s="3"/>
-      <c r="AT84" s="30"/>
-      <c r="AU84" s="9"/>
-    </row>
-    <row r="85" spans="23:47">
-      <c r="W85" s="8"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
-      <c r="AB85" s="34"/>
-      <c r="AC85" s="35"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="9"/>
-      <c r="AL85" s="8"/>
-      <c r="AM85" s="36"/>
-      <c r="AN85" s="34"/>
-      <c r="AO85" s="34"/>
-      <c r="AP85" s="34"/>
-      <c r="AQ85" s="34"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="3"/>
-      <c r="AT85" s="3"/>
-      <c r="AU85" s="9"/>
-    </row>
-    <row r="86" spans="23:47">
-      <c r="W86" s="8"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="9"/>
-      <c r="AL86" s="8"/>
-      <c r="AM86" s="3"/>
-      <c r="AN86" s="3"/>
-      <c r="AO86" s="3"/>
-      <c r="AP86" s="3"/>
-      <c r="AQ86" s="3"/>
-      <c r="AR86" s="3"/>
-      <c r="AS86" s="38"/>
-      <c r="AT86" s="3"/>
-      <c r="AU86" s="9"/>
-    </row>
-    <row r="87" spans="23:47">
-      <c r="W87" s="8"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="9"/>
-      <c r="AL87" s="8"/>
-      <c r="AM87" s="3"/>
-      <c r="AN87" s="3"/>
-      <c r="AO87" s="3"/>
-      <c r="AP87" s="3"/>
-      <c r="AQ87" s="3"/>
-      <c r="AR87" s="3"/>
-      <c r="AS87" s="3"/>
-      <c r="AT87" s="3"/>
-      <c r="AU87" s="9"/>
-    </row>
-    <row r="88" spans="23:47">
-      <c r="W88" s="17"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="18"/>
-      <c r="AL88" s="17"/>
-      <c r="AM88" s="4"/>
-      <c r="AN88" s="4"/>
-      <c r="AO88" s="4"/>
-      <c r="AP88" s="4"/>
-      <c r="AQ88" s="4"/>
-      <c r="AR88" s="4"/>
-      <c r="AS88" s="4"/>
-      <c r="AT88" s="4"/>
-      <c r="AU88" s="18"/>
-    </row>
-    <row r="89" spans="23:47">
-      <c r="W89" s="17"/>
-      <c r="X89" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y89" s="48"/>
-      <c r="Z89" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA89" s="48"/>
-      <c r="AB89" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC89" s="46"/>
-      <c r="AD89" s="46"/>
-      <c r="AE89" s="47"/>
-      <c r="AF89" s="18"/>
-      <c r="AL89" s="17"/>
-      <c r="AM89" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN89" s="48"/>
-      <c r="AO89" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP89" s="48"/>
-      <c r="AQ89" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR89" s="46"/>
-      <c r="AS89" s="46"/>
-      <c r="AT89" s="47"/>
-      <c r="AU89" s="18"/>
-    </row>
-    <row r="90" spans="23:47">
-      <c r="W90" s="19"/>
-      <c r="X90" s="20"/>
-      <c r="Y90" s="20"/>
-      <c r="Z90" s="20"/>
-      <c r="AA90" s="20"/>
-      <c r="AB90" s="20"/>
-      <c r="AC90" s="20"/>
-      <c r="AD90" s="20"/>
-      <c r="AE90" s="20"/>
-      <c r="AF90" s="21"/>
-      <c r="AL90" s="19"/>
-      <c r="AM90" s="20"/>
-      <c r="AN90" s="20"/>
-      <c r="AO90" s="20"/>
-      <c r="AP90" s="20"/>
-      <c r="AQ90" s="20"/>
-      <c r="AR90" s="20"/>
-      <c r="AS90" s="20"/>
-      <c r="AT90" s="20"/>
-      <c r="AU90" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AQ89:AT89"/>
-    <mergeCell ref="Z62:AC62"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="AB89:AE89"/>
-    <mergeCell ref="AM89:AN89"/>
-    <mergeCell ref="AO89:AP89"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -13144,7 +10330,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -13156,7 +10342,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -13168,7 +10354,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
@@ -13180,7 +10366,7 @@
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="BM8" s="4"/>
       <c r="BN8" s="4"/>
@@ -13324,32 +10510,24 @@
       <c r="W11" s="3"/>
       <c r="X11" s="9"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK11" s="23" t="s">
-        <v>62</v>
+      <c r="AE11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF11" s="50">
+        <v>41548</v>
+      </c>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="51" t="s">
+        <v>182</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="9"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
@@ -13395,28 +10573,32 @@
       <c r="W12" s="3"/>
       <c r="X12" s="9"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="25">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="25">
-        <v>2</v>
-      </c>
-      <c r="AI12" s="25">
-        <v>3</v>
-      </c>
-      <c r="AJ12" s="24">
-        <v>4</v>
-      </c>
-      <c r="AK12" s="23">
-        <v>5</v>
+      <c r="AE12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ12" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK12" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="9"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
@@ -13457,32 +10639,28 @@
       <c r="W13" s="3"/>
       <c r="X13" s="9"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="23">
-        <v>6</v>
-      </c>
-      <c r="AF13" s="24">
-        <v>7</v>
-      </c>
-      <c r="AG13" s="24">
-        <v>8</v>
-      </c>
-      <c r="AH13" s="24">
-        <v>9</v>
-      </c>
-      <c r="AI13" s="24">
-        <v>10</v>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="25">
+        <v>3</v>
       </c>
       <c r="AJ13" s="24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AK13" s="23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="9"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AS13" s="26"/>
       <c r="AT13" s="26"/>
@@ -13527,31 +10705,31 @@
       <c r="X14" s="9"/>
       <c r="AD14" s="8"/>
       <c r="AE14" s="23">
-        <v>13</v>
-      </c>
-      <c r="AF14" s="25">
-        <v>14</v>
-      </c>
-      <c r="AG14" s="25">
-        <v>15</v>
-      </c>
-      <c r="AH14" s="25">
-        <v>16</v>
-      </c>
-      <c r="AI14" s="25">
-        <v>17</v>
-      </c>
-      <c r="AJ14" s="25">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="24">
+        <v>9</v>
+      </c>
+      <c r="AI14" s="24">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="24">
+        <v>11</v>
       </c>
       <c r="AK14" s="23">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AL14" s="3"/>
       <c r="AM14" s="9"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
@@ -13587,7 +10765,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="8"/>
       <c r="P15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -13599,31 +10777,31 @@
       <c r="X15" s="9"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF15" s="25">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AG15" s="25">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH15" s="25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI15" s="25">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ15" s="25">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AK15" s="23">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="9"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
@@ -13665,29 +10843,31 @@
       <c r="X16" s="9"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AF16" s="25">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AG16" s="25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AH16" s="25">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI16" s="25">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AJ16" s="25">
-        <v>31</v>
-      </c>
-      <c r="AK16" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="AK16" s="23">
+        <v>25</v>
+      </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="9"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="26"/>
@@ -13729,13 +10909,25 @@
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
+      <c r="AE17" s="23">
+        <v>26</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>27</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>29</v>
+      </c>
+      <c r="AI17" s="25">
+        <v>30</v>
+      </c>
+      <c r="AJ17" s="25">
+        <v>31</v>
+      </c>
+      <c r="AK17" s="23"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="9"/>
       <c r="AQ17" s="8"/>
@@ -13781,18 +10973,12 @@
       <c r="W18" s="3"/>
       <c r="X18" s="9"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="9"/>
@@ -13838,16 +11024,16 @@
       <c r="X19" s="9"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-      <c r="AH19" s="3">
-        <v>30</v>
+      <c r="AH19" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="31">
-        <v>18</v>
+      <c r="AJ19" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
@@ -13896,16 +11082,16 @@
       <c r="X20" s="9"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="3">
-        <v>20</v>
+      <c r="AJ20" s="31">
+        <v>18</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
@@ -13949,12 +11135,18 @@
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="3"/>
+      <c r="AE21" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
+      <c r="AH21" s="3">
+        <v>20</v>
+      </c>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
+      <c r="AJ21" s="3">
+        <v>20</v>
+      </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="9"/>
@@ -14001,9 +11193,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="9"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -14053,7 +11243,9 @@
       <c r="W23" s="3"/>
       <c r="X23" s="9"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="3"/>
+      <c r="AE23" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
@@ -14105,9 +11297,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="9"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -14159,7 +11349,9 @@
       <c r="W25" s="3"/>
       <c r="X25" s="9"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="3"/>
+      <c r="AE25" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
@@ -14220,7 +11412,7 @@
       <c r="AM26" s="9"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
@@ -14274,7 +11466,7 @@
       <c r="AM27" s="9"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
@@ -14282,7 +11474,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="9"/>
@@ -14333,7 +11525,7 @@
       <c r="AM28" s="9"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
@@ -14341,7 +11533,7 @@
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="9"/>
@@ -14559,7 +11751,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -14571,7 +11763,7 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
@@ -14583,7 +11775,7 @@
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
       <c r="AT40" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
@@ -14595,7 +11787,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
       <c r="BG40" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="BH40" s="4"/>
       <c r="BI40" s="4"/>
@@ -14699,7 +11891,7 @@
     <row r="43" spans="15:65">
       <c r="O43" s="8"/>
       <c r="P43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -14735,7 +11927,7 @@
       <c r="AZ43" s="9"/>
       <c r="BD43" s="8"/>
       <c r="BE43" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="BF43" s="39"/>
       <c r="BG43" s="40"/>
@@ -14812,7 +12004,7 @@
       <c r="AQ45" s="8"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT45" s="26"/>
       <c r="AU45" s="26"/>
@@ -14823,7 +12015,7 @@
       <c r="AZ45" s="9"/>
       <c r="BD45" s="8"/>
       <c r="BE45" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="BF45" s="3"/>
       <c r="BG45" s="3"/>
@@ -14837,7 +12029,7 @@
     <row r="46" spans="15:65">
       <c r="O46" s="8"/>
       <c r="P46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -14914,7 +12106,7 @@
       <c r="AZ47" s="9"/>
       <c r="BD47" s="8"/>
       <c r="BE47" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="BF47" s="3"/>
       <c r="BG47" s="3"/>
@@ -14948,7 +12140,7 @@
       <c r="AQ48" s="8"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AT48" s="32"/>
       <c r="AU48" s="32"/>
@@ -14971,7 +12163,7 @@
     <row r="49" spans="15:65">
       <c r="O49" s="8"/>
       <c r="P49" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -15048,13 +12240,13 @@
       <c r="AZ50" s="9"/>
       <c r="BD50" s="8"/>
       <c r="BE50" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="BF50" s="3"/>
       <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
       <c r="BI50" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
@@ -15095,7 +12287,7 @@
       <c r="AZ51" s="9"/>
       <c r="BD51" s="8"/>
       <c r="BE51" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BF51" s="26"/>
       <c r="BG51" s="26"/>
@@ -15109,7 +12301,7 @@
     <row r="52" spans="15:65">
       <c r="O52" s="8"/>
       <c r="P52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -15129,7 +12321,7 @@
       <c r="AM52" s="9"/>
       <c r="AQ52" s="8"/>
       <c r="AS52" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AT52" s="26"/>
       <c r="AU52" s="26"/>
@@ -15139,13 +12331,13 @@
       <c r="AZ52" s="9"/>
       <c r="BD52" s="8"/>
       <c r="BE52" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="BF52" s="3"/>
       <c r="BG52" s="26"/>
       <c r="BH52" s="26"/>
       <c r="BI52" s="41" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="BJ52" s="26"/>
       <c r="BK52" s="26"/>
@@ -15187,7 +12379,7 @@
       <c r="AZ53" s="9"/>
       <c r="BD53" s="8"/>
       <c r="BE53" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BF53" s="26"/>
       <c r="BG53" s="26"/>
@@ -15231,13 +12423,13 @@
       <c r="AZ54" s="9"/>
       <c r="BD54" s="8"/>
       <c r="BE54" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="BF54" s="3"/>
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
       <c r="BI54" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
@@ -15246,7 +12438,7 @@
     <row r="55" spans="15:65">
       <c r="O55" s="8"/>
       <c r="P55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -15269,7 +12461,7 @@
       <c r="AQ55" s="8"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AT55" s="32"/>
       <c r="AU55" s="32"/>
@@ -15280,7 +12472,7 @@
       <c r="AZ55" s="9"/>
       <c r="BD55" s="8"/>
       <c r="BE55" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BF55" s="37"/>
       <c r="BG55" s="32"/>
@@ -15328,7 +12520,7 @@
       <c r="AZ56" s="9"/>
       <c r="BD56" s="8"/>
       <c r="BE56" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="BF56" s="26"/>
       <c r="BG56" s="26"/>
@@ -15342,7 +12534,7 @@
     <row r="57" spans="15:65">
       <c r="O57" s="8"/>
       <c r="P57" s="31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -15374,7 +12566,7 @@
       <c r="AZ57" s="9"/>
       <c r="BD57" s="8"/>
       <c r="BE57" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="BF57" s="3"/>
       <c r="BG57" s="3"/>
@@ -15397,7 +12589,7 @@
       <c r="X58" s="9"/>
       <c r="AD58" s="8"/>
       <c r="AE58" s="31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
@@ -15419,13 +12611,13 @@
       <c r="AZ58" s="9"/>
       <c r="BD58" s="8"/>
       <c r="BE58" s="41" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BF58" s="3"/>
       <c r="BG58" s="3"/>
       <c r="BH58" s="3"/>
       <c r="BI58" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
@@ -15562,24 +12754,24 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="51"/>
+      <c r="R62" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="47"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH62" s="50"/>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="51"/>
+      <c r="AG62" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH62" s="46"/>
+      <c r="AI62" s="46"/>
+      <c r="AJ62" s="47"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="18"/>
@@ -15587,16 +12779,16 @@
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
       <c r="AT62" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AU62" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AV62" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AW62" s="42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4"/>
@@ -15717,7 +12909,7 @@
       <c r="BE69" s="4"/>
       <c r="BF69" s="4"/>
       <c r="BG69" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="BH69" s="4"/>
       <c r="BI69" s="4"/>
@@ -15777,7 +12969,7 @@
     <row r="72" spans="15:65">
       <c r="O72" s="8"/>
       <c r="P72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
@@ -15789,7 +12981,7 @@
       <c r="X72" s="9"/>
       <c r="BD72" s="8"/>
       <c r="BE72" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="BF72" s="39"/>
       <c r="BG72" s="40"/>
@@ -15834,7 +13026,7 @@
       <c r="X74" s="9"/>
       <c r="BD74" s="8"/>
       <c r="BE74" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="BF74" s="3"/>
       <c r="BG74" s="3"/>
@@ -15872,7 +13064,7 @@
     <row r="76" spans="15:65">
       <c r="O76" s="8"/>
       <c r="P76" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q76" s="34"/>
       <c r="R76" s="34"/>
@@ -15884,7 +13076,7 @@
       <c r="X76" s="9"/>
       <c r="BD76" s="8"/>
       <c r="BE76" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="BF76" s="3"/>
       <c r="BG76" s="3"/>
@@ -15919,7 +13111,7 @@
     <row r="78" spans="15:65">
       <c r="O78" s="8"/>
       <c r="P78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q78" s="26"/>
       <c r="R78" s="26"/>
@@ -15955,7 +13147,7 @@
       <c r="X79" s="9"/>
       <c r="BD79" s="8"/>
       <c r="BE79" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="BF79" s="34"/>
       <c r="BG79" s="34"/>
@@ -15990,7 +13182,7 @@
     <row r="81" spans="15:65">
       <c r="O81" s="8"/>
       <c r="P81" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q81" s="32"/>
       <c r="R81" s="32"/>
@@ -16002,7 +13194,7 @@
       <c r="X81" s="9"/>
       <c r="BD81" s="8"/>
       <c r="BE81" s="41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="BF81" s="3"/>
       <c r="BG81" s="26"/>
@@ -16011,7 +13203,7 @@
         <v>20</v>
       </c>
       <c r="BJ81" s="41" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="BK81" s="26"/>
       <c r="BM81" s="9"/>
@@ -16051,7 +13243,7 @@
       <c r="X83" s="9"/>
       <c r="BD83" s="8"/>
       <c r="BE83" s="41" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="BF83" s="3"/>
       <c r="BG83" s="3"/>
@@ -16165,7 +13357,7 @@
       <c r="X88" s="18"/>
       <c r="BD88" s="8"/>
       <c r="BE88" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="BF88" s="3"/>
       <c r="BG88" s="3"/>
@@ -16174,7 +13366,7 @@
         <v>40</v>
       </c>
       <c r="BJ88" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
@@ -16182,20 +13374,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="52" t="s">
+      <c r="P89" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="S89" s="48"/>
+      <c r="T89" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="S89" s="52"/>
-      <c r="T89" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="W89" s="51"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="47"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -16255,7 +13447,8 @@
       <c r="BM92" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AF11:AJ11"/>
     <mergeCell ref="R62:U62"/>
     <mergeCell ref="AG62:AJ62"/>
     <mergeCell ref="P89:Q89"/>
@@ -16269,12 +13462,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="3:16">
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16289,7 +13638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -16379,7 +13728,7 @@
     </row>
     <row r="6" spans="5:10" ht="15">
       <c r="E6" s="44" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="5:10">
@@ -16397,7 +13746,7 @@
   <dimension ref="I3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16418,7 +13767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -16440,9 +13789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -1107,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1161,6 +1161,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,14 +1182,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10252,8 +10255,8 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -10513,14 +10516,14 @@
       <c r="AE11" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AF11" s="50">
+      <c r="AF11" s="46">
         <v>41548</v>
       </c>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="51" t="s">
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="45" t="s">
         <v>182</v>
       </c>
       <c r="AL11" s="3"/>
@@ -10573,25 +10576,25 @@
       <c r="W12" s="3"/>
       <c r="X12" s="9"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="23" t="s">
+      <c r="AE12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="23" t="s">
+      <c r="AF12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" s="23" t="s">
+      <c r="AG12" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="23" t="s">
+      <c r="AH12" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="AI12" s="23" t="s">
+      <c r="AI12" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AJ12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="AK12" s="23" t="s">
+      <c r="AK12" s="52" t="s">
         <v>62</v>
       </c>
       <c r="AL12" s="3"/>
@@ -12754,24 +12757,24 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="45" t="s">
+      <c r="R62" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="47"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="50"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="45" t="s">
+      <c r="AG62" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="AH62" s="46"/>
-      <c r="AI62" s="46"/>
-      <c r="AJ62" s="47"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="50"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="18"/>
@@ -13374,20 +13377,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="48" t="s">
+      <c r="P89" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48" t="s">
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="48"/>
-      <c r="T89" s="45" t="s">
+      <c r="S89" s="51"/>
+      <c r="T89" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="46"/>
-      <c r="V89" s="46"/>
-      <c r="W89" s="47"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="50"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="199">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回以月为单位的json，包含这个月中每一天是否已填报工时等标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,14 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前员工的工时列表(工时日历)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的工时列表(项目一览)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回以月为单位的json，包含这个月已填报的项目工时合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,14 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前员工的工时列表(加班一览)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的工时列表(休假一览)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回以月为单位的json，包含这个月已填报的加班合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,6 +793,89 @@
   </si>
   <si>
     <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月考勤规则取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得当月出勤日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁时间取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态(服务器端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态(手机端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(工时日历用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据取得同工时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的加班时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的项目时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的休假时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的最早和最晚门禁时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，查询的区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的设定过的考勤规则明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询的区间</t>
+  </si>
+  <si>
+    <t>返回指定时间内的设定过的日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回时间区间内，已填写过考勤，加班或者休假的工时信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,6 +1227,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,9 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10255,8 +10318,8 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="O13" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -10345,7 +10408,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -10357,7 +10420,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
@@ -10514,17 +10577,17 @@
       <c r="X11" s="9"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF11" s="46">
+        <v>176</v>
+      </c>
+      <c r="AF11" s="47">
         <v>41548</v>
       </c>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
       <c r="AK11" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="9"/>
@@ -10576,25 +10639,25 @@
       <c r="W12" s="3"/>
       <c r="X12" s="9"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AE12" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AF12" s="52" t="s">
+      <c r="AF12" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AG12" s="52" t="s">
+      <c r="AG12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="52" t="s">
+      <c r="AH12" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AI12" s="52" t="s">
+      <c r="AI12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AJ12" s="52" t="s">
+      <c r="AJ12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AK12" s="52" t="s">
+      <c r="AK12" s="46" t="s">
         <v>62</v>
       </c>
       <c r="AL12" s="3"/>
@@ -12757,24 +12820,24 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="48" t="s">
+      <c r="R62" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="51"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="48" t="s">
+      <c r="AG62" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AH62" s="49"/>
-      <c r="AI62" s="49"/>
-      <c r="AJ62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="51"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="18"/>
@@ -13377,20 +13440,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="51" t="s">
+      <c r="P89" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="51" t="s">
+      <c r="Q89" s="52"/>
+      <c r="R89" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="51"/>
-      <c r="T89" s="48" t="s">
+      <c r="S89" s="52"/>
+      <c r="T89" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="49"/>
-      <c r="V89" s="49"/>
-      <c r="W89" s="50"/>
+      <c r="U89" s="50"/>
+      <c r="V89" s="50"/>
+      <c r="W89" s="51"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -13467,15 +13530,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:P18"/>
+  <dimension ref="B4:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:16">
+    <row r="4" spans="2:18">
       <c r="C4" t="s">
         <v>150</v>
       </c>
@@ -13486,133 +13554,202 @@
         <v>152</v>
       </c>
       <c r="P4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
         <v>155</v>
       </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="5" spans="3:16">
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" t="s">
-        <v>179</v>
+    <row r="12" spans="2:18">
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="9" spans="3:16">
-      <c r="C9" t="s">
+    <row r="13" spans="2:18">
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" t="s">
         <v>160</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="17" spans="2:17">
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
         <v>153</v>
       </c>
-      <c r="I9" t="s">
-        <v>154</v>
-      </c>
-      <c r="P9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16">
-      <c r="C10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16">
-      <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" t="s">
-        <v>159</v>
-      </c>
-      <c r="P14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16">
-      <c r="C15" t="s">
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" t="s">
         <v>168</v>
       </c>
-      <c r="F15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16">
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" t="s">
-        <v>170</v>
-      </c>
-      <c r="P16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" t="s">
-        <v>174</v>
-      </c>
-      <c r="P18" t="s">
-        <v>173</v>
+      <c r="Q20" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -13792,7 +13929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="功能一览" sheetId="14" r:id="rId1"/>
-    <sheet name="画面流转一览" sheetId="12" r:id="rId2"/>
+    <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
+    <sheet name="系统构成" sheetId="19" r:id="rId2"/>
     <sheet name="业务功能点" sheetId="4" r:id="rId3"/>
-    <sheet name="交互数据格式" sheetId="18" r:id="rId4"/>
-    <sheet name="通讯加密" sheetId="16" r:id="rId5"/>
-    <sheet name="login功能" sheetId="2" r:id="rId6"/>
-    <sheet name="logout功能" sheetId="13" r:id="rId7"/>
-    <sheet name="消息通知" sheetId="15" r:id="rId8"/>
-    <sheet name="工时填报" sheetId="7" r:id="rId9"/>
-    <sheet name="工时审批" sheetId="8" r:id="rId10"/>
+    <sheet name="画面流转一览" sheetId="12" r:id="rId4"/>
+    <sheet name="交互数据格式" sheetId="18" r:id="rId5"/>
+    <sheet name="通讯加密" sheetId="16" r:id="rId6"/>
+    <sheet name="login功能" sheetId="2" r:id="rId7"/>
+    <sheet name="logout功能" sheetId="13" r:id="rId8"/>
+    <sheet name="消息通知" sheetId="15" r:id="rId9"/>
+    <sheet name="工时填报" sheetId="7" r:id="rId10"/>
+    <sheet name="工时审批" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,23 +697,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>调用画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时明细画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，级别等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态(服务器端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态(手机端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据取得同工时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装有WindowsPhone8.1的lumia920T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月考勤规则取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得当月出勤日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁时间取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时列表(工时日历用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的项目时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的加班时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的休假时间合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的工时明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的加班明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的休假明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有薪假剩余天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工的未填工时天数合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，查询的区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询的区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，在日历上点击的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，日期等工时信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，日期等加班信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，日期等休假信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工号，当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>员工号，查询的月份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的工时明细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号，在日历上点击的日期</t>
+    <t>返回指定时间内的设定过的考勤规则明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的设定过的日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的最早和最晚门禁时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回时间区间内，已填写过考勤，加班或者休假的工时信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的项目工时合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的加班合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以月为单位的json，包含这个月已填报的休假合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -720,43 +949,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回以月为单位的json，包含这个月已填报的项目工时合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时明细画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回以月为单位的json，包含这个月已填报的加班合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回以月为单位的json，包含这个月已填报的休假合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号，日期等工时信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回传入的参数和是否成功的标志，以及错误消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的未填工时天数合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知画面</t>
+    <t>返回以周为单位的json，包含这个星期每一天的具体明细加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回以周为单位的json，包含这个星期每一天的具体明细休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得剩余的有薪假期天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得剩余的调休天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -764,118 +973,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报销一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名，密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号，级别等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月考勤规则取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得当月出勤日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁时间取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态(服务器端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态(手机端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的工时列表(工时日历用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据取得同工时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，测试OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的加班时间合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的项目时间合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工的休假时间合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定时间内的最早和最晚门禁时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工号，查询的区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定时间内的设定过的考勤规则明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询的区间</t>
-  </si>
-  <si>
-    <t>返回指定时间内的设定过的日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回时间区间内，已填写过考勤，加班或者休假的工时信息</t>
+    <t>Nodejs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一括提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,6 +985,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1170,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,6 +1335,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,6 +1355,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,6 +1389,5172 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349044</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510969</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 190"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3778044" y="2000250"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>453818</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3197018" y="2514600"/>
+          <a:ext cx="542821" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384405</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 197"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5870805" y="1200150"/>
+          <a:ext cx="2905125" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1000" i="0" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NodeJs</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>159577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22455</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 200"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5708880" y="3245677"/>
+          <a:ext cx="3228975" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>サーバ</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384405</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 201"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5870805" y="3639203"/>
+          <a:ext cx="2886075" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Mysql</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360528</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3103728" y="1947862"/>
+          <a:ext cx="844202" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>処理要求</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>HTTP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>リクエスト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9992</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3224026" y="3429000"/>
+          <a:ext cx="900766" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>実行結果</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60555</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7934325" y="3277253"/>
+          <a:ext cx="1041630" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>node-mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224697</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 206"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1501047" y="2105025"/>
+          <a:ext cx="1466850" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>lumia920</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367572</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653322</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 207"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1739172" y="2419350"/>
+          <a:ext cx="971550" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>入力画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491397</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 208"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1891572" y="2628900"/>
+          <a:ext cx="657225" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653322</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 209"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1739172" y="3019425"/>
+          <a:ext cx="971550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>応答画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60555</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>384405</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8290155" y="2362200"/>
+          <a:ext cx="323850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165330</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40547</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 213"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="23" idx="1"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7023330" y="1657350"/>
+          <a:ext cx="1246817" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>269713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>497181</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7813513" y="1905000"/>
+          <a:ext cx="913268" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>bussi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>451079</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>497181</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 216"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8680679" y="2100263"/>
+          <a:ext cx="46102" cy="1938990"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -495857"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365355</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3405</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8594955" y="3029081"/>
+          <a:ext cx="323850" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456930</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165330</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5943330" y="1533525"/>
+          <a:ext cx="1080000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>request</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5943330" y="2352675"/>
+          <a:ext cx="1080000" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>response</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>165331</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40548</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="7556252" y="1762604"/>
+          <a:ext cx="180975" cy="1246817"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84041</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445991</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5570441" y="2476500"/>
+          <a:ext cx="361950" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑥</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41916</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8201819" y="1304925"/>
+          <a:ext cx="755497" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>内部</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>572164</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 229"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3896389" y="2228850"/>
+          <a:ext cx="1476375" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Net</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95913</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278353</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4210713" y="2619375"/>
+          <a:ext cx="868240" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>HTTP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278353</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456930</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 247"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5078953" y="1657350"/>
+          <a:ext cx="864377" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491397</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 248"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2548797" y="2743200"/>
+          <a:ext cx="1661916" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84041</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484091</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5570441" y="1419225"/>
+          <a:ext cx="400050" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>498704</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>451079</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5985104" y="3915428"/>
+          <a:ext cx="2695575" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>インスタンス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278353</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4210713" y="2867025"/>
+          <a:ext cx="868240" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>HTTP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278354</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456931</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 358"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5078954" y="2476500"/>
+          <a:ext cx="864377" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>567597</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>310422</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Text Box 87"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3310797" y="3190875"/>
+          <a:ext cx="428625" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" algn="ctr">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653323</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95914</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 367"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2710723" y="2990849"/>
+          <a:ext cx="1499991" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360528</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="1846939"/>
+          <a:ext cx="1732128" cy="1653432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="ctr" rtl="0" fontAlgn="base">
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGP創英角ｺﾞｼｯｸUB" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Mobile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>端</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="MS PGothic" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1507,39 +6791,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="371475" cy="330845"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="11401425"/>
-          <a:ext cx="371475" cy="330845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
@@ -1857,16 +7108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>199881</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>146552</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78437</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114156</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>162710</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>230837</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>91274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1875,8 +7126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2284923">
-          <a:off x="7819881" y="10090652"/>
-          <a:ext cx="1343025" cy="2587908"/>
+          <a:off x="5555312" y="10362115"/>
+          <a:ext cx="1343025" cy="2587909"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1923,10 +7174,441 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="2495550"/>
+          <a:ext cx="828675" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示当月还没有提交工时的天数合计，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>以及通过手机端的推送功能获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IVGGS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上的通知</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="1771650"/>
+          <a:ext cx="828675" cy="1724026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在日历画面通过颜色区分是否要填工时，是否已提交等信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="3705225"/>
+          <a:ext cx="1000125" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提供当月加班休假和项目的合计信息统计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="7153275"/>
+          <a:ext cx="1000125" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>只显示没有填写的工时</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="7296150"/>
+          <a:ext cx="1000125" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过消息和颜色区分是否已填写完整，是否已提交等信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="12534900"/>
+          <a:ext cx="1000125" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过分类的选择来显示后续需要显示的内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="1933575"/>
+          <a:ext cx="828675" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>报销放在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>期</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2313,7 +7995,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4732,7 +10414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7593,7 +13275,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8214,7 +13896,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10300,6 +15982,21 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -10313,13 +16010,721 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:R24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="26.875" customWidth="1"/>
+    <col min="18" max="18" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="55"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="55"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="55"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="55"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="55"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" s="55"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="R24" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="O13" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG85" sqref="AG85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -10408,7 +16813,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -10420,7 +16825,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
@@ -10577,17 +16982,17 @@
       <c r="X11" s="9"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF11" s="47">
+        <v>162</v>
+      </c>
+      <c r="AF11" s="48">
         <v>41548</v>
       </c>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
       <c r="AK11" s="45" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="9"/>
@@ -11965,7 +18370,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="29"/>
+      <c r="W43" s="3"/>
       <c r="X43" s="9"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="3" t="s">
@@ -12103,7 +18508,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="29"/>
+      <c r="W46" s="3"/>
       <c r="X46" s="9"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="3" t="s">
@@ -12237,7 +18642,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="29"/>
+      <c r="W49" s="3"/>
       <c r="X49" s="9"/>
       <c r="AD49" s="8"/>
       <c r="AE49" s="3" t="s">
@@ -12375,7 +18780,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="29"/>
+      <c r="W52" s="3"/>
       <c r="X52" s="9"/>
       <c r="AD52" s="8"/>
       <c r="AF52" s="30"/>
@@ -12512,7 +18917,6 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="29"/>
       <c r="X55" s="9"/>
       <c r="AD55" s="8"/>
       <c r="AE55" s="3"/>
@@ -12820,26 +19224,32 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="49" t="s">
+      <c r="R62" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="52"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
       <c r="AD62" s="17"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="49" t="s">
+      <c r="AE62" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF62" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AH62" s="50"/>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="51"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="AM62" s="18"/>
       <c r="AQ62" s="17"/>
       <c r="AR62" s="4"/>
@@ -12987,14 +19397,18 @@
     <row r="70" spans="15:65">
       <c r="O70" s="8"/>
       <c r="P70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="Q70" s="54">
+        <v>41577</v>
+      </c>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="45" t="s">
+        <v>163</v>
+      </c>
       <c r="W70" s="27"/>
       <c r="X70" s="9"/>
       <c r="BD70" s="17"/>
@@ -13035,7 +19449,7 @@
     <row r="72" spans="15:65">
       <c r="O72" s="8"/>
       <c r="P72" s="3" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
@@ -13060,7 +19474,9 @@
     </row>
     <row r="73" spans="15:65">
       <c r="O73" s="8"/>
-      <c r="P73" s="33"/>
+      <c r="P73" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="Q73" s="34"/>
       <c r="R73" s="34"/>
       <c r="S73" s="34"/>
@@ -13106,7 +19522,7 @@
     <row r="75" spans="15:65">
       <c r="O75" s="8"/>
       <c r="P75" s="3" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
@@ -13129,9 +19545,7 @@
     </row>
     <row r="76" spans="15:65">
       <c r="O76" s="8"/>
-      <c r="P76" s="33" t="s">
-        <v>79</v>
-      </c>
+      <c r="P76" s="33"/>
       <c r="Q76" s="34"/>
       <c r="R76" s="34"/>
       <c r="S76" s="34"/>
@@ -13440,20 +19854,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="52" t="s">
+      <c r="P89" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52" t="s">
+      <c r="Q89" s="53"/>
+      <c r="R89" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="52"/>
-      <c r="T89" s="49" t="s">
+      <c r="S89" s="53"/>
+      <c r="T89" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="W89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="52"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -13513,13 +19927,15 @@
       <c r="BM92" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="AF11:AJ11"/>
     <mergeCell ref="R62:U62"/>
-    <mergeCell ref="AG62:AJ62"/>
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="R89:S89"/>
     <mergeCell ref="T89:W89"/>
+    <mergeCell ref="Q70:U70"/>
+    <mergeCell ref="AF62:AI62"/>
+    <mergeCell ref="AJ62:AK62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13528,242 +19944,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="6.375" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:18">
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" t="s">
-        <v>159</v>
-      </c>
-      <c r="P12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="C13" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="C14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" t="s">
-        <v>169</v>
-      </c>
-      <c r="P20" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13774,12 +19960,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13851,11 +20037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
@@ -13881,40 +20067,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="9:9">
       <c r="I3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="10:10">
-      <c r="J2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13927,15 +20091,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="10:10">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="226">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,13 +980,21 @@
     <t>一括提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据取得同工时列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1338,6 +1346,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,15 +1371,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16045,8 +16053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16058,590 +16066,658 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18">
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="48" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="55" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="R5" s="55"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55" t="s">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="55"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="55"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="55" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="R9" s="55"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="55" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
+      <c r="Q10" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="55" t="s">
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="R11" s="55"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="55" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="R12" s="55"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="55" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
+      <c r="Q13" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="55" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="55" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="55" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
+      <c r="Q16" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="55" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="55" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="55" t="s">
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
+      <c r="Q19" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="55" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="55" t="s">
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="55" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57" t="s">
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="55" t="s">
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="55" t="s">
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="Q24" s="55" t="s">
+      <c r="Q24" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="R24" s="55"/>
+      <c r="R24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="I24:O24"/>
     <mergeCell ref="I17:O17"/>
@@ -16650,66 +16726,6 @@
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16723,7 +16739,7 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG85" sqref="AG85"/>
     </sheetView>
   </sheetViews>
@@ -16984,13 +17000,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="48">
+      <c r="AF11" s="51">
         <v>41548</v>
       </c>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -19224,12 +19240,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="50" t="s">
+      <c r="R62" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="52"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="55"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19237,16 +19253,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="50" t="s">
+      <c r="AF62" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="51"/>
-      <c r="AH62" s="51"/>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="50" t="s">
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="54"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="AK62" s="52"/>
+      <c r="AK62" s="55"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -19399,13 +19415,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="54">
+      <c r="Q70" s="57">
         <v>41577</v>
       </c>
-      <c r="R70" s="54"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -19854,20 +19870,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="53" t="s">
+      <c r="P89" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="53"/>
-      <c r="R89" s="53" t="s">
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="53"/>
-      <c r="T89" s="50" t="s">
+      <c r="S89" s="56"/>
+      <c r="T89" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="51"/>
-      <c r="V89" s="51"/>
-      <c r="W89" s="52"/>
+      <c r="U89" s="54"/>
+      <c r="V89" s="54"/>
+      <c r="W89" s="55"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1279,11 +1287,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1372,6 +1417,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16051,10 +16105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R24"/>
+  <dimension ref="B4:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16325,7 +16379,7 @@
       <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -16356,7 +16410,7 @@
       <c r="R13" s="48"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="50"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="49" t="s">
         <v>188</v>
       </c>
@@ -16383,7 +16437,7 @@
       <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="50"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="49" t="s">
         <v>189</v>
       </c>
@@ -16410,21 +16464,19 @@
       <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="50" t="s">
-        <v>173</v>
-      </c>
+      <c r="B16" s="59"/>
       <c r="C16" s="49" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
@@ -16433,26 +16485,26 @@
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
       <c r="P16" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="48" t="s">
-        <v>224</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Q16" s="48"/>
       <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="50"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="49" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="49" t="s">
+        <v>216</v>
+      </c>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
@@ -16460,24 +16512,28 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="48" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="50"/>
+      <c r="B18" s="50" t="s">
+        <v>173</v>
+      </c>
       <c r="C18" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="I18" s="49" t="s">
+        <v>217</v>
+      </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -16485,28 +16541,26 @@
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="48"/>
+        <v>173</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>224</v>
+      </c>
       <c r="R18" s="48"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="50" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" s="50"/>
       <c r="C19" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
-      <c r="I19" s="49" t="s">
-        <v>218</v>
-      </c>
+      <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
@@ -16514,22 +16568,20 @@
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" s="48" t="s">
-        <v>224</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Q19" s="48"/>
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="50"/>
       <c r="C20" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
@@ -16541,24 +16593,28 @@
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="48"/>
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="50"/>
+      <c r="B21" s="50" t="s">
+        <v>174</v>
+      </c>
       <c r="C21" s="49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="I21" s="49" t="s">
+        <v>218</v>
+      </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
@@ -16566,26 +16622,26 @@
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q21" s="48"/>
+        <v>174</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>224</v>
+      </c>
       <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="50"/>
       <c r="C22" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
-      <c r="I22" s="49" t="s">
-        <v>219</v>
-      </c>
+      <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
@@ -16601,18 +16657,16 @@
     <row r="23" spans="2:18">
       <c r="B23" s="50"/>
       <c r="C23" s="49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
-      <c r="I23" s="49" t="s">
-        <v>220</v>
-      </c>
+      <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
@@ -16626,21 +16680,19 @@
       <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="48" t="s">
-        <v>165</v>
-      </c>
+      <c r="B24" s="50"/>
       <c r="C24" s="49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -16649,83 +16701,145 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="48" t="s">
-        <v>169</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="Q24" s="48"/>
       <c r="R24" s="48"/>
     </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="50"/>
+      <c r="C25" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="R26" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="74">
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I22:O22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="工时填报" sheetId="7" r:id="rId10"/>
     <sheet name="工时审批" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="230">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据取得同工时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成,测试OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,34 +837,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前员工的加班明细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前员工的休假明细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增休假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新休假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有薪假剩余天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -933,18 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回以月为单位的json，包含这个月已填报的项目工时合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回以月为单位的json，包含这个月已填报的加班合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回以月为单位的json，包含这个月已填报的休假合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回以周为单位的json，包含这个星期每一天的具体明细工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,19 +945,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据取得同工时列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>撤回工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据取得同工时的工时明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>提交工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撤回工时</t>
+    <t>返回指定时间内的项目工时合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的加班工时合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间内的休假工时合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHDetailList</t>
+  </si>
+  <si>
+    <t>访问方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+  </si>
+  <si>
+    <t>getCalendar</t>
+  </si>
+  <si>
+    <t>完成，测试OK？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1398,6 +1403,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,15 +1433,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15518,7 +15524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15560,7 +15566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15595,7 +15601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16075,25 +16081,25 @@
   <dimension ref="C3:D5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
         <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -16105,10 +16111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R26"/>
+  <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16119,7 +16125,7 @@
     <col min="18" max="18" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:19">
       <c r="B4" s="48"/>
       <c r="C4" s="50" t="s">
         <v>150</v>
@@ -16149,8 +16155,11 @@
       <c r="R4" s="48" t="s">
         <v>167</v>
       </c>
+      <c r="S4" s="61" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:19">
       <c r="B5" s="50" t="s">
         <v>164</v>
       </c>
@@ -16160,7 +16169,7 @@
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="49"/>
@@ -16177,24 +16186,27 @@
         <v>160</v>
       </c>
       <c r="Q5" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R5" s="48"/>
+      <c r="S5" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:19">
       <c r="B6" s="50"/>
       <c r="C6" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
@@ -16204,24 +16216,27 @@
       <c r="O6" s="49"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R6" s="48"/>
+      <c r="S6" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:19">
       <c r="B7" s="50"/>
       <c r="C7" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
       <c r="F7" s="49" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
@@ -16231,26 +16246,29 @@
       <c r="O7" s="49"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R7" s="48"/>
+      <c r="S7" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:19">
       <c r="B8" s="50" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
@@ -16262,20 +16280,20 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:19">
       <c r="B9" s="50"/>
       <c r="C9" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
       <c r="I9" s="49" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
@@ -16287,24 +16305,27 @@
         <v>154</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="R9" s="48"/>
+      <c r="S9" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:19">
       <c r="B10" s="50"/>
       <c r="C10" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="49" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
@@ -16316,24 +16337,24 @@
         <v>154</v>
       </c>
       <c r="Q10" s="48" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:19">
       <c r="B11" s="50"/>
       <c r="C11" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
@@ -16345,24 +16366,24 @@
         <v>154</v>
       </c>
       <c r="Q11" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R11" s="48"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:19">
       <c r="B12" s="50"/>
       <c r="C12" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
@@ -16374,26 +16395,26 @@
         <v>154</v>
       </c>
       <c r="Q12" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R12" s="48"/>
     </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="58" t="s">
-        <v>172</v>
+    <row r="13" spans="2:19">
+      <c r="B13" s="51" t="s">
+        <v>171</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="49" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
@@ -16405,24 +16426,27 @@
         <v>155</v>
       </c>
       <c r="Q13" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="R13" s="48"/>
+      <c r="S13" t="s">
         <v>224</v>
       </c>
-      <c r="R13" s="48"/>
     </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="59"/>
+    <row r="14" spans="2:19">
+      <c r="B14" s="52"/>
       <c r="C14" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
       <c r="I14" s="49" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
@@ -16436,20 +16460,20 @@
       <c r="Q14" s="48"/>
       <c r="R14" s="48"/>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="59"/>
+    <row r="15" spans="2:19">
+      <c r="B15" s="52"/>
       <c r="C15" s="49" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
@@ -16463,20 +16487,20 @@
       <c r="Q15" s="48"/>
       <c r="R15" s="48"/>
     </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="59"/>
+    <row r="16" spans="2:19">
+      <c r="B16" s="52"/>
       <c r="C16" s="49" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
@@ -16490,20 +16514,18 @@
       <c r="Q16" s="48"/>
       <c r="R16" s="48"/>
     </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="60"/>
-      <c r="C17" s="49" t="s">
-        <v>227</v>
-      </c>
+    <row r="17" spans="2:19">
+      <c r="B17" s="53"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="49" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
@@ -16517,22 +16539,22 @@
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:19">
       <c r="B18" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
@@ -16541,22 +16563,25 @@
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="R18" s="48"/>
+      <c r="S18" t="s">
         <v>224</v>
       </c>
-      <c r="R18" s="48"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:19">
       <c r="B19" s="50"/>
       <c r="C19" s="49" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
@@ -16568,20 +16593,18 @@
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="48"/>
       <c r="R19" s="48"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:19">
       <c r="B20" s="50"/>
-      <c r="C20" s="49" t="s">
-        <v>192</v>
-      </c>
+      <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
@@ -16593,27 +16616,27 @@
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="48"/>
       <c r="R20" s="48"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:19">
       <c r="B21" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
       <c r="F21" s="49" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
@@ -16622,22 +16645,25 @@
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="R21" s="48"/>
+      <c r="S21" t="s">
         <v>224</v>
       </c>
-      <c r="R21" s="48"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:19">
       <c r="B22" s="50"/>
       <c r="C22" s="49" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
       <c r="F22" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="49"/>
@@ -16649,20 +16675,18 @@
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
       <c r="P22" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:19">
       <c r="B23" s="50"/>
-      <c r="C23" s="49" t="s">
-        <v>195</v>
-      </c>
+      <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="F23" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="49"/>
@@ -16674,25 +16698,25 @@
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
       <c r="P23" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:19">
       <c r="B24" s="50"/>
       <c r="C24" s="49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -16701,25 +16725,25 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="48"/>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:19">
       <c r="B25" s="50"/>
       <c r="C25" s="49" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="F25" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
@@ -16728,27 +16752,27 @@
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
       <c r="P25" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="48"/>
       <c r="R25" s="48"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:19">
       <c r="B26" s="48" t="s">
         <v>165</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
@@ -16760,12 +16784,70 @@
         <v>156</v>
       </c>
       <c r="Q26" s="48" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="R26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
@@ -16782,64 +16864,6 @@
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16853,7 +16877,7 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG85" sqref="AG85"/>
     </sheetView>
   </sheetViews>
@@ -17114,13 +17138,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="51">
+      <c r="AF11" s="54">
         <v>41548</v>
       </c>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -19354,12 +19378,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="53" t="s">
+      <c r="R62" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="55"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="58"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19367,16 +19391,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="53" t="s">
+      <c r="AF62" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="54"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="55"/>
-      <c r="AJ62" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK62" s="55"/>
+      <c r="AG62" s="57"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="58"/>
+      <c r="AJ62" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK62" s="58"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -19529,13 +19553,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="57">
+      <c r="Q70" s="60">
         <v>41577</v>
       </c>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="57"/>
-      <c r="U70" s="57"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="60"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -19984,20 +20008,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="56" t="s">
+      <c r="P89" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56" t="s">
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="56"/>
-      <c r="T89" s="53" t="s">
+      <c r="S89" s="59"/>
+      <c r="T89" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="54"/>
-      <c r="V89" s="54"/>
-      <c r="W89" s="55"/>
+      <c r="U89" s="57"/>
+      <c r="V89" s="57"/>
+      <c r="W89" s="58"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
     <sheet name="系统构成" sheetId="19" r:id="rId2"/>
     <sheet name="业务功能点" sheetId="4" r:id="rId3"/>
-    <sheet name="画面流转一览" sheetId="12" r:id="rId4"/>
-    <sheet name="交互数据格式" sheetId="18" r:id="rId5"/>
-    <sheet name="通讯加密" sheetId="16" r:id="rId6"/>
-    <sheet name="login功能" sheetId="2" r:id="rId7"/>
-    <sheet name="logout功能" sheetId="13" r:id="rId8"/>
-    <sheet name="消息通知" sheetId="15" r:id="rId9"/>
-    <sheet name="工时填报" sheetId="7" r:id="rId10"/>
-    <sheet name="工时审批" sheetId="8" r:id="rId11"/>
+    <sheet name="接口说明" sheetId="20" r:id="rId4"/>
+    <sheet name="画面流转一览" sheetId="12" r:id="rId5"/>
+    <sheet name="交互数据格式" sheetId="18" r:id="rId6"/>
+    <sheet name="通讯加密" sheetId="16" r:id="rId7"/>
+    <sheet name="login功能" sheetId="2" r:id="rId8"/>
+    <sheet name="logout功能" sheetId="13" r:id="rId9"/>
+    <sheet name="消息通知" sheetId="15" r:id="rId10"/>
+    <sheet name="工时填报" sheetId="7" r:id="rId11"/>
+    <sheet name="工时审批" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,7 +999,98 @@
     <t>getCalendar</t>
   </si>
   <si>
-    <t>完成，测试OK？</t>
+    <t>传入request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login?{“errmsg“:null,“errno“:null,“module“:null,“queryresult“:null,“credential“:“fEqNCco3Yq9h5ZUglD3CZJT4lBs=“,“userid“:null,“username“:“feng-jin.deng@ivision-china.cn“,“uuid“:null}","href":"/login?{“errmsg“:null,“errno“:null,“module“:null,“queryresult“:null,“credential“:“fEqNCco3Yq9h5ZUglD3CZJT4lBs=“,“userid“:null,“username“:“feng-jin.deng@ivision-china.cn“,“uuid“:null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆的用户名，带有@ivision-china.cn后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+  </si>
+  <si>
+    <t>queryresult</t>
+  </si>
+  <si>
+    <t>必要参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示校验通过，返回值为400，表示校验没有通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回用户邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回ivggs的唯一编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以json作为基本的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆模块:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称，固定为login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月考勤规则取得</t>
+  </si>
+  <si>
+    <t>取得当月出勤日历</t>
+  </si>
+  <si>
+    <t>登陆密码，SHA1加密后BASE64编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1201,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1333,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1397,6 +1502,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1433,7 +1539,8 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13327,6 +13434,202 @@
             </a:rPr>
             <a:t>的规则？</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560296</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1243855" y="12494559"/>
+          <a:ext cx="4202205" cy="2633382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>接口说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>传入的参数为</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/login?{“errmsg“:null,“errno“:null,“module“:null,“queryresult“:null,“credential“:“fEqNCco3Yq9h5ZUglD3CZJT4lBs=“,“userid“:null,“username“:“feng-jin.deng@ivision-china.cn“,“uuid“:null} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7014883" y="12617823"/>
+          <a:ext cx="4202205" cy="2633382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>接口说明：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>传出的参数为</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>[{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
@@ -16047,6 +16350,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="10:10">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16060,7 +16385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16113,8 +16438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16127,25 +16452,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="48" t="s">
         <v>153</v>
       </c>
@@ -16155,33 +16480,33 @@
       <c r="R4" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="49" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="48" t="s">
         <v>160</v>
       </c>
@@ -16194,26 +16519,26 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="50"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48" t="s">
         <v>169</v>
@@ -16224,26 +16549,26 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="50"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48" t="s">
         <v>170</v>
@@ -16254,58 +16579,58 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="50"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="48" t="s">
         <v>154</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
@@ -16313,26 +16638,26 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="50"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49" t="s">
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="48" t="s">
         <v>154</v>
       </c>
@@ -16342,26 +16667,26 @@
       <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="50"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="48" t="s">
         <v>154</v>
       </c>
@@ -16371,26 +16696,26 @@
       <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="50"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="48" t="s">
         <v>154</v>
       </c>
@@ -16400,28 +16725,28 @@
       <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49" t="s">
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="48" t="s">
         <v>155</v>
       </c>
@@ -16434,26 +16759,26 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="52"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="48" t="s">
         <v>155</v>
       </c>
@@ -16461,26 +16786,26 @@
       <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="52"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49" t="s">
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="48" t="s">
         <v>155</v>
       </c>
@@ -16488,26 +16813,26 @@
       <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="52"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="48" t="s">
         <v>155</v>
       </c>
@@ -16515,24 +16840,24 @@
       <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="53"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="48" t="s">
         <v>155</v>
       </c>
@@ -16540,28 +16865,28 @@
       <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49" t="s">
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
       <c r="P18" s="48" t="s">
         <v>172</v>
       </c>
@@ -16574,24 +16899,24 @@
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="50"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="48" t="s">
         <v>174</v>
       </c>
@@ -16599,22 +16924,22 @@
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="48" t="s">
         <v>174</v>
       </c>
@@ -16622,28 +16947,28 @@
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="48" t="s">
         <v>173</v>
       </c>
@@ -16656,24 +16981,24 @@
       </c>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="50"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="48" t="s">
         <v>175</v>
       </c>
@@ -16681,22 +17006,22 @@
       <c r="R22" s="48"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="48" t="s">
         <v>175</v>
       </c>
@@ -16704,26 +17029,26 @@
       <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="50"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="48" t="s">
         <v>175</v>
       </c>
@@ -16731,26 +17056,26 @@
       <c r="R24" s="48"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="50"/>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="48" t="s">
         <v>175</v>
       </c>
@@ -16761,25 +17086,25 @@
       <c r="B26" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="48" t="s">
         <v>156</v>
       </c>
@@ -16790,64 +17115,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F14:H14"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
@@ -16864,6 +17131,64 @@
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16872,12 +17197,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15">
+      <c r="B17" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG85" sqref="AG85"/>
     </sheetView>
   </sheetViews>
@@ -17138,13 +17590,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="54">
+      <c r="AF11" s="55">
         <v>41548</v>
       </c>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -19378,12 +19830,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="56" t="s">
+      <c r="R62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="59"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19391,16 +19843,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="56" t="s">
+      <c r="AF62" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="57"/>
-      <c r="AH62" s="57"/>
-      <c r="AI62" s="58"/>
-      <c r="AJ62" s="56" t="s">
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="58"/>
+      <c r="AI62" s="59"/>
+      <c r="AJ62" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="AK62" s="58"/>
+      <c r="AK62" s="59"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -19553,13 +20005,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="60">
+      <c r="Q70" s="61">
         <v>41577</v>
       </c>
-      <c r="R70" s="60"/>
-      <c r="S70" s="60"/>
-      <c r="T70" s="60"/>
-      <c r="U70" s="60"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="61"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -20008,20 +20460,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="59" t="s">
+      <c r="P89" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59" t="s">
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="59"/>
-      <c r="T89" s="56" t="s">
+      <c r="S89" s="60"/>
+      <c r="T89" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="57"/>
-      <c r="V89" s="57"/>
-      <c r="W89" s="58"/>
+      <c r="U89" s="58"/>
+      <c r="V89" s="58"/>
+      <c r="W89" s="59"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -20098,7 +20550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20114,7 +20566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
@@ -20191,12 +20643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20221,7 +20673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3"/>
   <sheetViews>
@@ -20241,26 +20693,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="10:10">
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="1" activeTab="3"/>
@@ -20,12 +20,12 @@
     <sheet name="工时填报" sheetId="7" r:id="rId11"/>
     <sheet name="工时审批" sheetId="8" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="415">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1007,10 +1007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login?{“errmsg“:null,“errno“:null,“module“:null,“queryresult“:null,“credential“:“fEqNCco3Yq9h5ZUglD3CZJT4lBs=“,“userid“:null,“username“:“feng-jin.deng@ivision-china.cn“,“uuid“:null}","href":"/login?{“errmsg“:null,“errno“:null,“module“:null,“queryresult“:null,“credential“:“fEqNCco3Yq9h5ZUglD3CZJT4lBs=“,“userid“:null,“username“:“feng-jin.deng@ivision-china.cn“,“uuid“:null}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>credential</t>
   </si>
   <si>
@@ -1026,71 +1022,657 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>errmsg</t>
+  </si>
+  <si>
+    <t>queryresult</t>
+  </si>
+  <si>
+    <t>必要参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回用户邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回ivggs的唯一编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以json作为基本的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称，固定为login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码，SHA1加密后BASE64编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>errmsg</t>
-  </si>
-  <si>
-    <t>queryresult</t>
-  </si>
-  <si>
-    <t>必要参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示校验通过，返回值为400，表示校验没有通过</t>
+    <t>返回值为200，表示校验通过，返回值300 表示校验没有通过，返回值为400，表示系统异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回User Valid，300时返回User InValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆模块:校验用户名和密码是否正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdt</t>
+  </si>
+  <si>
+    <t>用户校验通过后取得的userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddt</t>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowcount</t>
+  </si>
+  <si>
+    <t>rowcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤结束日，考勤开始和结束日应该是同一个月的首尾2天，同一个月只会有1个规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的行数，应该为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryresult0</t>
+  </si>
+  <si>
+    <t>结果集中的一行，编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"setting get Succ","queryresult0":{"FromDT":"20140401","ToDT":"20390531","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},"rowcount":1,"module":"getWHSetting"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FromDT</t>
+  </si>
+  <si>
+    <t>ToDT</t>
+  </si>
+  <si>
+    <t>AMFrom</t>
+  </si>
+  <si>
+    <t>AMTo</t>
+  </si>
+  <si>
+    <t>MiddleFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiddleTo</t>
+  </si>
+  <si>
+    <t>PMFrom</t>
+  </si>
+  <si>
+    <t>PMTo</t>
+  </si>
+  <si>
+    <t>AlarmWH</t>
+  </si>
+  <si>
+    <t>OvertimeStartTime</t>
+  </si>
+  <si>
+    <t>OvertimeStartWH</t>
+  </si>
+  <si>
+    <t>OvertimeDuration</t>
+  </si>
+  <si>
+    <t>加班结转有效期（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（申请的加班时间应该大于这个单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvertimeWHUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班预警时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午出勤截至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午出勤开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午休结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午休开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午出勤开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午出勤截至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该考勤规则的起效日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该考勤规则的失效日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月考勤规则取得：指定期间内，员工填写考勤的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得日历设定：指定期间内设定的日历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login?{"credential":"fEqNCco3Yq9h5ZUglD3CZJT4lBs=","username":"feng-jin.deng@ivision-china.cn"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"Calendar get Succ","queryresult0":{"ymd":"20140501","weekdate":4,"dtdaytype":1},"queryresult1":{"ymd":"20140502","weekdate":5,"dtdaytype":1},"queryresult2":{"ymd":"20140503","weekdate":6,"dtdaytype":2},"queryresult3":{"ymd":"20140504","weekdate":7,"dtdaytype":2},"queryresult4":{"ymd":"20140505","weekdate":1,"dtdaytype":1},"queryresult5":{"ymd":"20140506","weekdate":2,"dtdaytype":1},"queryresult6":{"ymd":"20140507","weekdate":3,"dtdaytype":1},"queryresult7":{"ymd":"20140508","weekdate":4,"dtdaytype":1},"queryresult8":{"ymd":"20140509","weekdate":5,"dtdaytype":1},"queryresult9":{"ymd":"20140510","weekdate":6,"dtdaytype":2},"queryresult10":{"ymd":"20140511","weekdate":7,"dtdaytype":2},"queryresult11":{"ymd":"20140512","weekdate":1,"dtdaytype":1},"queryresult12":{"ymd":"20140513","weekdate":2,"dtdaytype":1},"queryresult13":{"ymd":"20140514","weekdate":3,"dtdaytype":1},"queryresult14":{"ymd":"20140515","weekdate":4,"dtdaytype":1},"queryresult15":{"ymd":"20140516","weekdate":5,"dtdaytype":1},"queryresult16":{"ymd":"20140517","weekdate":6,"dtdaytype":2},"queryresult17":{"ymd":"20140518","weekdate":7,"dtdaytype":2},"queryresult18":{"ymd":"20140519","weekdate":1,"dtdaytype":1},"queryresult19":{"ymd":"20140520","weekdate":2,"dtdaytype":1},"queryresult20":{"ymd":"20140521","weekdate":3,"dtdaytype":1},"queryresult21":{"ymd":"20140522","weekdate":4,"dtdaytype":1},"queryresult22":{"ymd":"20140523","weekdate":5,"dtdaytype":1},"queryresult23":{"ymd":"20140524","weekdate":6,"dtdaytype":2},"queryresult24":{"ymd":"20140525","weekdate":7,"dtdaytype":2},"queryresult25":{"ymd":"20140526","weekdate":1,"dtdaytype":1},"queryresult26":{"ymd":"20140527","weekdate":2,"dtdaytype":1},"queryresult27":{"ymd":"20140528","weekdate":3,"dtdaytype":1},"queryresult28":{"ymd":"20140529","weekdate":4,"dtdaytype":1},"queryresult29":{"ymd":"20140530","weekdate":5,"dtdaytype":1},"queryresult30":{"ymd":"20140531","weekdate":6,"dtdaytype":2},"module":"getCalendar","rowcount":31}]</t>
+  </si>
+  <si>
+    <t>200时返回Calendar get Succ，300时返回Calendar get Error，400时返回setting get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymd</t>
+  </si>
+  <si>
+    <t>weekdate</t>
+  </si>
+  <si>
+    <t>dtdaytype</t>
+  </si>
+  <si>
+    <t>周几</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日YYYYMMDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期类型，1： 出勤日；2：休日；3：国定假日；4：IV特别休日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得工时明细：指定区间内的工时明细数据，包含加班和休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"}</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>WHSetting:</t>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"setting get Succ",</t>
+  </si>
+  <si>
+    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
+  </si>
+  <si>
+    <t>rowcount:1,"module":"getWHSetting"}],</t>
+  </si>
+  <si>
+    <t>WHDetailList:</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getWHDetailList complete",</t>
+  </si>
+  <si>
+    <t>queryresult0:</t>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140602","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+  </si>
+  <si>
+    <t>queryresult1:</t>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140603","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+  </si>
+  <si>
+    <t>queryresult2:</t>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140604","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+  </si>
+  <si>
+    <t>,"rowcount":3,"module":"getWHDetailList"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>],</t>
+  </si>
+  <si>
+    <t>errno:"200","errmsg":"getWHDetailListHandle complete","module":"getWHDetailListHandle"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一部分为考勤规则，同考勤规则取得的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHSetting：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHDetailList</t>
+  </si>
+  <si>
+    <t>errno</t>
   </si>
   <si>
     <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回用户邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回ivggs的唯一编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以json作为基本的格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆模块:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称，固定为login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，测试？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月考勤规则取得</t>
-  </si>
-  <si>
-    <t>取得当月出勤日历</t>
-  </si>
-  <si>
-    <t>登陆密码，SHA1加密后BASE64编码</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjYMD</t>
+  </si>
+  <si>
+    <t>whtype</t>
+  </si>
+  <si>
+    <t>abswh</t>
+  </si>
+  <si>
+    <t>whStatus</t>
+  </si>
+  <si>
+    <t>whFlgHR</t>
+  </si>
+  <si>
+    <t>whFromDt</t>
+  </si>
+  <si>
+    <t>whToDt</t>
+  </si>
+  <si>
+    <t>whPJInfoID</t>
+  </si>
+  <si>
+    <t>whFlgOut</t>
+  </si>
+  <si>
+    <t>whFlgPJG</t>
+  </si>
+  <si>
+    <t>ovtype</t>
+  </si>
+  <si>
+    <t>ovwh</t>
+  </si>
+  <si>
+    <t>ovStatus</t>
+  </si>
+  <si>
+    <t>ovFlgHR</t>
+  </si>
+  <si>
+    <t>ovFromDt</t>
+  </si>
+  <si>
+    <t>ovPJInfoID</t>
+  </si>
+  <si>
+    <t>ovFlgOut</t>
+  </si>
+  <si>
+    <t>ovFlgPJG</t>
+  </si>
+  <si>
+    <t>vctype</t>
+  </si>
+  <si>
+    <t>vcwh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcStatus</t>
+  </si>
+  <si>
+    <t>vcFlgHR</t>
+  </si>
+  <si>
+    <t>ovToDt</t>
+  </si>
+  <si>
+    <t>vcFromDt</t>
+  </si>
+  <si>
+    <t>vcToDt</t>
+  </si>
+  <si>
+    <t>员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYD导出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回分为3部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部分为工时表单，按天集记，包含加班和休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getWHDetailListHandle complete，其他返回getWHDetailListHandle Data error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当第一部分和第二部分都返回200时，返回200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHDetailListHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出标志位,1:公司外 0为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYD导出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班申请状态 0：未提交 1：已提交未审批 2：审批通过 3：驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤申请状态 0：未提交 1：已提交未审批 2：审批通过 3：驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VacationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期类型 1：有薪假；2：调休；3：病假；4：病假（保胎）；5：事假；
+6：工伤假；7：婚假；8：丧假；9：产假；10：陪产假；
+11：孕期工间休息；12：哺乳时间；13：产前假；14：产检；
+15：哺乳假；16：晚育护理假；17：流产假；18：特别休假；19：其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请状态 0：未提交 1：已提交未承认 2承认通过 3：驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得门禁刷卡记录：指定区间内的员工每天最早和最晚的刷卡记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objDate</t>
+  </si>
+  <si>
+    <t>InTime</t>
+  </si>
+  <si>
+    <t>OutTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getAccessRecord complete，300返回getAccessRecord Empty,400 返回getAccessRecord error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进门时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAccessRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要修改，逻辑有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班起算时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班的单位(申请的加班时间减去OvertimeStartWH后除OvertimeWHUnit的余数应该为0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"getAccessRecord complete","queryresult0":{"objDate":"20140505","InTime":"09:00:00","OutTime":"17:30:00"},"queryresult1":{"objDate":"20140506","InTime":"08:00:00","OutTime":"18:15:00"},"queryresult2":{"objDate":"20140507","InTime":"08:00:00","OutTime":"15:30:00"},"queryresult3":{"objDate":"20140508","InTime":"10:00:00","OutTime":"18:15:00"},"queryresult4":{"objDate":"20140509","InTime":"10:00:00","OutTime":"20:15:00"},"queryresult5":{"objDate":"20140512","InTime":"08:45:00","OutTime":"20:15:00"},"queryresult6":{"objDate":"20140513","InTime":"10:45:00","OutTime":"14:15:00"},"rowcount":7,"module":"getAccessRecord"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getAccessRecord complete","module":"getAccessRecord"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回OV Submit Succ，校验错误返回OV Submit Err，系统异常返回OV Submit Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余有薪假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内到期调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余有薪假取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内剩余调休取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +2020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,6 +2085,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1539,8 +2123,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7351,16 +7934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7369,7 +7952,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057775" y="2495550"/>
+          <a:off x="5334000" y="2505075"/>
           <a:ext cx="828675" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15827,7 +16410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15869,7 +16452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15904,7 +16487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16406,7 +16989,7 @@
   <dimension ref="C3:D5"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16438,8 +17021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16452,25 +17035,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
       <c r="P4" s="48" t="s">
         <v>153</v>
       </c>
@@ -16485,28 +17068,28 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="48" t="s">
         <v>160</v>
       </c>
@@ -16519,26 +17102,26 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="51"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50" t="s">
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48" t="s">
         <v>169</v>
@@ -16549,26 +17132,26 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="51"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48" t="s">
         <v>170</v>
@@ -16579,58 +17162,63 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50" t="s">
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="Q8" s="48" t="s">
+        <v>170</v>
+      </c>
       <c r="R8" s="48"/>
+      <c r="S8" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="51"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50" t="s">
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="48" t="s">
         <v>154</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
@@ -16638,26 +17226,26 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="51"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="48" t="s">
         <v>154</v>
       </c>
@@ -16667,26 +17255,26 @@
       <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="51"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="48" t="s">
         <v>154</v>
       </c>
@@ -16696,57 +17284,57 @@
       <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="51"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="48" t="s">
-        <v>169</v>
+      <c r="Q12" s="64" t="s">
+        <v>396</v>
       </c>
       <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
       <c r="P13" s="48" t="s">
         <v>155</v>
       </c>
@@ -16759,26 +17347,26 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="53"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
       <c r="P14" s="48" t="s">
         <v>155</v>
       </c>
@@ -16786,26 +17374,26 @@
       <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="53"/>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50" t="s">
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
       <c r="P15" s="48" t="s">
         <v>155</v>
       </c>
@@ -16813,26 +17401,26 @@
       <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="53"/>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="48" t="s">
         <v>155</v>
       </c>
@@ -16840,24 +17428,24 @@
       <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="54"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50" t="s">
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="48" t="s">
         <v>155</v>
       </c>
@@ -16865,28 +17453,28 @@
       <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="48" t="s">
         <v>172</v>
       </c>
@@ -16899,24 +17487,24 @@
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="51"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="48" t="s">
         <v>174</v>
       </c>
@@ -16924,22 +17512,22 @@
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="51"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="48" t="s">
         <v>174</v>
       </c>
@@ -16947,28 +17535,28 @@
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50" t="s">
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="48" t="s">
         <v>173</v>
       </c>
@@ -16981,24 +17569,24 @@
       </c>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="51"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="48" t="s">
         <v>175</v>
       </c>
@@ -17006,22 +17594,22 @@
       <c r="R22" s="48"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="51"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="48" t="s">
         <v>175</v>
       </c>
@@ -17029,26 +17617,26 @@
       <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="51"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50" t="s">
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="48" t="s">
         <v>175</v>
       </c>
@@ -17056,26 +17644,26 @@
       <c r="R24" s="48"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="51"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="48" t="s">
         <v>175</v>
       </c>
@@ -17086,25 +17674,25 @@
       <c r="B26" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50" t="s">
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="48" t="s">
         <v>156</v>
       </c>
@@ -17169,26 +17757,26 @@
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="I7:O7"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17197,123 +17785,1025 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D38"/>
+  <dimension ref="A2:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
         <v>232</v>
       </c>
-      <c r="D10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>233</v>
       </c>
-      <c r="D11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:4" ht="15">
+      <c r="B17" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15">
+      <c r="B42" s="50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
         <v>235</v>
       </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="D46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="C49" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="C54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="C55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="C59" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" t="s">
+        <v>397</v>
+      </c>
+      <c r="F59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="C23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="C25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>252</v>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="C85" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="C108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="D109" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="D110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="C113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="D114" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="E115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="F116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="E117" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="F118" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="E119" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="F120" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="E121" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="D122" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="C123" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="C124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="C130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="C132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="D133" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="D134" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="D135" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="E136" t="s">
+        <v>332</v>
+      </c>
+      <c r="G136" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="E137" t="s">
+        <v>333</v>
+      </c>
+      <c r="G137" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="E138" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="E139" t="s">
+        <v>335</v>
+      </c>
+      <c r="G139" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="E140" t="s">
+        <v>336</v>
+      </c>
+      <c r="G140" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="E141" t="s">
+        <v>337</v>
+      </c>
+      <c r="G141" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="E142" t="s">
+        <v>338</v>
+      </c>
+      <c r="G142" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="E143" t="s">
+        <v>339</v>
+      </c>
+      <c r="G143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="E144" t="s">
+        <v>340</v>
+      </c>
+      <c r="G144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" t="s">
+        <v>341</v>
+      </c>
+      <c r="G145" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" t="s">
+        <v>342</v>
+      </c>
+      <c r="G146" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" t="s">
+        <v>344</v>
+      </c>
+      <c r="G148" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149" t="s">
+        <v>345</v>
+      </c>
+      <c r="G149" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7">
+      <c r="E150" t="s">
+        <v>346</v>
+      </c>
+      <c r="G150" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7">
+      <c r="E151" t="s">
+        <v>347</v>
+      </c>
+      <c r="G151" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7">
+      <c r="E152" t="s">
+        <v>355</v>
+      </c>
+      <c r="G152" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7">
+      <c r="E153" t="s">
+        <v>348</v>
+      </c>
+      <c r="G153" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7">
+      <c r="E154" t="s">
+        <v>349</v>
+      </c>
+      <c r="G154" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155" t="s">
+        <v>350</v>
+      </c>
+      <c r="G155" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7">
+      <c r="E157" t="s">
+        <v>379</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7">
+      <c r="E158" t="s">
+        <v>352</v>
+      </c>
+      <c r="G158" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159" t="s">
+        <v>353</v>
+      </c>
+      <c r="G159" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160" t="s">
+        <v>354</v>
+      </c>
+      <c r="G160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="E161" t="s">
+        <v>356</v>
+      </c>
+      <c r="G161" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="E162" t="s">
+        <v>357</v>
+      </c>
+      <c r="G162" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="E163" t="s">
+        <v>382</v>
+      </c>
+      <c r="G163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="D167" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="D168" t="s">
+        <v>331</v>
+      </c>
+      <c r="G168" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="C171" t="s">
+        <v>330</v>
+      </c>
+      <c r="D171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="C172" t="s">
+        <v>235</v>
+      </c>
+      <c r="D172" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="C173" t="s">
+        <v>331</v>
+      </c>
+      <c r="D173" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="B180" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="B185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="C186" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="B190" t="s">
+        <v>235</v>
+      </c>
+      <c r="C190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="B191" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="C192" t="s">
+        <v>386</v>
+      </c>
+      <c r="D192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="C193" t="s">
+        <v>387</v>
+      </c>
+      <c r="D193" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="C194" t="s">
+        <v>388</v>
+      </c>
+      <c r="D194" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="B195" t="s">
+        <v>258</v>
+      </c>
+      <c r="C195" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="B196" t="s">
+        <v>331</v>
+      </c>
+      <c r="C196" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="C233" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="C236" t="s">
+        <v>404</v>
+      </c>
+      <c r="D236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="C237" t="s">
+        <v>235</v>
+      </c>
+      <c r="D237" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -17329,8 +18819,8 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG85" sqref="AG85"/>
+    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -17590,13 +19080,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="55">
+      <c r="AF11" s="57">
         <v>41548</v>
       </c>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -17977,12 +19467,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="U17" s="3">
+        <v>7</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
       <c r="AD17" s="8"/>
@@ -18090,13 +19586,19 @@
       <c r="L19" s="9"/>
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="U19" s="3">
+        <v>9</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
       <c r="AD19" s="8"/>
@@ -18202,13 +19704,19 @@
       <c r="L21" s="9"/>
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="U21" s="3">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
       <c r="AD21" s="8"/>
@@ -19830,12 +21338,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="57" t="s">
+      <c r="R62" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="59"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="61"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19843,16 +21351,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="57" t="s">
+      <c r="AF62" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="58"/>
-      <c r="AI62" s="59"/>
-      <c r="AJ62" s="57" t="s">
+      <c r="AG62" s="60"/>
+      <c r="AH62" s="60"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="AK62" s="59"/>
+      <c r="AK62" s="61"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -20005,13 +21513,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="61">
+      <c r="Q70" s="63">
         <v>41577</v>
       </c>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="63"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -20460,20 +21968,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="60" t="s">
+      <c r="P89" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60" t="s">
+      <c r="Q89" s="62"/>
+      <c r="R89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="60"/>
-      <c r="T89" s="57" t="s">
+      <c r="S89" s="62"/>
+      <c r="T89" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="58"/>
-      <c r="V89" s="58"/>
-      <c r="W89" s="59"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="61"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -20677,7 +22185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -15,17 +15,14 @@
     <sheet name="交互数据格式" sheetId="18" r:id="rId6"/>
     <sheet name="通讯加密" sheetId="16" r:id="rId7"/>
     <sheet name="login功能" sheetId="2" r:id="rId8"/>
-    <sheet name="logout功能" sheetId="13" r:id="rId9"/>
-    <sheet name="消息通知" sheetId="15" r:id="rId10"/>
-    <sheet name="工时填报" sheetId="7" r:id="rId11"/>
-    <sheet name="工时审批" sheetId="8" r:id="rId12"/>
+    <sheet name="工时填报" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="417">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,10 +1069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值为200，表示校验通过，返回值300 表示校验没有通过，返回值为400，表示系统异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,10 +1125,6 @@
   </si>
   <si>
     <t>结果集中的一行，编号从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"errno":"200","errmsg":"setting get Succ","queryresult0":{"FromDT":"20140401","ToDT":"20390531","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},"rowcount":1,"module":"getWHSetting"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1624,10 +1613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"errno":"200","errmsg":"getAccessRecord complete","queryresult0":{"objDate":"20140505","InTime":"09:00:00","OutTime":"17:30:00"},"queryresult1":{"objDate":"20140506","InTime":"08:00:00","OutTime":"18:15:00"},"queryresult2":{"objDate":"20140507","InTime":"08:00:00","OutTime":"15:30:00"},"queryresult3":{"objDate":"20140508","InTime":"10:00:00","OutTime":"18:15:00"},"queryresult4":{"objDate":"20140509","InTime":"10:00:00","OutTime":"20:15:00"},"queryresult5":{"objDate":"20140512","InTime":"08:45:00","OutTime":"20:15:00"},"queryresult6":{"objDate":"20140513","InTime":"10:45:00","OutTime":"14:15:00"},"rowcount":7,"module":"getAccessRecord"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"errno":"200","errmsg":"getAccessRecord complete","module":"getAccessRecord"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1673,6 +1658,26 @@
   </si>
   <si>
     <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getAccessRecord complete","queryresult0":{"objDate":"20140505","InTime":"09:00:00","OutTime":"17:30:00"},"queryresult1":{"objDate":"20140506","InTime":"08:00:00","OutTime":"18:15:00"},"queryresult2":{"objDate":"20140507","InTime":"08:00:00","OutTime":"15:30:00"},"queryresult3":{"objDate":"20140508","InTime":"10:00:00","OutTime":"18:15:00"},"queryresult4":{"objDate":"20140509","InTime":"10:00:00","OutTime":"20:15:00"},"queryresult5":{"objDate":"20140512","InTime":"08:45:00","OutTime":"20:15:00"},"queryresult6":{"objDate":"20140513","InTime":"10:45:00","OutTime":"14:15:00"},"rowcount":7,"module":"getAccessRecord"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"FromDT":"20140401","ToDT":"20390531","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},"rowcount":1,"module":"getWHSetting"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2087,6 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2123,7 +2129,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14218,2186 +14223,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>151535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1245533" y="1832417"/>
-          <a:ext cx="5818654" cy="3221436"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>移动端：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108296</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>115340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>117822</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>29615</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="六边形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5576767" y="2300487"/>
-          <a:ext cx="1376643" cy="1258981"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>跳转到登陆界面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>557332</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268380</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3291567" y="2375005"/>
-          <a:ext cx="1761725" cy="1129633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>清除配置文件中的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>expiretime</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>token</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>683200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="六边形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1366759" y="1617569"/>
-          <a:ext cx="1405575" cy="1297081"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>点击</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>注销登录</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>按钮</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>557332</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82322</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2772334" y="2938463"/>
-          <a:ext cx="519233" cy="1359"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268380</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>72478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108296</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82322</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5053292" y="2929978"/>
-          <a:ext cx="523475" cy="9844"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="六边形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="358589"/>
-          <a:ext cx="1120587" cy="918881"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>画面操作</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>291352</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="矩形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8281146" y="537881"/>
-          <a:ext cx="896471" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>后台操作</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123263</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>187698</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="矩形 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9693087" y="448235"/>
-          <a:ext cx="1431552" cy="662828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>判断条件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>235322</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="右箭头 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11609293" y="190500"/>
-          <a:ext cx="1613647" cy="1176618"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>数据传输</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>168729</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>515712</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>90301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10422111" y="2139524"/>
-          <a:ext cx="5815454" cy="8372248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>node.js</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>服务器端</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>151534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>105641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1247774" y="2208934"/>
-          <a:ext cx="5838825" cy="8526607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>移动端：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>534119</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>543644</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="六边形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3268354" y="2412547"/>
-          <a:ext cx="1376643" cy="1258980"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>跳转欢迎回来页面</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>243567</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5028479" y="2263588"/>
-          <a:ext cx="1874345" cy="1577228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>通过通讯加密模块加密</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>/userid/notification</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，生成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>request</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>299598</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9761</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5084510" y="4211967"/>
-          <a:ext cx="1761724" cy="580229"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>nodejs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的服务器端口发送</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字符串</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>484415</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10771415" y="3166382"/>
-          <a:ext cx="1777092" cy="1371599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>接收到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>request</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>后，用通讯加密模块解密后</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>29055</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>432306</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11649555" y="5524181"/>
-          <a:ext cx="1770369" cy="1826878"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>返回</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>{userid:XXXX,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> return:success</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> notification:{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>approval:2,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>timesheet:4,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>...</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>json</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>格式的结果</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11366</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>420061</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矩形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12998984" y="4479393"/>
-          <a:ext cx="1775812" cy="686520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>根据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>userid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>去查找相对应的通知消息</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>116971</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>136625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>516850</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4917571" y="8023325"/>
-          <a:ext cx="1771479" cy="472976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>接收</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>response</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>后，用通讯加密模块解密成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>json</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>格式</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>543644</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>16449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>243567</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>26614</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4644997" y="3042037"/>
-          <a:ext cx="383482" cy="10165"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>496901</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>497181</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9761</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5965372" y="3840816"/>
-          <a:ext cx="280" cy="371151"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355429</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69509</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>67882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1722547" y="7351059"/>
-          <a:ext cx="1764756" cy="953147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>将消息通知格式化</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>554249</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>136625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316910</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>67882</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="肘形连接符 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="24" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="3977392" y="6496217"/>
-          <a:ext cx="435522" cy="3180456"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -52489"/>
-            <a:gd name="adj2" fmla="val 50018"/>
-            <a:gd name="adj3" fmla="val 152489"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>554249</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2588559" y="5300382"/>
-          <a:ext cx="16366" cy="2050677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>118463</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="右箭头 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7575176" y="3271317"/>
-          <a:ext cx="2364442" cy="1553617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
-            <a:t>加密字符串</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="左箭头 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7571014" y="7029450"/>
-          <a:ext cx="2139043" cy="1679121"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
-            <a:t>加密字符串</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>11366</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>116182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="肘形连接符 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12508166" y="3778223"/>
-          <a:ext cx="490818" cy="1044430"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>313766</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="六边形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7171766" y="171452"/>
-          <a:ext cx="1125069" cy="935690"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>画面操作</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="矩形 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8789894" y="354106"/>
-          <a:ext cx="900953" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>后台操作</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>669552</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80123</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="矩形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10206317" y="261098"/>
-          <a:ext cx="1436035" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>跳转条件</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="右箭头 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12129247" y="1"/>
-          <a:ext cx="1620371" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>数据传输</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>432307</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>215715</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50266</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="肘形连接符 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="13017554" y="5568283"/>
-          <a:ext cx="1271707" cy="466966"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>11846</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>415097</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>11848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="矩形 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11632346" y="7995719"/>
-          <a:ext cx="1770369" cy="1597158"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>通讯加密模块加密结果后，返回</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>response</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>213472</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>230681</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95572</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="40" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12517531" y="7351059"/>
-          <a:ext cx="17209" cy="644660"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>575420</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94942</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="六边形 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1942538" y="4191000"/>
-          <a:ext cx="1340786" cy="1114677"/>
-        </a:xfrm>
-        <a:prstGeom prst="hexagon">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>在欢迎回来页面显示消息通知</a:t>
-          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
@@ -16931,65 +14756,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="10:10">
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17021,7 +14793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -17035,25 +14807,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="48" t="s">
         <v>153</v>
       </c>
@@ -17068,28 +14840,28 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="48" t="s">
         <v>160</v>
       </c>
@@ -17102,26 +14874,26 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="53"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
       <c r="P6" s="48"/>
       <c r="Q6" s="48" t="s">
         <v>169</v>
@@ -17132,26 +14904,26 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="53"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48" t="s">
         <v>170</v>
@@ -17162,58 +14934,58 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="48"/>
       <c r="Q8" s="48" t="s">
         <v>170</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="53"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="48" t="s">
         <v>154</v>
       </c>
@@ -17226,26 +14998,26 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="53"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="48" t="s">
         <v>154</v>
       </c>
@@ -17255,26 +15027,26 @@
       <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="53"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="48" t="s">
         <v>154</v>
       </c>
@@ -17284,57 +15056,57 @@
       <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="53"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="64" t="s">
-        <v>396</v>
+      <c r="Q12" s="52" t="s">
+        <v>394</v>
       </c>
       <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
       <c r="P13" s="48" t="s">
         <v>155</v>
       </c>
@@ -17347,26 +15119,26 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="55"/>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="48" t="s">
         <v>155</v>
       </c>
@@ -17374,26 +15146,26 @@
       <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="55"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="48" t="s">
         <v>155</v>
       </c>
@@ -17401,26 +15173,26 @@
       <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="55"/>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
       <c r="P16" s="48" t="s">
         <v>155</v>
       </c>
@@ -17428,24 +15200,24 @@
       <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="56"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="48" t="s">
         <v>155</v>
       </c>
@@ -17453,28 +15225,28 @@
       <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="48" t="s">
         <v>172</v>
       </c>
@@ -17487,24 +15259,24 @@
       </c>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="53"/>
-      <c r="C19" s="52" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
       <c r="P19" s="48" t="s">
         <v>174</v>
       </c>
@@ -17512,22 +15284,22 @@
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="53"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="48" t="s">
         <v>174</v>
       </c>
@@ -17535,28 +15307,28 @@
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="48" t="s">
         <v>173</v>
       </c>
@@ -17569,24 +15341,24 @@
       </c>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="53"/>
-      <c r="C22" s="52" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="48" t="s">
         <v>175</v>
       </c>
@@ -17594,22 +15366,22 @@
       <c r="R22" s="48"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="53"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
       <c r="P23" s="48" t="s">
         <v>175</v>
       </c>
@@ -17617,26 +15389,26 @@
       <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="53"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52" t="s">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="48" t="s">
         <v>175</v>
       </c>
@@ -17644,26 +15416,26 @@
       <c r="R24" s="48"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="53"/>
-      <c r="C25" s="52" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52" t="s">
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="48" t="s">
         <v>175</v>
       </c>
@@ -17674,25 +15446,25 @@
       <c r="B26" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="48" t="s">
         <v>156</v>
       </c>
@@ -17703,6 +15475,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
@@ -17719,64 +15549,6 @@
     <mergeCell ref="I22:O22"/>
     <mergeCell ref="I23:O23"/>
     <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17785,10 +15557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G237"/>
+  <dimension ref="A2:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17803,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -17813,7 +15585,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17844,7 +15616,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>248</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17852,7 +15624,7 @@
         <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17860,7 +15632,7 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17905,7 +15677,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -17915,7 +15687,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -17925,26 +15697,26 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -17954,7 +15726,7 @@
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -17962,7 +15734,7 @@
         <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -17970,130 +15742,130 @@
         <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" t="s">
         <v>263</v>
-      </c>
-      <c r="D47" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -18101,7 +15873,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -18109,7 +15881,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -18119,7 +15891,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -18129,18 +15901,18 @@
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -18150,7 +15922,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -18158,7 +15930,7 @@
         <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -18166,47 +15938,47 @@
         <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" t="s">
         <v>263</v>
-      </c>
-      <c r="D84" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" t="s">
         <v>301</v>
-      </c>
-      <c r="E86" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -18222,7 +15994,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -18232,7 +16004,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -18242,18 +16014,18 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -18263,130 +16035,130 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="2:7">
@@ -18396,235 +16168,235 @@
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G136" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G137" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G139" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G140" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G141" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G142" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G143" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G144" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G145" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G146" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G148" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G150" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G151" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G152" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G153" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G154" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G155" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G158" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G160" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="2:7">
       <c r="E161" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G161" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="2:7">
       <c r="E162" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G162" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="2:7">
       <c r="E163" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G163" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="2:7">
       <c r="D167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="2:7">
       <c r="D168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G168" t="s">
         <v>224</v>
@@ -18632,15 +16404,15 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="2:7">
       <c r="C171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D171" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="2:7">
@@ -18648,15 +16420,15 @@
         <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="2:7">
       <c r="C173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -18664,7 +16436,7 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -18674,7 +16446,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -18684,15 +16456,15 @@
     </row>
     <row r="186" spans="1:4">
       <c r="C186" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="B189" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C189" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -18700,52 +16472,52 @@
         <v>235</v>
       </c>
       <c r="C190" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="B191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="C192" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="C194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D194" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C195" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="B196" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C196" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -18753,7 +16525,7 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -18761,7 +16533,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -18769,33 +16541,33 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="C233" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="C236" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D236" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="2:4">
@@ -18803,7 +16575,23 @@
         <v>235</v>
       </c>
       <c r="D237" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -18819,7 +16607,7 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
@@ -19080,13 +16868,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="57">
+      <c r="AF11" s="58">
         <v>41548</v>
       </c>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -19468,7 +17256,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -19477,7 +17265,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -19587,7 +17375,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -19597,7 +17385,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -19705,7 +17493,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -19715,7 +17503,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -21338,12 +19126,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="59" t="s">
+      <c r="R62" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="62"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -21351,16 +19139,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="59" t="s">
+      <c r="AF62" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="61"/>
-      <c r="AJ62" s="59" t="s">
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="62"/>
+      <c r="AJ62" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="AK62" s="61"/>
+      <c r="AK62" s="62"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -21513,13 +19301,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="63">
+      <c r="Q70" s="64">
         <v>41577</v>
       </c>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="63"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="64"/>
+      <c r="U70" s="64"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -21968,20 +19756,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="62" t="s">
+      <c r="P89" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="62"/>
-      <c r="R89" s="62" t="s">
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="62"/>
-      <c r="T89" s="59" t="s">
+      <c r="S89" s="63"/>
+      <c r="T89" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="60"/>
-      <c r="V89" s="60"/>
-      <c r="W89" s="61"/>
+      <c r="U89" s="61"/>
+      <c r="V89" s="61"/>
+      <c r="W89" s="62"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -22062,8 +19850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22078,7 +19866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -22155,7 +19943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -22183,22 +19971,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="3" spans="9:9">
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="420">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,10 +1049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校验通过后，返回ivggs的唯一编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以json作为基本的格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,10 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>queryresult0</t>
   </si>
   <si>
@@ -1213,14 +1205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当月考勤规则取得：指定期间内，员工填写考勤的规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,10 +1217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,9 +1259,6 @@
   <si>
     <t>取得工时明细：指定区间内的工时明细数据，包含加班和休假</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"}</t>
   </si>
   <si>
     <t>{</t>
@@ -1547,10 +1524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>objDate</t>
   </si>
   <si>
@@ -1645,18 +1618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余有薪假取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余调休取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天内剩余调休取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1669,15 +1630,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>休假申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休假申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤申请</t>
+    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常,返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error，500时返回UserValidateError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回ivggs的唯一编码，用于以后各个操作的身份校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年度剩余有薪假取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休取得（含30天内到期调休天数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14962,7 +14975,7 @@
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="2:19">
@@ -14990,7 +15003,7 @@
         <v>154</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
@@ -15080,7 +15093,7 @@
         <v>154</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="R12" s="48"/>
     </row>
@@ -15475,48 +15488,22 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I18:O18"/>
@@ -15533,22 +15520,48 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15557,17 +15570,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G257"/>
+  <dimension ref="A2:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15575,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -15585,7 +15598,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15598,7 +15611,7 @@
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -15616,7 +15629,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15624,7 +15637,7 @@
         <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -15632,7 +15645,7 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -15661,7 +15674,7 @@
         <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -15669,7 +15682,7 @@
         <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15677,7 +15690,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -15687,7 +15700,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>261</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -15697,26 +15710,26 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -15726,7 +15739,7 @@
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -15734,138 +15747,138 @@
         <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>235</v>
+        <v>409</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E58" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -15873,7 +15886,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15881,7 +15894,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -15891,7 +15904,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15901,18 +15914,18 @@
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -15922,7 +15935,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -15930,7 +15943,7 @@
         <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -15938,47 +15951,47 @@
         <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -15994,7 +16007,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -16004,7 +16017,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>306</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -16014,18 +16027,18 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -16035,130 +16048,130 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E133" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="2:7">
@@ -16168,235 +16181,235 @@
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G137" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G139" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G140" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G141" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G142" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G143" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G144" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G145" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G146" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G148" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G149" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G150" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G151" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G152" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G154" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G158" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G159" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
+        <v>346</v>
+      </c>
+      <c r="G160" t="s">
         <v>352</v>
-      </c>
-      <c r="G160" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="161" spans="2:7">
       <c r="E161" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G161" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="2:7">
       <c r="E162" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G162" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="2:7">
       <c r="E163" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G163" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="2:7">
       <c r="D167" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="2:7">
       <c r="D168" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G168" t="s">
         <v>224</v>
@@ -16404,15 +16417,15 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="2:7">
       <c r="C171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D171" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="2:7">
@@ -16420,15 +16433,15 @@
         <v>235</v>
       </c>
       <c r="D172" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="2:7">
       <c r="C173" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D173" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -16436,7 +16449,7 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -16446,7 +16459,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -16456,15 +16469,15 @@
     </row>
     <row r="186" spans="1:4">
       <c r="C186" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="B189" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -16472,52 +16485,52 @@
         <v>235</v>
       </c>
       <c r="C190" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="B191" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="C192" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D192" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D193" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="C194" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D194" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C195" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="B196" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C196" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -16525,7 +16538,17 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202" s="51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="B203" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -16533,65 +16556,57 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
         <v>9</v>
       </c>
-      <c r="B217" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>10</v>
-      </c>
-      <c r="B224" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4">
-      <c r="B232" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4">
-      <c r="C233" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="C236" t="s">
+      <c r="B218" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="B226" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="C227" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="C230" t="s">
+        <v>394</v>
+      </c>
+      <c r="D230" t="s">
         <v>401</v>
       </c>
-      <c r="D236" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="C237" t="s">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="C231" t="s">
         <v>235</v>
       </c>
-      <c r="D237" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
+      <c r="D231" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
         <v>11</v>
       </c>
-      <c r="B244" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
+      <c r="B238" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
         <v>12</v>
       </c>
-      <c r="B257" t="s">
-        <v>416</v>
+      <c r="B251" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -17256,7 +17271,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17265,7 +17280,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17375,7 +17390,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -17385,7 +17400,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -17493,7 +17508,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -17503,7 +17518,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -19981,5 +19996,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -12,17 +12,16 @@
     <sheet name="业务功能点" sheetId="4" r:id="rId3"/>
     <sheet name="接口说明" sheetId="20" r:id="rId4"/>
     <sheet name="画面流转一览" sheetId="12" r:id="rId5"/>
-    <sheet name="交互数据格式" sheetId="18" r:id="rId6"/>
-    <sheet name="通讯加密" sheetId="16" r:id="rId7"/>
-    <sheet name="login功能" sheetId="2" r:id="rId8"/>
-    <sheet name="工时填报" sheetId="7" r:id="rId9"/>
+    <sheet name="交互数据格式" sheetId="18" state="hidden" r:id="rId6"/>
+    <sheet name="通讯加密" sheetId="16" state="hidden" r:id="rId7"/>
+    <sheet name="login功能" sheetId="2" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="442">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,14 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成,测试OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，测试OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工时列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,10 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前员工的加班明细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -887,10 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工号，查询的月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回指定时间内的设定过的考勤规则明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,10 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回时间区间内，已填写过考勤，加班或者休假的工时信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回以周为单位的json，包含这个星期每一天的具体明细工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,14 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回以周为单位的json，包含这个星期每一天的具体明细加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回以周为单位的json，包含这个星期每一天的具体明细休假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取得剩余的有薪假期天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,10 +902,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回当前月的json，包含这个月中共有几天未填工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nodejs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撤回工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,25 +930,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回指定时间内的项目工时合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定时间内的加班工时合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回指定时间内的休假工时合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getWHDetailList</t>
   </si>
   <si>
-    <t>访问方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成，测试？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆密码，SHA1加密后BASE64编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,10 +1012,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200时返回User Valid，300时返回User InValid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆模块:校验用户名和密码是否正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,10 +1033,6 @@
     <t>enddt</t>
   </si>
   <si>
-    <t>getWHSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rowcount</t>
   </si>
   <si>
@@ -1228,10 +1163,6 @@
     <t>[{"errno":"200","errmsg":"Calendar get Succ","queryresult0":{"ymd":"20140501","weekdate":4,"dtdaytype":1},"queryresult1":{"ymd":"20140502","weekdate":5,"dtdaytype":1},"queryresult2":{"ymd":"20140503","weekdate":6,"dtdaytype":2},"queryresult3":{"ymd":"20140504","weekdate":7,"dtdaytype":2},"queryresult4":{"ymd":"20140505","weekdate":1,"dtdaytype":1},"queryresult5":{"ymd":"20140506","weekdate":2,"dtdaytype":1},"queryresult6":{"ymd":"20140507","weekdate":3,"dtdaytype":1},"queryresult7":{"ymd":"20140508","weekdate":4,"dtdaytype":1},"queryresult8":{"ymd":"20140509","weekdate":5,"dtdaytype":1},"queryresult9":{"ymd":"20140510","weekdate":6,"dtdaytype":2},"queryresult10":{"ymd":"20140511","weekdate":7,"dtdaytype":2},"queryresult11":{"ymd":"20140512","weekdate":1,"dtdaytype":1},"queryresult12":{"ymd":"20140513","weekdate":2,"dtdaytype":1},"queryresult13":{"ymd":"20140514","weekdate":3,"dtdaytype":1},"queryresult14":{"ymd":"20140515","weekdate":4,"dtdaytype":1},"queryresult15":{"ymd":"20140516","weekdate":5,"dtdaytype":1},"queryresult16":{"ymd":"20140517","weekdate":6,"dtdaytype":2},"queryresult17":{"ymd":"20140518","weekdate":7,"dtdaytype":2},"queryresult18":{"ymd":"20140519","weekdate":1,"dtdaytype":1},"queryresult19":{"ymd":"20140520","weekdate":2,"dtdaytype":1},"queryresult20":{"ymd":"20140521","weekdate":3,"dtdaytype":1},"queryresult21":{"ymd":"20140522","weekdate":4,"dtdaytype":1},"queryresult22":{"ymd":"20140523","weekdate":5,"dtdaytype":1},"queryresult23":{"ymd":"20140524","weekdate":6,"dtdaytype":2},"queryresult24":{"ymd":"20140525","weekdate":7,"dtdaytype":2},"queryresult25":{"ymd":"20140526","weekdate":1,"dtdaytype":1},"queryresult26":{"ymd":"20140527","weekdate":2,"dtdaytype":1},"queryresult27":{"ymd":"20140528","weekdate":3,"dtdaytype":1},"queryresult28":{"ymd":"20140529","weekdate":4,"dtdaytype":1},"queryresult29":{"ymd":"20140530","weekdate":5,"dtdaytype":1},"queryresult30":{"ymd":"20140531","weekdate":6,"dtdaytype":2},"module":"getCalendar","rowcount":31}]</t>
   </si>
   <si>
-    <t>200时返回Calendar get Succ，300时返回Calendar get Error，400时返回setting get Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ymd</t>
   </si>
   <si>
@@ -1430,10 +1361,6 @@
   </si>
   <si>
     <t>外出标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJG标志为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1534,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200时返回getAccessRecord complete，300返回getAccessRecord Empty,400 返回getAccessRecord error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1562,10 +1485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要修改，逻辑有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加班起算时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1642,55 +1561,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常,返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error，500时返回UserValidateError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回ivggs的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPaidVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休取得：返回该员工当日所在年的调休天数的合计，以及当日开始30天内可用调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPaidVCTimeHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getPaidVCTime complete","module":"getPaidVCTimeHandle"，"LeftWH","15"，"LeftDay","2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，300返回getPaidVCTime Empty,400 返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWH</t>
+  </si>
+  <si>
+    <t>LeftDay</t>
+  </si>
+  <si>
+    <t>小时合计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWHin30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDayin30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计(小时数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计（小时按照考勤规则转换成的天数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLieuVCTimeHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录用户uuid校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/6/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid，uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户的uuid，判断用户是否已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常,返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error，500时返回UserValidateError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回ivggs的唯一编码，用于以后各个操作的身份校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年度剩余有薪假取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余调休取得（含30天内到期调休天数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回User Valid，300时返回User InValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>usertoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
+  </si>
+  <si>
+    <t>PJInfoID</t>
+  </si>
+  <si>
+    <t>PJNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1819,7 +1901,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,6 +1935,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2105,7 +2199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -14781,18 +14882,18 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -14804,41 +14905,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S26"/>
+  <dimension ref="B4:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="2.25" customWidth="1"/>
+    <col min="14" max="14" width="2.5" customWidth="1"/>
+    <col min="15" max="15" width="6.375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="26.875" customWidth="1"/>
-    <col min="18" max="18" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="48" t="s">
         <v>153</v>
       </c>
@@ -14849,682 +14952,667 @@
         <v>167</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>225</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="48" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="48" t="s">
-        <v>169</v>
+      <c r="Q5" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="54"/>
-      <c r="C6" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="48"/>
-      <c r="Q6" s="48" t="s">
-        <v>169</v>
-      </c>
+      <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
       <c r="S6" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="54"/>
-      <c r="C7" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48" t="s">
-        <v>170</v>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48" t="s">
-        <v>170</v>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="54"/>
-      <c r="C9" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="48" t="s">
-        <v>245</v>
+      <c r="B9" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="54"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="57"/>
+      <c r="C11" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" s="48"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="57"/>
+      <c r="C12" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R12" s="48"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="57"/>
+      <c r="C13" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" s="48"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="57"/>
+      <c r="C14" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="48"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="48"/>
+      <c r="S15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="59"/>
+      <c r="C16" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="54"/>
-      <c r="C11" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="48"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="59"/>
+      <c r="C17" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="48" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="48"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="60"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="R11" s="48"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="54"/>
-      <c r="C12" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q12" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="R12" s="48"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="55" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R19" s="48"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="57"/>
+      <c r="C20" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="48"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="57"/>
+      <c r="C21" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="48"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C22" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="57"/>
+      <c r="C23" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="R13" s="48"/>
-      <c r="S13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="56"/>
-      <c r="C14" s="53" t="s">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="48"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="57"/>
+      <c r="C24" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="48"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="57"/>
+      <c r="C25" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="56"/>
-      <c r="C15" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53" t="s">
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="57"/>
+      <c r="C26" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="56"/>
-      <c r="C16" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="57"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q27" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q18" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="R18" s="48"/>
-      <c r="S18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="54"/>
-      <c r="C19" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q21" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="R21" s="48"/>
-      <c r="S21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
-      <c r="B22" s="54"/>
-      <c r="C22" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="54"/>
-      <c r="C24" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="54"/>
-      <c r="C25" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="R26" s="48"/>
+      <c r="R27" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="77">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I7:O7"/>
     <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
@@ -15532,36 +15620,41 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I25:O25"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15570,17 +15663,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G251"/>
+  <dimension ref="A2:G303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15588,101 +15681,101 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15690,195 +15783,195 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E58" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F59" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -15886,7 +15979,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15894,104 +15987,104 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D88" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -15999,7 +16092,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -16007,606 +16100,918 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="B95" s="51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E133" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="D134" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G136" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G137" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G139" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G140" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G141" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G142" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G143" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G144" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G145" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G146" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G148" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G149" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G150" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G151" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G152" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G153" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G154" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G155" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G158" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G159" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G160" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="E161" t="s">
+        <v>331</v>
+      </c>
+      <c r="G161" t="s">
         <v>348</v>
       </c>
-      <c r="G161" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7">
+    </row>
+    <row r="162" spans="1:7">
       <c r="E162" t="s">
+        <v>332</v>
+      </c>
+      <c r="G162" t="s">
         <v>349</v>
       </c>
-      <c r="G162" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7">
+    </row>
+    <row r="163" spans="1:7">
       <c r="E163" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G163" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="D167" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="D164" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="D165" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="B167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="C168" t="s">
+        <v>305</v>
+      </c>
       <c r="D168" t="s">
-        <v>323</v>
-      </c>
-      <c r="G168" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="C169" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="C170" t="s">
+        <v>306</v>
+      </c>
+      <c r="D170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="B176" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
-      <c r="B170" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="C171" t="s">
-        <v>322</v>
-      </c>
-      <c r="D171" t="s">
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>236</v>
+      </c>
+      <c r="D180" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>239</v>
+      </c>
+      <c r="D181" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>235</v>
+      </c>
+      <c r="D182" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="C185" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>305</v>
+      </c>
+      <c r="C188" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>222</v>
+      </c>
+      <c r="C189" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="C191" t="s">
+        <v>359</v>
+      </c>
+      <c r="D191" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="C192" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="172" spans="2:7">
-      <c r="C172" t="s">
-        <v>235</v>
-      </c>
-      <c r="D172" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
-      <c r="C173" t="s">
-        <v>323</v>
-      </c>
-      <c r="D173" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177">
-        <v>5</v>
-      </c>
-      <c r="B177" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="B179" s="51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="B180" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="B185" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="C186" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="B189" t="s">
-        <v>322</v>
-      </c>
-      <c r="C189" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="B190" t="s">
-        <v>235</v>
-      </c>
-      <c r="C190" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="B191" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="C192" t="s">
-        <v>377</v>
-      </c>
       <c r="D192" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D193" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:4">
+      <c r="B194" t="s">
+        <v>240</v>
+      </c>
       <c r="C194" t="s">
-        <v>379</v>
-      </c>
-      <c r="D194" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C195" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="B201" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="B202" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="B204" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="B205" t="s">
+        <v>398</v>
+      </c>
+      <c r="D205" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="B206" t="s">
+        <v>235</v>
+      </c>
+      <c r="D206" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="B209" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="B210" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="B212" t="s">
+        <v>305</v>
+      </c>
+      <c r="C212" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="B213" t="s">
+        <v>222</v>
+      </c>
+      <c r="C213" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="B214" t="s">
+        <v>403</v>
+      </c>
+      <c r="C214" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="B215" t="s">
+        <v>404</v>
+      </c>
+      <c r="C215" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="B216" t="s">
+        <v>306</v>
+      </c>
+      <c r="C216" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="B221" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="B223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="B224" t="s">
+        <v>398</v>
+      </c>
+      <c r="D224" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" t="s">
+        <v>235</v>
+      </c>
+      <c r="D225" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
+        <v>305</v>
+      </c>
+      <c r="C232" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" t="s">
+        <v>222</v>
+      </c>
+      <c r="C233" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" t="s">
+        <v>403</v>
+      </c>
+      <c r="C234" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" t="s">
+        <v>404</v>
+      </c>
+      <c r="C235" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
+        <v>407</v>
+      </c>
+      <c r="C236" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" t="s">
+        <v>408</v>
+      </c>
+      <c r="C237" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
+        <v>306</v>
+      </c>
+      <c r="C238" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="B245" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="B247" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="B248" t="s">
+        <v>398</v>
+      </c>
+      <c r="D248" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="B249" t="s">
+        <v>235</v>
+      </c>
+      <c r="D249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="B250" t="s">
+        <v>434</v>
+      </c>
+      <c r="D250" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="B253" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="B254" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="B256" t="s">
+        <v>305</v>
+      </c>
+      <c r="C256" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="B257" t="s">
+        <v>222</v>
+      </c>
+      <c r="C257" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="B258" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="C259" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="C260" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="C261" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="B262" t="s">
+        <v>240</v>
+      </c>
+      <c r="C262" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="B263" t="s">
+        <v>306</v>
+      </c>
+      <c r="C263" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="C279" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="C282" t="s">
+        <v>374</v>
+      </c>
+      <c r="D282" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="C283" t="s">
+        <v>222</v>
+      </c>
+      <c r="D283" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>12</v>
+      </c>
+      <c r="B303" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="B196" t="s">
-        <v>323</v>
-      </c>
-      <c r="C196" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202" s="51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
-        <v>8</v>
-      </c>
-      <c r="B209" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
-        <v>9</v>
-      </c>
-      <c r="B218" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="B226" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="C227" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="C230" t="s">
-        <v>394</v>
-      </c>
-      <c r="D230" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="C231" t="s">
-        <v>235</v>
-      </c>
-      <c r="D231" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238">
-        <v>11</v>
-      </c>
-      <c r="B238" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>12</v>
-      </c>
-      <c r="B251" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -16622,7 +17027,7 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
@@ -16883,13 +17288,13 @@
       <c r="AE11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AF11" s="58">
+      <c r="AF11" s="61">
         <v>41548</v>
       </c>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
       <c r="AK11" s="45" t="s">
         <v>163</v>
       </c>
@@ -17271,7 +17676,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17280,7 +17685,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17390,7 +17795,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -17400,7 +17805,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -17508,7 +17913,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -17518,7 +17923,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -19141,12 +19546,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="60" t="s">
+      <c r="R62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="S62" s="61"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="62"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="65"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19154,16 +19559,16 @@
       <c r="AE62" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AF62" s="60" t="s">
+      <c r="AF62" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="AG62" s="61"/>
-      <c r="AH62" s="61"/>
-      <c r="AI62" s="62"/>
-      <c r="AJ62" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK62" s="62"/>
+      <c r="AG62" s="64"/>
+      <c r="AH62" s="64"/>
+      <c r="AI62" s="65"/>
+      <c r="AJ62" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK62" s="65"/>
       <c r="AL62" s="47" t="s">
         <v>109</v>
       </c>
@@ -19316,13 +19721,13 @@
       <c r="P70" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q70" s="64">
+      <c r="Q70" s="67">
         <v>41577</v>
       </c>
-      <c r="R70" s="64"/>
-      <c r="S70" s="64"/>
-      <c r="T70" s="64"/>
-      <c r="U70" s="64"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
       <c r="V70" s="45" t="s">
         <v>163</v>
       </c>
@@ -19771,20 +20176,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="63" t="s">
+      <c r="P89" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63" t="s">
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="S89" s="63"/>
-      <c r="T89" s="60" t="s">
+      <c r="S89" s="66"/>
+      <c r="T89" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="U89" s="61"/>
-      <c r="V89" s="61"/>
-      <c r="W89" s="62"/>
+      <c r="U89" s="64"/>
+      <c r="V89" s="64"/>
+      <c r="W89" s="65"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>
@@ -19865,8 +20270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19881,7 +20286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -19958,8 +20363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19980,22 +20385,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="445">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撤回工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据取得同工时的工时明细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,21 +1215,12 @@
     <t>queryresult0:</t>
   </si>
   <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140602","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-  </si>
-  <si>
     <t>queryresult1:</t>
   </si>
   <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140603","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-  </si>
-  <si>
     <t>queryresult2:</t>
   </si>
   <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140604","whtype":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovtype":"0","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vctype":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-  </si>
-  <si>
     <t>,"rowcount":3,"module":"getWHDetailList"</t>
   </si>
   <si>
@@ -1271,9 +1258,6 @@
     <t>ObjYMD</t>
   </si>
   <si>
-    <t>whtype</t>
-  </si>
-  <si>
     <t>abswh</t>
   </si>
   <si>
@@ -1298,9 +1282,6 @@
     <t>whFlgPJG</t>
   </si>
   <si>
-    <t>ovtype</t>
-  </si>
-  <si>
     <t>ovwh</t>
   </si>
   <si>
@@ -1320,9 +1301,6 @@
   </si>
   <si>
     <t>ovFlgPJG</t>
-  </si>
-  <si>
-    <t>vctype</t>
   </si>
   <si>
     <t>vcwh</t>
@@ -1593,10 +1571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校验通过后，返回ivggs的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1707,14 +1681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撤回加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撤回工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1773,6 +1739,58 @@
   </si>
   <si>
     <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14905,10 +14923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S27"/>
+  <dimension ref="B4:S24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14952,7 +14970,7 @@
         <v>167</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:19">
@@ -14982,39 +15000,39 @@
         <v>160</v>
       </c>
       <c r="Q5" s="53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="57"/>
-      <c r="C6" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="C6" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="48"/>
       <c r="S6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:19">
@@ -15040,11 +15058,11 @@
       <c r="O7" s="54"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:19">
@@ -15070,11 +15088,11 @@
       <c r="O8" s="54"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:19">
@@ -15102,11 +15120,11 @@
       <c r="O9" s="54"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -15130,7 +15148,7 @@
         <v>154</v>
       </c>
       <c r="Q10" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R10" s="48"/>
     </row>
@@ -15155,7 +15173,7 @@
         <v>154</v>
       </c>
       <c r="Q11" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R11" s="48"/>
     </row>
@@ -15180,7 +15198,7 @@
         <v>154</v>
       </c>
       <c r="Q12" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R12" s="48"/>
     </row>
@@ -15205,35 +15223,35 @@
         <v>154</v>
       </c>
       <c r="Q13" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R13" s="48"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="57"/>
-      <c r="C14" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55" t="s">
+      <c r="C14" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="52" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="Q14" s="52"/>
+      <c r="Q14" s="53"/>
       <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:19">
@@ -15265,13 +15283,13 @@
       <c r="Q15" s="53"/>
       <c r="R15" s="48"/>
       <c r="S15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="59"/>
       <c r="C16" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -15296,112 +15314,112 @@
       <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="59"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="48"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="60"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
       <c r="R18" s="48"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q19" s="53" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="57"/>
-      <c r="C20" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="52"/>
+      <c r="B20" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="53" t="s">
+        <v>207</v>
+      </c>
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>424</v>
+        <v>208</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
@@ -15413,51 +15431,53 @@
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
       <c r="P21" s="52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="R22" s="48"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="57"/>
       <c r="C23" s="55" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="55" t="s">
+        <v>204</v>
+      </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
@@ -15468,123 +15488,44 @@
         <v>173</v>
       </c>
       <c r="Q23" s="52"/>
-      <c r="R23" s="48"/>
+      <c r="R23" s="52"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="57"/>
-      <c r="C24" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q24" s="52"/>
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="53" t="s">
+        <v>207</v>
+      </c>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="57"/>
-      <c r="C25" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="57"/>
-      <c r="C26" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q27" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="R27" s="48"/>
-    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="68">
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
@@ -15593,7 +15534,7 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -15610,50 +15551,41 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:O17"/>
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="I14:O14"/>
     <mergeCell ref="I15:O15"/>
     <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I19:O19"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="I21:O21"/>
     <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I25:O25"/>
     <mergeCell ref="F13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15663,17 +15595,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G303"/>
+  <dimension ref="A2:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15681,101 +15613,101 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
         <v>219</v>
-      </c>
-      <c r="D11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15783,195 +15715,195 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" t="s">
         <v>244</v>
-      </c>
-      <c r="D47" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
         <v>257</v>
-      </c>
-      <c r="E60" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -15979,7 +15911,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15987,104 +15919,104 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" t="s">
         <v>244</v>
-      </c>
-      <c r="D84" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -16092,7 +16024,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -16100,449 +16032,458 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="B95" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D102" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>293</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>297</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E133" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="D134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
+        <v>243</v>
+      </c>
+      <c r="F135" t="s">
         <v>244</v>
-      </c>
-      <c r="F135" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G136" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G137" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>309</v>
+        <v>436</v>
+      </c>
+      <c r="G138" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G139" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G140" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G141" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G142" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G143" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G144" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G145" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G146" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>318</v>
+        <v>437</v>
+      </c>
+      <c r="G147" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G148" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G149" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G150" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G151" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G152" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G153" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G154" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G155" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>326</v>
+        <v>438</v>
+      </c>
+      <c r="G156" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G158" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G159" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G160" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="E161" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G161" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="E162" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G162" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="E163" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G163" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="D164" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="D165" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G165" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="B167" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="C168" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D168" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="C169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D169" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="C170" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D170" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -16550,117 +16491,117 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="B176" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D182" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="C185" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C188" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C189" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D191" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="C192" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D192" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D193" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="B194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C194" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C195" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -16668,88 +16609,88 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="B201" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="B204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="B206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D206" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="B209" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="B210" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="B212" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C212" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="B213" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="B214" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C214" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="B215" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C215" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="B216" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C216" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -16757,107 +16698,107 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="B221" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="B223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="B224" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D225" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D226" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C232" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C233" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C234" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C235" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C236" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C237" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C238" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -16865,153 +16806,162 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="B245" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="B247" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="B248" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D248" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="B249" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D249" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="B250" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D250" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="B253" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="B254" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="B256" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C256" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="B257" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C257" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="B258" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="C259" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>427</v>
+      </c>
+      <c r="D259" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="C260" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>428</v>
+      </c>
+      <c r="D260" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="C261" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>429</v>
+      </c>
+      <c r="D261" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C262" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="B263" t="s">
+        <v>302</v>
+      </c>
+      <c r="C263" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="B275" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="C276" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="B263" t="s">
-        <v>306</v>
-      </c>
-      <c r="C263" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270">
-        <v>9</v>
-      </c>
-      <c r="B270" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4">
-      <c r="B278" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4">
+    <row r="279" spans="1:4">
       <c r="C279" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4">
-      <c r="C282" t="s">
+        <v>367</v>
+      </c>
+      <c r="D279" t="s">
         <v>374</v>
       </c>
-      <c r="D282" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4">
-      <c r="C283" t="s">
-        <v>222</v>
-      </c>
-      <c r="D283" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="C280" t="s">
+        <v>221</v>
+      </c>
+      <c r="D280" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
         <v>11</v>
       </c>
-      <c r="B290" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303">
+      <c r="B287" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
         <v>12</v>
       </c>
-      <c r="B303" t="s">
-        <v>385</v>
+      <c r="B300" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -17676,7 +17626,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17685,7 +17635,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17795,7 +17745,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -17805,7 +17755,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -17913,7 +17863,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -17923,7 +17873,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="447">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,18 +340,6 @@
   </si>
   <si>
     <t>平日/加班/休假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1739,6 +1727,9 @@
   </si>
   <si>
     <t>getAvailPJ</t>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1791,6 +1782,22 @@
   </si>
   <si>
     <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回日历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8364,7 +8371,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>通过消息和颜色区分是否已填写完整，是否已提交等信息</a:t>
+            <a:t>通过文字和颜色区分是否已填写完整，是否已提交等信息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -14691,13 +14698,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -14705,13 +14712,13 @@
     </row>
     <row r="4" spans="3:7" ht="30" customHeight="1">
       <c r="D4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -14843,7 +14850,7 @@
     </row>
     <row r="18" spans="3:5" ht="22.5" customHeight="1">
       <c r="D18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>52</v>
@@ -14851,35 +14858,35 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -14900,18 +14907,18 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -14925,8 +14932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14935,6 +14942,7 @@
     <col min="8" max="8" width="2.25" customWidth="1"/>
     <col min="14" max="14" width="2.5" customWidth="1"/>
     <col min="15" max="15" width="6.375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
     <col min="17" max="17" width="26.875" customWidth="1"/>
     <col min="18" max="18" width="18.875" customWidth="1"/>
   </cols>
@@ -14942,17 +14950,17 @@
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
       <c r="C4" s="57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
       <c r="F4" s="57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
@@ -14961,34 +14969,34 @@
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
       <c r="F5" s="54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J5" s="54"/>
       <c r="K5" s="54"/>
@@ -14997,58 +15005,60 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
       <c r="P5" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="57"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53" t="s">
+        <v>443</v>
+      </c>
       <c r="R6" s="48"/>
       <c r="S6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="57"/>
       <c r="C7" s="54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
@@ -15058,27 +15068,27 @@
       <c r="O7" s="54"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="57"/>
       <c r="C8" s="54" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
       <c r="I8" s="54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J8" s="54"/>
       <c r="K8" s="54"/>
@@ -15088,29 +15098,29 @@
       <c r="O8" s="54"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J9" s="54"/>
       <c r="K9" s="54"/>
@@ -15120,17 +15130,17 @@
       <c r="O9" s="54"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="57"/>
       <c r="C10" s="54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
@@ -15145,17 +15155,17 @@
       <c r="N10" s="54"/>
       <c r="O10" s="54"/>
       <c r="P10" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="57"/>
       <c r="C11" s="54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
@@ -15170,17 +15180,17 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
       <c r="P11" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="57"/>
       <c r="C12" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -15195,17 +15205,17 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
       <c r="P12" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="57"/>
       <c r="C13" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
@@ -15220,27 +15230,27 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R13" s="48"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="57"/>
       <c r="C14" s="54" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
@@ -15249,27 +15259,32 @@
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="53"/>
+        <v>152</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>443</v>
+      </c>
       <c r="R14" s="48"/>
+      <c r="S14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
@@ -15278,28 +15293,30 @@
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
       <c r="P15" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="53"/>
+        <v>152</v>
+      </c>
+      <c r="Q15" s="53" t="s">
+        <v>443</v>
+      </c>
       <c r="R15" s="48"/>
       <c r="S15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="59"/>
       <c r="C16" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
       <c r="I16" s="55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -15308,7 +15325,7 @@
       <c r="N16" s="55"/>
       <c r="O16" s="55"/>
       <c r="P16" s="52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="52"/>
       <c r="R16" s="48"/>
@@ -15334,10 +15351,10 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -15352,22 +15369,22 @@
       <c r="N18" s="54"/>
       <c r="O18" s="54"/>
       <c r="P18" s="53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R18" s="48"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="57"/>
       <c r="C19" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
@@ -15379,17 +15396,17 @@
       <c r="N19" s="55"/>
       <c r="O19" s="55"/>
       <c r="P19" s="52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
@@ -15404,22 +15421,22 @@
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
       <c r="P20" s="53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
@@ -15431,7 +15448,7 @@
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
       <c r="P21" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="48"/>
@@ -15439,17 +15456,17 @@
     <row r="22" spans="2:18">
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
@@ -15458,25 +15475,25 @@
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
       <c r="P22" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="57"/>
       <c r="C23" s="55" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -15485,17 +15502,17 @@
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
       <c r="P23" s="52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -15510,10 +15527,10 @@
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
       <c r="P24" s="53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R24" s="48"/>
     </row>
@@ -15597,7 +15614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
@@ -15605,7 +15622,7 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15613,101 +15630,101 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15715,195 +15732,195 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" t="s">
         <v>238</v>
-      </c>
-      <c r="D37" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E57" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" t="s">
         <v>255</v>
-      </c>
-      <c r="E59" t="s">
-        <v>361</v>
-      </c>
-      <c r="F59" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -15911,7 +15928,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15919,104 +15936,104 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -16024,7 +16041,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -16032,458 +16049,458 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="B95" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E133" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="D134" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G136" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G137" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G138" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G139" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G140" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G142" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G143" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G144" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G145" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G146" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G147" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G148" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G149" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G150" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G151" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G152" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G153" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G154" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G155" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G156" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G158" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G159" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G160" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="E161" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G161" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="E162" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G162" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="E163" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G163" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="D164" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="D165" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G165" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="B167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="C168" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D168" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="C169" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="C170" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -16491,117 +16508,117 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="B176" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D180" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D181" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D182" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="C185" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D191" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="C192" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D192" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D193" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="B194" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C195" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -16609,88 +16626,88 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="B201" s="51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="B204" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D205" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="B206" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D206" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="B209" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="B210" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="B212" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C212" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="B213" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="B214" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C214" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="B215" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C215" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="B216" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -16698,107 +16715,107 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="B221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="B223" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="B224" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D224" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D226" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C232" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C234" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C235" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C236" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C237" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C238" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -16806,112 +16823,112 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="B245" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="B247" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="B248" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D248" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="B249" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D249" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="B250" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D250" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="B253" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="B254" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="B256" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C256" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="B257" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C257" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="B258" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="C259" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D259" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="C260" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D260" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="C261" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D261" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="B263" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C263" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -16919,33 +16936,33 @@
         <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="B275" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D279" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="C280" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D280" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -16953,7 +16970,7 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -16961,7 +16978,7 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -16977,8 +16994,8 @@
   </sheetPr>
   <dimension ref="D7:BQ92"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -17055,7 +17072,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -17067,7 +17084,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -17079,7 +17096,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
@@ -17091,7 +17108,7 @@
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BM8" s="4"/>
       <c r="BN8" s="4"/>
@@ -17236,7 +17253,7 @@
       <c r="X11" s="9"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AF11" s="61">
         <v>41548</v>
@@ -17246,13 +17263,13 @@
       <c r="AI11" s="62"/>
       <c r="AJ11" s="62"/>
       <c r="AK11" s="45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="9"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
@@ -17323,7 +17340,7 @@
       <c r="AM12" s="9"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
@@ -17385,7 +17402,7 @@
       <c r="AM13" s="9"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AS13" s="26"/>
       <c r="AT13" s="26"/>
@@ -17454,7 +17471,7 @@
       <c r="AM14" s="9"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
@@ -17490,7 +17507,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="8"/>
       <c r="P15" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -17526,7 +17543,7 @@
       <c r="AM15" s="9"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
@@ -17592,7 +17609,7 @@
       <c r="AM16" s="9"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AS16" s="26"/>
       <c r="AT16" s="26"/>
@@ -17626,7 +17643,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17635,7 +17652,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17745,7 +17762,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -17755,22 +17772,22 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
@@ -17819,7 +17836,7 @@
       <c r="X20" s="9"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -17863,7 +17880,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -17873,13 +17890,13 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -17987,7 +18004,7 @@
       <c r="X23" s="9"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
@@ -18093,7 +18110,7 @@
       <c r="X25" s="9"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
@@ -18155,7 +18172,7 @@
       <c r="AM26" s="9"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
@@ -18209,7 +18226,7 @@
       <c r="AM27" s="9"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
@@ -18217,7 +18234,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="9"/>
@@ -18268,7 +18285,7 @@
       <c r="AM28" s="9"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
@@ -18276,7 +18293,7 @@
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AY28" s="3"/>
       <c r="AZ28" s="9"/>
@@ -18494,7 +18511,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -18506,7 +18523,7 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
@@ -18518,7 +18535,7 @@
       <c r="AR40" s="4"/>
       <c r="AS40" s="4"/>
       <c r="AT40" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AU40" s="4"/>
       <c r="AV40" s="4"/>
@@ -18530,7 +18547,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
       <c r="BG40" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BH40" s="4"/>
       <c r="BI40" s="4"/>
@@ -18634,7 +18651,7 @@
     <row r="43" spans="15:65">
       <c r="O43" s="8"/>
       <c r="P43" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -18670,7 +18687,7 @@
       <c r="AZ43" s="9"/>
       <c r="BD43" s="8"/>
       <c r="BE43" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BF43" s="39"/>
       <c r="BG43" s="40"/>
@@ -18758,7 +18775,7 @@
       <c r="AZ45" s="9"/>
       <c r="BD45" s="8"/>
       <c r="BE45" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BF45" s="3"/>
       <c r="BG45" s="3"/>
@@ -18772,7 +18789,7 @@
     <row r="46" spans="15:65">
       <c r="O46" s="8"/>
       <c r="P46" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -18849,7 +18866,7 @@
       <c r="AZ47" s="9"/>
       <c r="BD47" s="8"/>
       <c r="BE47" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BF47" s="3"/>
       <c r="BG47" s="3"/>
@@ -18883,7 +18900,7 @@
       <c r="AQ48" s="8"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AT48" s="32"/>
       <c r="AU48" s="32"/>
@@ -18906,7 +18923,7 @@
     <row r="49" spans="15:65">
       <c r="O49" s="8"/>
       <c r="P49" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -18983,13 +19000,13 @@
       <c r="AZ50" s="9"/>
       <c r="BD50" s="8"/>
       <c r="BE50" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BF50" s="3"/>
       <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
       <c r="BI50" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
@@ -19030,7 +19047,7 @@
       <c r="AZ51" s="9"/>
       <c r="BD51" s="8"/>
       <c r="BE51" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BF51" s="26"/>
       <c r="BG51" s="26"/>
@@ -19044,7 +19061,7 @@
     <row r="52" spans="15:65">
       <c r="O52" s="8"/>
       <c r="P52" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -19064,7 +19081,7 @@
       <c r="AM52" s="9"/>
       <c r="AQ52" s="8"/>
       <c r="AS52" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AT52" s="26"/>
       <c r="AU52" s="26"/>
@@ -19074,13 +19091,13 @@
       <c r="AZ52" s="9"/>
       <c r="BD52" s="8"/>
       <c r="BE52" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BF52" s="3"/>
       <c r="BG52" s="26"/>
       <c r="BH52" s="26"/>
       <c r="BI52" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BJ52" s="26"/>
       <c r="BK52" s="26"/>
@@ -19122,7 +19139,7 @@
       <c r="AZ53" s="9"/>
       <c r="BD53" s="8"/>
       <c r="BE53" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BF53" s="26"/>
       <c r="BG53" s="26"/>
@@ -19166,13 +19183,13 @@
       <c r="AZ54" s="9"/>
       <c r="BD54" s="8"/>
       <c r="BE54" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BF54" s="3"/>
       <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
       <c r="BI54" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
@@ -19181,7 +19198,7 @@
     <row r="55" spans="15:65">
       <c r="O55" s="8"/>
       <c r="P55" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
@@ -19203,7 +19220,7 @@
       <c r="AQ55" s="8"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AT55" s="32"/>
       <c r="AU55" s="32"/>
@@ -19214,7 +19231,7 @@
       <c r="AZ55" s="9"/>
       <c r="BD55" s="8"/>
       <c r="BE55" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BF55" s="37"/>
       <c r="BG55" s="32"/>
@@ -19262,7 +19279,7 @@
       <c r="AZ56" s="9"/>
       <c r="BD56" s="8"/>
       <c r="BE56" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BF56" s="26"/>
       <c r="BG56" s="26"/>
@@ -19276,7 +19293,7 @@
     <row r="57" spans="15:65">
       <c r="O57" s="8"/>
       <c r="P57" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
@@ -19308,7 +19325,7 @@
       <c r="AZ57" s="9"/>
       <c r="BD57" s="8"/>
       <c r="BE57" s="42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BF57" s="3"/>
       <c r="BG57" s="3"/>
@@ -19331,7 +19348,7 @@
       <c r="X58" s="9"/>
       <c r="AD58" s="8"/>
       <c r="AE58" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
@@ -19353,13 +19370,13 @@
       <c r="AZ58" s="9"/>
       <c r="BD58" s="8"/>
       <c r="BE58" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BF58" s="3"/>
       <c r="BG58" s="3"/>
       <c r="BH58" s="3"/>
       <c r="BI58" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
@@ -19497,7 +19514,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="63" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="S62" s="64"/>
       <c r="T62" s="64"/>
@@ -19507,36 +19524,36 @@
       <c r="X62" s="18"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF62" s="63" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AG62" s="64"/>
       <c r="AH62" s="64"/>
       <c r="AI62" s="65"/>
       <c r="AJ62" s="63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AK62" s="65"/>
       <c r="AL62" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AM62" s="18"/>
       <c r="AQ62" s="17"/>
       <c r="AR62" s="4"/>
       <c r="AS62" s="4"/>
       <c r="AT62" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AU62" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV62" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AV62" s="42" t="s">
-        <v>110</v>
-      </c>
       <c r="AW62" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4"/>
@@ -19657,7 +19674,7 @@
       <c r="BE69" s="4"/>
       <c r="BF69" s="4"/>
       <c r="BG69" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BH69" s="4"/>
       <c r="BI69" s="4"/>
@@ -19669,7 +19686,7 @@
     <row r="70" spans="15:65">
       <c r="O70" s="8"/>
       <c r="P70" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q70" s="67">
         <v>41577</v>
@@ -19679,7 +19696,7 @@
       <c r="T70" s="67"/>
       <c r="U70" s="67"/>
       <c r="V70" s="45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W70" s="27"/>
       <c r="X70" s="9"/>
@@ -19733,7 +19750,7 @@
       <c r="X72" s="9"/>
       <c r="BD72" s="8"/>
       <c r="BE72" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BF72" s="39"/>
       <c r="BG72" s="40"/>
@@ -19780,7 +19797,7 @@
       <c r="X74" s="9"/>
       <c r="BD74" s="8"/>
       <c r="BE74" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BF74" s="3"/>
       <c r="BG74" s="3"/>
@@ -19828,7 +19845,7 @@
       <c r="X76" s="9"/>
       <c r="BD76" s="8"/>
       <c r="BE76" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BF76" s="3"/>
       <c r="BG76" s="3"/>
@@ -19899,7 +19916,7 @@
       <c r="X79" s="9"/>
       <c r="BD79" s="8"/>
       <c r="BE79" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BF79" s="34"/>
       <c r="BG79" s="34"/>
@@ -19946,7 +19963,7 @@
       <c r="X81" s="9"/>
       <c r="BD81" s="8"/>
       <c r="BE81" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF81" s="3"/>
       <c r="BG81" s="26"/>
@@ -19955,7 +19972,7 @@
         <v>20</v>
       </c>
       <c r="BJ81" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BK81" s="26"/>
       <c r="BM81" s="9"/>
@@ -19995,7 +20012,7 @@
       <c r="X83" s="9"/>
       <c r="BD83" s="8"/>
       <c r="BE83" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BF83" s="3"/>
       <c r="BG83" s="3"/>
@@ -20109,7 +20126,7 @@
       <c r="X88" s="18"/>
       <c r="BD88" s="8"/>
       <c r="BE88" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BF88" s="3"/>
       <c r="BG88" s="3"/>
@@ -20118,7 +20135,7 @@
         <v>40</v>
       </c>
       <c r="BJ88" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
@@ -20127,15 +20144,15 @@
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
       <c r="P89" s="66" t="s">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="Q89" s="66"/>
       <c r="R89" s="66" t="s">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="S89" s="66"/>
       <c r="T89" s="63" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>
@@ -20326,7 +20343,7 @@
     </row>
     <row r="6" spans="5:10" ht="15">
       <c r="E6" s="44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="5:10">

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="468">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,9 +1185,6 @@
     <t>[{"errno":"200","errmsg":"setting get Succ",</t>
   </si>
   <si>
-    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
-  </si>
-  <si>
     <t>rowcount:1,"module":"getWHSetting"}],</t>
   </si>
   <si>
@@ -1649,155 +1646,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回User Valid，300时返回User InValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>usertoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
+  </si>
+  <si>
+    <t>PJInfoID</t>
+  </si>
+  <si>
+    <t>PJNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getWHSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回User Valid，300时返回User InValid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>usertoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
-  </si>
-  <si>
-    <t>PJInfoID</t>
-  </si>
-  <si>
-    <t>PJNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vcid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/7/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回日历</t>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得每种假期的申请规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+  </si>
+  <si>
+    <t>休假申请规则取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getVCSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"DtVacationType":1,"des":"有薪假","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"queryresult1":{"DtVacationType":2,"des":"调休","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"rowcount":19,"module":"getVCSetting"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtVacationType</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>MinUsedUnit</t>
+  </si>
+  <si>
+    <t>ApplyStartWH</t>
+  </si>
+  <si>
+    <t>FlgWhole</t>
+  </si>
+  <si>
+    <t>休假类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假类型区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性使用标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300返回setting get Empty,400 返回setting get error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14930,10 +15009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S24"/>
+  <dimension ref="B4:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14978,7 +15057,7 @@
         <v>164</v>
       </c>
       <c r="S4" s="49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="2:19">
@@ -15008,7 +15087,7 @@
         <v>157</v>
       </c>
       <c r="Q5" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" t="s">
@@ -15018,17 +15097,17 @@
     <row r="6" spans="2:19">
       <c r="B6" s="57"/>
       <c r="C6" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="54"/>
@@ -15038,11 +15117,11 @@
       <c r="O6" s="54"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R6" s="48"/>
       <c r="S6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="2:19">
@@ -15068,7 +15147,7 @@
       <c r="O7" s="54"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" t="s">
@@ -15098,7 +15177,7 @@
       <c r="O8" s="54"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" t="s">
@@ -15130,11 +15209,11 @@
       <c r="O9" s="54"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -15240,7 +15319,7 @@
     <row r="14" spans="2:19">
       <c r="B14" s="57"/>
       <c r="C14" s="54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -15250,7 +15329,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
@@ -15262,11 +15341,11 @@
         <v>152</v>
       </c>
       <c r="Q14" s="53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="2:19">
@@ -15296,7 +15375,7 @@
         <v>152</v>
       </c>
       <c r="Q15" s="53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R15" s="48"/>
       <c r="S15" t="s">
@@ -15330,7 +15409,7 @@
       <c r="Q16" s="52"/>
       <c r="R16" s="48"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:19">
       <c r="B17" s="60"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -15349,7 +15428,7 @@
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:19">
       <c r="B18" s="57" t="s">
         <v>167</v>
       </c>
@@ -15376,7 +15455,7 @@
       </c>
       <c r="R18" s="48"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:19">
       <c r="B19" s="57"/>
       <c r="C19" s="55" t="s">
         <v>206</v>
@@ -15401,7 +15480,7 @@
       <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:19">
       <c r="B20" s="57" t="s">
         <v>168</v>
       </c>
@@ -15428,19 +15507,21 @@
       </c>
       <c r="R20" s="48"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:19">
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="55" t="s">
+        <v>449</v>
+      </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -15452,22 +15533,23 @@
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="48"/>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="S21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="55" t="s">
-        <v>200</v>
-      </c>
+      <c r="I22" s="55"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -15478,12 +15560,12 @@
         <v>170</v>
       </c>
       <c r="Q22" s="52"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="57"/>
       <c r="C23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -15493,7 +15575,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -15507,57 +15589,78 @@
       <c r="Q23" s="52"/>
       <c r="R23" s="23"/>
     </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="48" t="s">
+    <row r="24" spans="2:19">
+      <c r="B24" s="57"/>
+      <c r="C24" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C25" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="53" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="Q24" s="53" t="s">
+      <c r="Q25" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="R24" s="48"/>
+      <c r="R25" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
+  <mergeCells count="71">
+    <mergeCell ref="I21:O21"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="C5:E5"/>
@@ -15568,20 +15671,23 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:O17"/>
     <mergeCell ref="I11:O11"/>
@@ -15590,20 +15696,26 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="I12:O12"/>
     <mergeCell ref="I14:O14"/>
     <mergeCell ref="I15:O15"/>
     <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I23:O23"/>
     <mergeCell ref="I24:O24"/>
+    <mergeCell ref="I25:O25"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
     <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I23:O23"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15612,10 +15724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G300"/>
+  <dimension ref="A2:G339"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="H336" sqref="H336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15671,7 +15783,7 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="B17" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -15687,7 +15799,7 @@
         <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -15716,7 +15828,7 @@
         <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -15742,7 +15854,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -15781,7 +15893,7 @@
     </row>
     <row r="42" spans="2:5" ht="15">
       <c r="B42" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -15789,15 +15901,15 @@
         <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
         <v>378</v>
-      </c>
-      <c r="D46" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -15885,7 +15997,7 @@
         <v>256</v>
       </c>
       <c r="E57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -15893,7 +16005,7 @@
         <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -15901,7 +16013,7 @@
         <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
         <v>255</v>
@@ -15928,7 +16040,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15946,7 +16058,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15985,15 +16097,15 @@
         <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
-        <v>218</v>
+        <v>447</v>
       </c>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -16059,7 +16171,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -16088,7 +16200,7 @@
         <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -16113,115 +16225,115 @@
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>283</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E133" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="2:7">
@@ -16239,226 +16351,226 @@
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G138" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G142" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G144" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G146" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G147" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G150" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G151" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G153" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G154" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G156" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
+        <v>342</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G158" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="E161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="E162" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="E163" t="s">
+        <v>345</v>
+      </c>
+      <c r="G163" t="s">
         <v>346</v>
-      </c>
-      <c r="G163" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -16468,7 +16580,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="D165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G165" t="s">
         <v>208</v>
@@ -16476,15 +16588,15 @@
     </row>
     <row r="167" spans="1:7">
       <c r="B167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="C168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D168" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -16492,15 +16604,15 @@
         <v>218</v>
       </c>
       <c r="D169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="C170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D170" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -16508,7 +16620,7 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -16518,7 +16630,7 @@
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="2:4">
@@ -16547,7 +16659,7 @@
         <v>231</v>
       </c>
       <c r="D182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="2:4">
@@ -16557,15 +16669,15 @@
     </row>
     <row r="185" spans="2:4">
       <c r="C185" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C188" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" spans="2:4">
@@ -16573,7 +16685,7 @@
         <v>218</v>
       </c>
       <c r="C189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="2:4">
@@ -16583,26 +16695,26 @@
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D191" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="C192" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D192" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -16610,15 +16722,15 @@
         <v>236</v>
       </c>
       <c r="C194" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C195" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -16626,7 +16738,7 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -16636,7 +16748,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -16646,7 +16758,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D205" t="s">
         <v>269</v>
@@ -16657,7 +16769,7 @@
         <v>231</v>
       </c>
       <c r="D206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -16667,15 +16779,15 @@
     </row>
     <row r="210" spans="1:4">
       <c r="B210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="B212" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -16683,31 +16795,31 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="B214" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C214" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="B215" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C215" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="B216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -16715,12 +16827,12 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="B221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -16730,7 +16842,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="B224" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D224" t="s">
         <v>269</v>
@@ -16741,15 +16853,15 @@
         <v>231</v>
       </c>
       <c r="D225" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D226" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="2:4">
@@ -16759,15 +16871,15 @@
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="233" spans="2:4">
@@ -16775,47 +16887,47 @@
         <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C234" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C236" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C238" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -16823,12 +16935,12 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="B245" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -16838,10 +16950,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="B248" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D248" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -16849,15 +16961,15 @@
         <v>231</v>
       </c>
       <c r="D249" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="B250" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D250" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -16867,15 +16979,15 @@
     </row>
     <row r="254" spans="1:4">
       <c r="B254" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="B256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C256" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -16883,7 +16995,7 @@
         <v>218</v>
       </c>
       <c r="C257" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -16893,26 +17005,26 @@
     </row>
     <row r="259" spans="1:4">
       <c r="C259" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D259" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="C260" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D260" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="C261" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D261" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -16920,15 +17032,15 @@
         <v>236</v>
       </c>
       <c r="C262" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="B263" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C263" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -16936,25 +17048,25 @@
         <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="B275" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D279" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -16962,7 +17074,7 @@
         <v>218</v>
       </c>
       <c r="D280" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -16970,7 +17082,7 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -16978,7 +17090,132 @@
         <v>12</v>
       </c>
       <c r="B300" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>13</v>
+      </c>
+      <c r="B315" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="B318" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="B320" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5">
+      <c r="B321" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5">
+      <c r="B323" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5">
+      <c r="B324" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5">
+      <c r="B327" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="328" spans="2:5">
+      <c r="B328" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="330" spans="2:5">
+      <c r="B330" t="s">
+        <v>297</v>
+      </c>
+      <c r="C330" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="331" spans="2:5">
+      <c r="B331" t="s">
+        <v>218</v>
+      </c>
+      <c r="C331" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="332" spans="2:5">
+      <c r="B332" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="333" spans="2:5">
+      <c r="C333" t="s">
+        <v>456</v>
+      </c>
+      <c r="E333" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="334" spans="2:5">
+      <c r="C334" t="s">
+        <v>457</v>
+      </c>
+      <c r="E334" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5">
+      <c r="C335" t="s">
+        <v>458</v>
+      </c>
+      <c r="E335" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="C336" t="s">
+        <v>459</v>
+      </c>
+      <c r="E336" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="C337" t="s">
+        <v>460</v>
+      </c>
+      <c r="E337" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="B338" t="s">
+        <v>236</v>
+      </c>
+      <c r="C338" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="B339" t="s">
+        <v>298</v>
+      </c>
+      <c r="C339" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -17643,7 +17880,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17652,7 +17889,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17762,7 +17999,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -17772,7 +18009,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -17880,7 +18117,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -17890,7 +18127,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -19514,7 +19751,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="63" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S62" s="64"/>
       <c r="T62" s="64"/>
@@ -19527,7 +19764,7 @@
         <v>105</v>
       </c>
       <c r="AF62" s="63" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG62" s="64"/>
       <c r="AH62" s="64"/>
@@ -20144,15 +20381,15 @@
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
       <c r="P89" s="66" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q89" s="66"/>
       <c r="R89" s="66" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S89" s="66"/>
       <c r="T89" s="63" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="516">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,13 +917,6 @@
     <t>getWHDetailList</t>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHSetting</t>
-  </si>
-  <si>
     <t>getCalendar</t>
   </si>
   <si>
@@ -1460,26 +1453,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加班申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"errno":"200","errmsg":"getAccessRecord complete","module":"getAccessRecord"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>errno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功返回OV Submit Succ，校验错误返回OV Submit Err，系统异常返回OV Submit Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余有薪假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,10 +1481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"errno":"200","errmsg":"getAccessRecord complete","queryresult0":{"objDate":"20140505","InTime":"09:00:00","OutTime":"17:30:00"},"queryresult1":{"objDate":"20140506","InTime":"08:00:00","OutTime":"18:15:00"},"queryresult2":{"objDate":"20140507","InTime":"08:00:00","OutTime":"15:30:00"},"queryresult3":{"objDate":"20140508","InTime":"10:00:00","OutTime":"18:15:00"},"queryresult4":{"objDate":"20140509","InTime":"10:00:00","OutTime":"20:15:00"},"queryresult5":{"objDate":"20140512","InTime":"08:45:00","OutTime":"20:15:00"},"queryresult6":{"objDate":"20140513","InTime":"10:45:00","OutTime":"14:15:00"},"rowcount":7,"module":"getAccessRecord"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1540,10 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,10 +1553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200时返回getPaidVCTime complete，300返回getPaidVCTime Empty,400 返回getPaidVCTime error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeftWH</t>
   </si>
   <si>
@@ -1594,10 +1563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小时按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeftWHin30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,39 +1575,406 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30天内可用合计（小时按照考勤规则转换成的天数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getLieuVCTimeHandle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录用户uuid校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/6/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid，uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户的uuid，判断用户是否已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回User Valid，300时返回User InValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>usertoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
+  </si>
+  <si>
+    <t>PJInfoID</t>
+  </si>
+  <si>
+    <t>PJNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得每种假期的申请规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请规则取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getVCSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"DtVacationType":1,"des":"有薪假","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"queryresult1":{"DtVacationType":2,"des":"调休","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"rowcount":19,"module":"getVCSetting"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtVacationType</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>MinUsedUnit</t>
+  </si>
+  <si>
+    <t>ApplyStartWH</t>
+  </si>
+  <si>
+    <t>FlgWhole</t>
+  </si>
+  <si>
+    <t>休假类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假类型区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性使用标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300返回setting get Empty,400 返回setting get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试OK。2014/07/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班申请:以天为单位，每一天为一个request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400，用户uuid失效返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 OV Submit Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVFormID</t>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"OVSubmit succ","OVFormID":11119,"module":"OVSubmit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定为OVSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/OVSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","applydate":"20140725","ovwh":"17","TrnOVFormDetail0":{"FromDt":"1800","ToDt":"1900","PJInfoID":"118","OVWH":"1","FlgOut":"1","FlgPJG":"0"},"TrnOVFormDetail1":{"FromDt":"1900", "ToDt":"2100", "PJInfoID":"258","OVWH":"2","FlgOut":"1","FlgPJG":"2"},"detailrow":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrnOVFormDetail0</t>
+  </si>
+  <si>
+    <t>FromDt</t>
+  </si>
+  <si>
+    <t>ToDt</t>
+  </si>
+  <si>
+    <t>OVWH</t>
+  </si>
+  <si>
+    <t>FlgOut</t>
+  </si>
+  <si>
+    <t>FlgPJG</t>
+  </si>
+  <si>
+    <t>detailrow</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的加班日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条加班的明细数据，编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班小时数，需要根据考勤规则计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出标志，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：是，2：否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录用户uuid校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/6/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid，uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验用户的uuid，判断用户是否已登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部调用</t>
+    <t>删除加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功的加班申请的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计（按照考勤规则转换成的天数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成。测试OK。2014/07/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1650,39 +1982,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回User Valid，300时返回User InValid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <t>getCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHDetailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLieuVCTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时合计数(有薪假剩余小时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时合计数(已申请，但未承认的有薪休假)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请，但未承认的有薪休假小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计，可申请小时数=剩余小时数 - 有薪假中已申请未承认的小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1690,193 +2034,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>usertoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
-  </si>
-  <si>
-    <t>PJInfoID</t>
-  </si>
-  <si>
-    <t>PJNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vcid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/7/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得每种假期的申请规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getVCSetting</t>
-  </si>
-  <si>
-    <t>休假申请规则取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getVCSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"DtVacationType":1,"des":"有薪假","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"queryresult1":{"DtVacationType":2,"des":"调休","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"rowcount":19,"module":"getVCSetting"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtVacationType</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>MinUsedUnit</t>
-  </si>
-  <si>
-    <t>ApplyStartWH</t>
-  </si>
-  <si>
-    <t>FlgWhole</t>
-  </si>
-  <si>
-    <t>休假类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假类型区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最少申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性使用标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getVCSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回setting get Succ，300返回setting get Empty,400 返回setting get error</t>
+    <t>VCWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，400 返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值 300 表示没有考勤规则，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，300时getWHSetting Error，400时返回getPaidVCTime error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,7 +2422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2300,18 +2486,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2325,6 +2513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15009,10 +15200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:S25"/>
+  <dimension ref="B4:S27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15024,6 +15215,7 @@
     <col min="16" max="16" width="16.25" customWidth="1"/>
     <col min="17" max="17" width="26.875" customWidth="1"/>
     <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
@@ -15056,472 +15248,479 @@
       <c r="R4" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="S4" s="49" t="s">
-        <v>401</v>
+      <c r="S4" s="48" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="53" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="53" t="s">
-        <v>403</v>
+      <c r="Q5" s="52" t="s">
+        <v>392</v>
       </c>
       <c r="R5" s="48"/>
-      <c r="S5" t="s">
-        <v>209</v>
+      <c r="S5" s="48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="57"/>
-      <c r="C6" s="54" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53" t="s">
-        <v>441</v>
+      <c r="C6" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52" t="s">
+        <v>427</v>
       </c>
       <c r="R6" s="48"/>
-      <c r="S6" t="s">
-        <v>406</v>
+      <c r="S6" s="48" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="57"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53" t="s">
-        <v>403</v>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52" t="s">
+        <v>392</v>
       </c>
       <c r="R7" s="48"/>
-      <c r="S7" t="s">
-        <v>210</v>
+      <c r="S7" s="48" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="57"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53" t="s">
-        <v>403</v>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52" t="s">
+        <v>392</v>
       </c>
       <c r="R8" s="48"/>
-      <c r="S8" t="s">
-        <v>211</v>
+      <c r="S8" s="48" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
-        <v>403</v>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52" t="s">
+        <v>392</v>
       </c>
       <c r="R9" s="48"/>
-      <c r="S9" t="s">
-        <v>356</v>
+      <c r="S9" s="48" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="57"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="53" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="52" t="s">
         <v>204</v>
       </c>
       <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="57"/>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="53" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="52" t="s">
         <v>204</v>
       </c>
       <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="57"/>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="53" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="53" t="s">
+      <c r="Q12" s="52" t="s">
         <v>204</v>
       </c>
       <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="57"/>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="53" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="52" t="s">
         <v>204</v>
       </c>
       <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="57"/>
-      <c r="C14" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54" t="s">
+      <c r="C14" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="53" t="s">
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="Q14" s="53" t="s">
-        <v>441</v>
+      <c r="Q14" s="52" t="s">
+        <v>427</v>
       </c>
       <c r="R14" s="48"/>
-      <c r="S14" t="s">
-        <v>426</v>
+      <c r="S14" s="48" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="53" t="s">
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="Q15" s="53" t="s">
-        <v>441</v>
+      <c r="Q15" s="52" t="s">
+        <v>427</v>
       </c>
       <c r="R15" s="48"/>
-      <c r="S15" t="s">
-        <v>208</v>
+      <c r="S15" s="48" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="59"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55" t="s">
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="52" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Q16" s="52"/>
+      <c r="Q16" s="51"/>
       <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="60"/>
-      <c r="C17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>490</v>
+      </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="F17" s="56" t="s">
+        <v>191</v>
+      </c>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="53" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="Q18" s="53" t="s">
+      <c r="Q18" s="52" t="s">
         <v>204</v>
       </c>
       <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="57"/>
-      <c r="C19" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55" t="s">
+      <c r="C19" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="52" t="s">
-        <v>169</v>
-      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C21" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="R20" s="48"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="57"/>
-      <c r="C21" s="55" t="s">
-        <v>448</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
-      <c r="F21" s="55" t="s">
-        <v>194</v>
-      </c>
+      <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="55" t="s">
-        <v>449</v>
-      </c>
+      <c r="I21" s="55"/>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -15529,27 +15728,29 @@
       <c r="N21" s="55"/>
       <c r="O21" s="55"/>
       <c r="P21" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q21" s="52"/>
+        <v>168</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>204</v>
+      </c>
       <c r="R21" s="48"/>
-      <c r="S21" t="s">
-        <v>450</v>
-      </c>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="I22" s="55" t="s">
+        <v>435</v>
+      </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -15559,108 +15760,197 @@
       <c r="P22" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="52" t="s">
+        <v>453</v>
+      </c>
       <c r="R22" s="48"/>
+      <c r="S22" s="48" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="57"/>
-      <c r="C23" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="52" t="s">
+      <c r="C23" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="23"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="57"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="57"/>
+      <c r="C25" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="48"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="57"/>
+      <c r="C26" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="52" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="48" t="s">
+      <c r="Q26" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="R26" s="23"/>
+      <c r="S26" s="48" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C27" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="53" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="Q25" s="53" t="s">
+      <c r="Q27" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="R25" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="75">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I20:O20"/>
     <mergeCell ref="I21:O21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="C5:E5"/>
@@ -15674,48 +15964,25 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B26"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15724,17 +15991,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G339"/>
+  <dimension ref="A2:G355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="H336" sqref="H336"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -15742,101 +16009,101 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="51" t="s">
-        <v>212</v>
+      <c r="B6" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
-      <c r="B17" s="50" t="s">
-        <v>375</v>
+      <c r="B17" s="49" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="C24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -15844,195 +16111,195 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="51" t="s">
-        <v>212</v>
+      <c r="B31" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
         <v>231</v>
-      </c>
-      <c r="D35" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" t="s">
         <v>232</v>
-      </c>
-      <c r="D36" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15">
-      <c r="B42" s="50" t="s">
-        <v>372</v>
+      <c r="B42" s="49" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="C48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="C49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="C50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="C52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="C53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="C54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="C56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="C57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="C58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="C60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" t="s">
         <v>237</v>
-      </c>
-      <c r="D61" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -16040,7 +16307,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -16048,104 +16315,104 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="B69" s="51" t="s">
-        <v>212</v>
+      <c r="B69" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="B73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="B75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="B82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="B84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="C85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="C86" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" t="s">
         <v>273</v>
-      </c>
-      <c r="E86" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="B88" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -16153,7 +16420,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -16161,426 +16428,426 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="B95" s="51" t="s">
-        <v>212</v>
+      <c r="B95" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="B96" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D102" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="C108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="D109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="D110" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="D111" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="C112" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="C113" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="D114" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="E115" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="F116" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="E117" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="F118" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="E119" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="F120" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="E121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="C123" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="2:7">
       <c r="C132" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="2:7">
       <c r="D133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E133" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="2:7">
       <c r="D134" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="2:7">
       <c r="D135" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="E136" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G136" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="E137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="2:7">
       <c r="E138" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G138" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="E139" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G140" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="E141" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G141" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="E142" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G142" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G143" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="2:7">
       <c r="E144" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G144" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G145" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G146" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G147" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G148" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G150" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G151" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G152" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G153" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G155" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G156" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="E161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G162" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="E163" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G163" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="D164" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="D165" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G165" t="s">
         <v>208</v>
@@ -16588,31 +16855,31 @@
     </row>
     <row r="167" spans="1:7">
       <c r="B167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="C168" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="C169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="C170" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -16620,117 +16887,120 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="B176" s="51" t="s">
-        <v>212</v>
+      <c r="B176" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D180" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="C185" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="D190" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="C191" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D191" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="C192" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D192" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D193" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="B194" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C195" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -16738,484 +17008,646 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="B201" s="51" t="s">
-        <v>212</v>
+      <c r="B201" s="50" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="B204" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="D205" t="s">
-        <v>269</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="B206" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D206" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="B207" t="s">
+        <v>406</v>
+      </c>
+      <c r="D207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="B211" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="B209" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="B210" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="B212" t="s">
-        <v>297</v>
-      </c>
-      <c r="C212" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:3">
       <c r="B213" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="B214" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="B215" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="C215" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="B216" t="s">
-        <v>298</v>
+        <v>513</v>
       </c>
       <c r="C216" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="B217" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="B218" t="s">
+        <v>509</v>
+      </c>
+      <c r="C218" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="B219" t="s">
+        <v>296</v>
+      </c>
+      <c r="C219" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
         <v>8</v>
       </c>
-      <c r="B219" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="B221" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="B223" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="B222" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="B224" t="s">
-        <v>386</v>
-      </c>
-      <c r="D224" t="s">
-        <v>269</v>
+        <v>461</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>231</v>
-      </c>
-      <c r="D225" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4">
-      <c r="B226" t="s">
-        <v>419</v>
-      </c>
-      <c r="D226" t="s">
-        <v>420</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" t="s">
+        <v>379</v>
+      </c>
+      <c r="D228" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>213</v>
+        <v>229</v>
+      </c>
+      <c r="D229" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4">
-      <c r="B232" t="s">
-        <v>297</v>
-      </c>
-      <c r="C232" t="s">
-        <v>379</v>
+        <v>406</v>
+      </c>
+      <c r="D230" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>218</v>
-      </c>
-      <c r="C233" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>391</v>
-      </c>
-      <c r="C234" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4">
-      <c r="B235" t="s">
-        <v>392</v>
-      </c>
-      <c r="C235" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="C236" t="s">
-        <v>397</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>396</v>
+        <v>216</v>
       </c>
       <c r="C237" t="s">
-        <v>398</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="C238" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
+        <v>384</v>
+      </c>
+      <c r="C239" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
+        <v>386</v>
+      </c>
+      <c r="C240" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="B241" t="s">
+        <v>387</v>
+      </c>
+      <c r="C241" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="B242" t="s">
+        <v>296</v>
+      </c>
+      <c r="C242" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
         <v>9</v>
       </c>
-      <c r="B243" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="B245" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
       <c r="B247" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="B248" t="s">
-        <v>386</v>
-      </c>
-      <c r="D248" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="B249" t="s">
-        <v>231</v>
-      </c>
-      <c r="D249" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="B250" t="s">
-        <v>419</v>
-      </c>
-      <c r="D250" t="s">
-        <v>420</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="B252" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="B253" t="s">
-        <v>213</v>
+        <v>379</v>
+      </c>
+      <c r="D253" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="B254" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="B256" t="s">
-        <v>297</v>
-      </c>
-      <c r="C256" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="B257" t="s">
-        <v>218</v>
-      </c>
-      <c r="C257" t="s">
-        <v>425</v>
+        <v>229</v>
+      </c>
+      <c r="D254" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="B255" t="s">
+        <v>406</v>
+      </c>
+      <c r="D255" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="B258" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="C259" t="s">
-        <v>422</v>
-      </c>
-      <c r="D259" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="C260" t="s">
-        <v>423</v>
-      </c>
-      <c r="D260" t="s">
-        <v>429</v>
+      <c r="B259" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:4">
+      <c r="B261" t="s">
+        <v>295</v>
+      </c>
       <c r="C261" t="s">
-        <v>424</v>
-      </c>
-      <c r="D261" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="B263" t="s">
-        <v>298</v>
-      </c>
-      <c r="C263" t="s">
-        <v>427</v>
+        <v>238</v>
+      </c>
+      <c r="D263" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="C264" t="s">
+        <v>409</v>
+      </c>
+      <c r="D264" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="C265" t="s">
+        <v>410</v>
+      </c>
+      <c r="D265" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="C266" t="s">
+        <v>411</v>
+      </c>
+      <c r="D266" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267">
+      <c r="B267" t="s">
+        <v>234</v>
+      </c>
+      <c r="C267" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="B268" t="s">
+        <v>296</v>
+      </c>
+      <c r="C268" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
         <v>10</v>
       </c>
-      <c r="B267" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="B272" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
       <c r="B275" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="C276" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="C279" t="s">
-        <v>363</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" t="s">
+        <v>229</v>
       </c>
       <c r="D279" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="C280" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" t="s">
+        <v>406</v>
+      </c>
+      <c r="D280" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" t="s">
+        <v>484</v>
+      </c>
+      <c r="D281" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" t="s">
+        <v>463</v>
+      </c>
+      <c r="D282" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="C283" t="s">
+        <v>464</v>
+      </c>
+      <c r="D283" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="C284" t="s">
+        <v>465</v>
+      </c>
+      <c r="D284" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="C285" t="s">
+        <v>409</v>
+      </c>
+      <c r="D285" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="C286" t="s">
+        <v>466</v>
+      </c>
+      <c r="D286" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="C287" t="s">
+        <v>467</v>
+      </c>
+      <c r="D287" t="s">
+        <v>479</v>
+      </c>
+      <c r="E287" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="C288" t="s">
+        <v>468</v>
+      </c>
+      <c r="D288" t="s">
+        <v>480</v>
+      </c>
+      <c r="E288" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="B289" t="s">
+        <v>469</v>
+      </c>
+      <c r="D289" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="B291" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="C292" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="C295" t="s">
+        <v>359</v>
+      </c>
+      <c r="D295" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="C296" t="s">
+        <v>216</v>
+      </c>
+      <c r="D296" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="C297" t="s">
+        <v>458</v>
+      </c>
+      <c r="D297" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="C298" t="s">
+        <v>296</v>
+      </c>
+      <c r="D298" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>11</v>
+      </c>
+      <c r="B303" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>12</v>
+      </c>
+      <c r="B316" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>13</v>
+      </c>
+      <c r="B331" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="B334" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="B336" t="s">
         <v>218</v>
       </c>
-      <c r="D280" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287">
-        <v>11</v>
-      </c>
-      <c r="B287" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300">
-        <v>12</v>
-      </c>
-      <c r="B300" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315">
-        <v>13</v>
-      </c>
-      <c r="B315" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="B318" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="B320" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="321" spans="2:5">
-      <c r="B321" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="322" spans="2:5">
-      <c r="B322" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="323" spans="2:5">
-      <c r="B323" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="324" spans="2:5">
-      <c r="B324" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="327" spans="2:5">
-      <c r="B327" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="328" spans="2:5">
-      <c r="B328" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="330" spans="2:5">
-      <c r="B330" t="s">
-        <v>297</v>
-      </c>
-      <c r="C330" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="331" spans="2:5">
-      <c r="B331" t="s">
-        <v>218</v>
-      </c>
-      <c r="C331" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="332" spans="2:5">
-      <c r="B332" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="333" spans="2:5">
-      <c r="C333" t="s">
-        <v>456</v>
-      </c>
-      <c r="E333" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="334" spans="2:5">
-      <c r="C334" t="s">
-        <v>457</v>
-      </c>
-      <c r="E334" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5">
-      <c r="C335" t="s">
-        <v>458</v>
-      </c>
-      <c r="E335" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="336" spans="2:5">
-      <c r="C336" t="s">
-        <v>459</v>
-      </c>
-      <c r="E336" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="337" spans="2:5">
-      <c r="C337" t="s">
-        <v>460</v>
-      </c>
-      <c r="E337" t="s">
-        <v>465</v>
+      <c r="B337" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="338" spans="2:5">
       <c r="B338" t="s">
-        <v>236</v>
-      </c>
-      <c r="C338" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" t="s">
-        <v>298</v>
-      </c>
-      <c r="C339" t="s">
-        <v>466</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="B340" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="B343" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="B344" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="B346" t="s">
+        <v>295</v>
+      </c>
+      <c r="C346" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="B347" t="s">
+        <v>216</v>
+      </c>
+      <c r="C347" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="B348" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="C349" t="s">
+        <v>441</v>
+      </c>
+      <c r="E349" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="C350" t="s">
+        <v>442</v>
+      </c>
+      <c r="E350" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="C351" t="s">
+        <v>443</v>
+      </c>
+      <c r="E351" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="C352" t="s">
+        <v>444</v>
+      </c>
+      <c r="E352" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="C353" t="s">
+        <v>445</v>
+      </c>
+      <c r="E353" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354" t="s">
+        <v>234</v>
+      </c>
+      <c r="C354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" t="s">
+        <v>296</v>
+      </c>
+      <c r="C355" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -17232,7 +17664,7 @@
   <dimension ref="D7:BQ92"/>
   <sheetViews>
     <sheetView topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="T74" sqref="T74:U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -17492,13 +17924,13 @@
       <c r="AE11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AF11" s="61">
+      <c r="AF11" s="62">
         <v>41548</v>
       </c>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
       <c r="AK11" s="45" t="s">
         <v>160</v>
       </c>
@@ -17880,7 +18312,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -17889,7 +18321,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -17999,7 +18431,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -18009,7 +18441,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -18117,7 +18549,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -18127,7 +18559,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -19750,12 +20182,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="S62" s="64"/>
-      <c r="T62" s="64"/>
-      <c r="U62" s="65"/>
+      <c r="R62" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="S62" s="65"/>
+      <c r="T62" s="65"/>
+      <c r="U62" s="66"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -19763,16 +20195,16 @@
       <c r="AE62" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AF62" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="AG62" s="64"/>
-      <c r="AH62" s="64"/>
-      <c r="AI62" s="65"/>
-      <c r="AJ62" s="63" t="s">
+      <c r="AF62" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG62" s="65"/>
+      <c r="AH62" s="65"/>
+      <c r="AI62" s="66"/>
+      <c r="AJ62" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="AK62" s="65"/>
+      <c r="AK62" s="66"/>
       <c r="AL62" s="47" t="s">
         <v>106</v>
       </c>
@@ -19925,13 +20357,13 @@
       <c r="P70" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q70" s="67">
+      <c r="Q70" s="68">
         <v>41577</v>
       </c>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
+      <c r="R70" s="68"/>
+      <c r="S70" s="68"/>
+      <c r="T70" s="68"/>
+      <c r="U70" s="68"/>
       <c r="V70" s="45" t="s">
         <v>160</v>
       </c>
@@ -20380,20 +20812,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="66" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="S89" s="66"/>
-      <c r="T89" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="U89" s="64"/>
-      <c r="V89" s="64"/>
-      <c r="W89" s="65"/>
+      <c r="P89" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q89" s="67"/>
+      <c r="R89" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="S89" s="67"/>
+      <c r="T89" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="U89" s="65"/>
+      <c r="V89" s="65"/>
+      <c r="W89" s="66"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1155" tabRatio="790" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能一览" sheetId="14" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="536">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,234 +1835,305 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 OV Submit Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVFormID</t>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"OVSubmit succ","OVFormID":11119,"module":"OVSubmit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定为OVSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/OVSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","applydate":"20140725","ovwh":"17","TrnOVFormDetail0":{"FromDt":"1800","ToDt":"1900","PJInfoID":"118","OVWH":"1","FlgOut":"1","FlgPJG":"0"},"TrnOVFormDetail1":{"FromDt":"1900", "ToDt":"2100", "PJInfoID":"258","OVWH":"2","FlgOut":"1","FlgPJG":"2"},"detailrow":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrnOVFormDetail0</t>
+  </si>
+  <si>
+    <t>FromDt</t>
+  </si>
+  <si>
+    <t>ToDt</t>
+  </si>
+  <si>
+    <t>OVWH</t>
+  </si>
+  <si>
+    <t>FlgOut</t>
+  </si>
+  <si>
+    <t>FlgPJG</t>
+  </si>
+  <si>
+    <t>detailrow</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的加班日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条加班的明细数据，编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班小时数，需要根据考勤规则计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出标志，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：是，2：否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功的加班申请的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计（按照考勤规则转换成的天数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成。测试OK。2014/07/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHDetailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLieuVCTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时合计数(有薪假剩余小时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请，但未承认的有薪休假小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计，可申请小时数=剩余小时数 - 有薪假中已申请未承认的小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，400 返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值 300 表示没有考勤规则，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，300时getWHSetting Error，400时返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码加密的Java实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String password = "123456";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String shaPwdString = "{SHA}:  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                + new sun.misc.BASE64Encoder().encode(java.security.MessageDigest.getInstance("SHA1").digest(password.getBytes()));</t>
+  </si>
+  <si>
+    <t>import java.io.IOException;</t>
+  </si>
+  <si>
+    <t>import java.security.NoSuchAlgorithmException;</t>
+  </si>
+  <si>
+    <t>员工号，加班主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回删除是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteOVInfo</t>
+  </si>
+  <si>
+    <t>小时合计数(已申请，但未承认的有薪休假，未承认的休假中的有薪假数字不会扣除，但是申请时不能申请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以天为单位，删除未审批通过的加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovformid</t>
+  </si>
+  <si>
+    <t>申请的加班信息的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400，用户uuid失效返回500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 OV Submit Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVFormID</t>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"OVSubmit succ","OVFormID":11119,"module":"OVSubmit"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定为OVSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/OVSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","applydate":"20140725","ovwh":"17","TrnOVFormDetail0":{"FromDt":"1800","ToDt":"1900","PJInfoID":"118","OVWH":"1","FlgOut":"1","FlgPJG":"0"},"TrnOVFormDetail1":{"FromDt":"1900", "ToDt":"2100", "PJInfoID":"258","OVWH":"2","FlgOut":"1","FlgPJG":"2"},"detailrow":"2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrnOVFormDetail0</t>
-  </si>
-  <si>
-    <t>FromDt</t>
-  </si>
-  <si>
-    <t>ToDt</t>
-  </si>
-  <si>
-    <t>OVWH</t>
-  </si>
-  <si>
-    <t>FlgOut</t>
-  </si>
-  <si>
-    <t>FlgPJG</t>
-  </si>
-  <si>
-    <t>detailrow</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的加班日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号从0开始</t>
-  </si>
-  <si>
-    <t>编号从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每条加班的明细数据，编号从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间，格式为HHMM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间，格式为HHMM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班小时数，需要根据考勤规则计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外出标志，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJG标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：是，2：否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请成功的加班申请的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天内可用合计（按照考勤规则转换成的天数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成。测试OK。2014/07/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHDetailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getVCSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLieuVCTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时合计数(有薪假剩余小时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余小时按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时合计数(已申请，但未承认的有薪休假)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请，但未承认的有薪休假小时按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计，可申请小时数=剩余小时数 - 有薪假中已申请未承认的小时数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftWH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCWH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回getPaidVCTime complete，400 返回getPaidVCTime error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值 300 表示没有考勤规则，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回getPaidVCTime complete，300时getWHSetting Error，400时返回getPaidVCTime error</t>
+    <t>{"errno":"200","errmsg":"OVDelete succ","module":"OVSubmit"}</t>
+  </si>
+  <si>
+    <t>成功返回200，加班数据不能删除返回301，异常返回400，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVDelete</t>
+  </si>
+  <si>
+    <t>返回对应消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2422,7 +2493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2496,10 +2567,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2513,9 +2584,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15202,8 +15270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15256,25 +15324,25 @@
       <c r="B5" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="52" t="s">
         <v>157</v>
       </c>
@@ -15288,25 +15356,25 @@
     </row>
     <row r="6" spans="2:19">
       <c r="B6" s="57"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52" t="s">
         <v>427</v>
@@ -15318,87 +15386,87 @@
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="57"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52" t="s">
         <v>392</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="57"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52" t="s">
         <v>392</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52" t="s">
         <v>392</v>
@@ -15410,21 +15478,21 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="57"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="52" t="s">
         <v>151</v>
       </c>
@@ -15436,21 +15504,21 @@
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="57"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="52" t="s">
         <v>151</v>
       </c>
@@ -15462,21 +15530,21 @@
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="57"/>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="52" t="s">
         <v>151</v>
       </c>
@@ -15488,21 +15556,21 @@
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="57"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="52" t="s">
         <v>151</v>
       </c>
@@ -15514,25 +15582,25 @@
     </row>
     <row r="14" spans="2:19">
       <c r="B14" s="57"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55" t="s">
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="52" t="s">
         <v>152</v>
       </c>
@@ -15541,32 +15609,32 @@
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="52" t="s">
         <v>152</v>
       </c>
@@ -15575,30 +15643,30 @@
       </c>
       <c r="R15" s="48"/>
       <c r="S15" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" s="59"/>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="51" t="s">
         <v>152</v>
       </c>
@@ -15608,23 +15676,23 @@
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="60"/>
-      <c r="C17" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="C17" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
@@ -15634,21 +15702,21 @@
       <c r="B18" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="52" t="s">
         <v>167</v>
       </c>
@@ -15660,47 +15728,55 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="57"/>
-      <c r="C19" s="56" t="s">
-        <v>488</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="54"/>
+      <c r="C19" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54" t="s">
+        <v>521</v>
+      </c>
       <c r="J19" s="54"/>
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
       <c r="M19" s="54"/>
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>522</v>
+      </c>
       <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
+      <c r="S19" s="48" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="57"/>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="51" t="s">
         <v>169</v>
       </c>
@@ -15712,21 +15788,21 @@
       <c r="B21" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="52" t="s">
         <v>168</v>
       </c>
@@ -15738,25 +15814,25 @@
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="57"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55" t="s">
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="52" t="s">
         <v>170</v>
       </c>
@@ -15765,28 +15841,28 @@
       </c>
       <c r="R22" s="48"/>
       <c r="S22" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="57"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56" t="s">
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="51" t="s">
         <v>170</v>
       </c>
@@ -15796,21 +15872,21 @@
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="57"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="51" t="s">
         <v>170</v>
       </c>
@@ -15820,25 +15896,25 @@
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="57"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56" t="s">
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="51" t="s">
         <v>170</v>
       </c>
@@ -15848,55 +15924,55 @@
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="57"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="52" t="s">
         <v>170</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R26" s="23"/>
       <c r="S26" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="52" t="s">
         <v>153</v>
       </c>
@@ -15907,7 +15983,67 @@
       <c r="S27" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="76">
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F23:H23"/>
@@ -15924,65 +16060,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15991,10 +16068,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G355"/>
+  <dimension ref="A2:G389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="J325" sqref="J325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16043,1610 +16120,1714 @@
         <v>214</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="B17" s="49" t="s">
+    <row r="29" spans="2:4" ht="15">
+      <c r="B29" s="49" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>215</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
         <v>216</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D33" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="C23" t="s">
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
+    <row r="36" spans="1:4">
+      <c r="C36" t="s">
         <v>219</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D36" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="C25" t="s">
+    <row r="37" spans="1:4">
+      <c r="C37" t="s">
         <v>220</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D37" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
         <v>221</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="50" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
         <v>229</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D47" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
         <v>230</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D48" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
         <v>233</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15">
-      <c r="B42" s="49" t="s">
+    <row r="54" spans="2:5" ht="15">
+      <c r="B54" s="49" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
-      <c r="B45" t="s">
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>215</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D57" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" t="s">
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
         <v>371</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D58" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47" t="s">
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
         <v>238</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D59" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
-      <c r="C48" t="s">
+    <row r="60" spans="2:5">
+      <c r="C60" t="s">
         <v>240</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E60" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="C49" t="s">
+    <row r="61" spans="2:5">
+      <c r="C61" t="s">
         <v>241</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E61" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="C50" t="s">
+    <row r="62" spans="2:5">
+      <c r="C62" t="s">
         <v>242</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="C51" t="s">
+    <row r="63" spans="2:5">
+      <c r="C63" t="s">
         <v>243</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E63" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
-      <c r="C52" t="s">
+    <row r="64" spans="2:5">
+      <c r="C64" t="s">
         <v>244</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E64" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="C53" t="s">
+    <row r="65" spans="1:6">
+      <c r="C65" t="s">
         <v>245</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E65" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="C54" t="s">
+    <row r="66" spans="1:6">
+      <c r="C66" t="s">
         <v>246</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E66" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="C55" t="s">
+    <row r="67" spans="1:6">
+      <c r="C67" t="s">
         <v>247</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E67" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="C56" t="s">
+    <row r="68" spans="1:6">
+      <c r="C68" t="s">
         <v>248</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
-      <c r="C57" t="s">
+    <row r="69" spans="1:6">
+      <c r="C69" t="s">
         <v>254</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E69" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
-      <c r="C58" t="s">
+    <row r="70" spans="1:6">
+      <c r="C70" t="s">
         <v>249</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E70" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
-      <c r="C59" t="s">
+    <row r="71" spans="1:6">
+      <c r="C71" t="s">
         <v>250</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E71" t="s">
         <v>355</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F71" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="C60" t="s">
+    <row r="72" spans="1:6">
+      <c r="C72" t="s">
         <v>251</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E72" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="B61" t="s">
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
         <v>235</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D73" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" t="s">
+    <row r="74" spans="1:6">
+      <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D74" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+    <row r="78" spans="1:6">
+      <c r="A78">
         <v>3</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B78" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="50" t="s">
+    <row r="81" spans="2:4">
+      <c r="B81" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="B70" t="s">
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="B73" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="B74" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
         <v>230</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D86" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="B75" t="s">
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
         <v>233</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D87" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="B77" t="s">
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="B79" t="s">
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="B82" t="s">
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
         <v>215</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D94" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="B83" t="s">
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
         <v>433</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D95" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="B84" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
         <v>238</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D96" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="C85" t="s">
+    <row r="97" spans="1:5">
+      <c r="C97" t="s">
         <v>270</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E97" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="C86" t="s">
+    <row r="98" spans="1:5">
+      <c r="C98" t="s">
         <v>271</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E98" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="C87" t="s">
+    <row r="99" spans="1:5">
+      <c r="C99" t="s">
         <v>272</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E99" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="B88" t="s">
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
         <v>235</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D100" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="B89" t="s">
+    <row r="101" spans="1:5">
+      <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D101" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>4</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B105" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="B95" s="50" t="s">
+    <row r="107" spans="1:5">
+      <c r="B107" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="B96" t="s">
+    <row r="108" spans="1:5">
+      <c r="B108" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="B99" t="s">
+    <row r="111" spans="1:5">
+      <c r="B111" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="B100" t="s">
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
         <v>230</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D112" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
-      <c r="B101" t="s">
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
         <v>233</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
-      <c r="B102" t="s">
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
         <v>229</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D114" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="s">
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
-      <c r="B107" t="s">
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
-      <c r="C108" t="s">
+    <row r="120" spans="2:6">
+      <c r="C120" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
-      <c r="D109" t="s">
+    <row r="121" spans="2:6">
+      <c r="D121" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="D110" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="D111" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="C112" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="C113" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="D114" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="E115" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="F116" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="E117" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="F118" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="E119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="F120" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="E121" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="2:6">
-      <c r="C123" t="s">
-        <v>290</v>
+      <c r="D123" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="C125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="D126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="E127" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="F128" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="E129" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="F130" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="E131" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="F132" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="E133" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="D134" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="C135" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="C136" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
-      <c r="B125" t="s">
+    <row r="137" spans="2:6">
+      <c r="B137" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="2:6">
-      <c r="B128" t="s">
+    <row r="140" spans="2:6">
+      <c r="B140" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
-      <c r="B129" t="s">
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
-      <c r="C130" t="s">
+    <row r="142" spans="2:6">
+      <c r="C142" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
-      <c r="B131" t="s">
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
-      <c r="C132" t="s">
+    <row r="144" spans="2:6">
+      <c r="C144" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
-      <c r="D133" t="s">
+    <row r="145" spans="4:7">
+      <c r="D145" t="s">
         <v>295</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E145" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
-      <c r="D134" t="s">
+    <row r="146" spans="4:7">
+      <c r="D146" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
-      <c r="D135" t="s">
+    <row r="147" spans="4:7">
+      <c r="D147" t="s">
         <v>238</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F147" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
-      <c r="E136" t="s">
+    <row r="148" spans="4:7">
+      <c r="E148" t="s">
         <v>297</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G148" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
-      <c r="E137" t="s">
+    <row r="149" spans="4:7">
+      <c r="E149" t="s">
         <v>298</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G149" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
-      <c r="E138" t="s">
+    <row r="150" spans="4:7">
+      <c r="E150" t="s">
         <v>418</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G150" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
-      <c r="E139" t="s">
+    <row r="151" spans="4:7">
+      <c r="E151" t="s">
         <v>299</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G151" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
-      <c r="E140" t="s">
+    <row r="152" spans="4:7">
+      <c r="E152" t="s">
         <v>300</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G152" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
-      <c r="E141" t="s">
+    <row r="153" spans="4:7">
+      <c r="E153" t="s">
         <v>301</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G153" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
-      <c r="E142" t="s">
+    <row r="154" spans="4:7">
+      <c r="E154" t="s">
         <v>302</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G154" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
-      <c r="E143" t="s">
+    <row r="155" spans="4:7">
+      <c r="E155" t="s">
         <v>303</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G155" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
-      <c r="E144" t="s">
+    <row r="156" spans="4:7">
+      <c r="E156" t="s">
         <v>304</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G156" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="5:7">
-      <c r="E145" t="s">
+    <row r="157" spans="4:7">
+      <c r="E157" t="s">
         <v>305</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G157" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="5:7">
-      <c r="E146" t="s">
+    <row r="158" spans="4:7">
+      <c r="E158" t="s">
         <v>306</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G158" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="147" spans="5:7">
-      <c r="E147" t="s">
+    <row r="159" spans="4:7">
+      <c r="E159" t="s">
         <v>419</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G159" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="5:7">
-      <c r="E148" t="s">
+    <row r="160" spans="4:7">
+      <c r="E160" t="s">
         <v>307</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G160" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="149" spans="5:7">
-      <c r="E149" t="s">
+    <row r="161" spans="4:7">
+      <c r="E161" t="s">
         <v>308</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G161" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="5:7">
-      <c r="E150" t="s">
+    <row r="162" spans="4:7">
+      <c r="E162" t="s">
         <v>309</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G162" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="151" spans="5:7">
-      <c r="E151" t="s">
+    <row r="163" spans="4:7">
+      <c r="E163" t="s">
         <v>310</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G163" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="5:7">
-      <c r="E152" t="s">
+    <row r="164" spans="4:7">
+      <c r="E164" t="s">
         <v>317</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G164" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="5:7">
-      <c r="E153" t="s">
+    <row r="165" spans="4:7">
+      <c r="E165" t="s">
         <v>311</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G165" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="5:7">
-      <c r="E154" t="s">
+    <row r="166" spans="4:7">
+      <c r="E166" t="s">
         <v>312</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G166" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="5:7">
-      <c r="E155" t="s">
+    <row r="167" spans="4:7">
+      <c r="E167" t="s">
         <v>313</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G167" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="5:7">
-      <c r="E156" t="s">
+    <row r="168" spans="4:7">
+      <c r="E168" t="s">
         <v>420</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G168" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="157" spans="5:7">
-      <c r="E157" t="s">
+    <row r="169" spans="4:7">
+      <c r="E169" t="s">
         <v>340</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="158" spans="5:7">
-      <c r="E158" t="s">
+    <row r="170" spans="4:7">
+      <c r="E170" t="s">
         <v>314</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G170" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="159" spans="5:7">
-      <c r="E159" t="s">
+    <row r="171" spans="4:7">
+      <c r="E171" t="s">
         <v>315</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G171" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="5:7">
-      <c r="E160" t="s">
+    <row r="172" spans="4:7">
+      <c r="E172" t="s">
         <v>316</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G172" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="E161" t="s">
+    <row r="173" spans="4:7">
+      <c r="E173" t="s">
         <v>318</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G173" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="E162" t="s">
+    <row r="174" spans="4:7">
+      <c r="E174" t="s">
         <v>319</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G174" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="E163" t="s">
+    <row r="175" spans="4:7">
+      <c r="E175" t="s">
         <v>343</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G175" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="D164" t="s">
+    <row r="176" spans="4:7">
+      <c r="D176" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="D165" t="s">
+    <row r="177" spans="1:7">
+      <c r="D177" t="s">
         <v>296</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G177" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="B167" t="s">
+    <row r="179" spans="1:7">
+      <c r="B179" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
-      <c r="C168" t="s">
+    <row r="180" spans="1:7">
+      <c r="C180" t="s">
         <v>295</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D180" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="C169" t="s">
+    <row r="181" spans="1:7">
+      <c r="C181" t="s">
         <v>216</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D181" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="C170" t="s">
+    <row r="182" spans="1:7">
+      <c r="C182" t="s">
         <v>296</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D182" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
-      <c r="A174">
+    <row r="186" spans="1:7">
+      <c r="A186">
         <v>5</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B186" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
-      <c r="B176" s="50" t="s">
+    <row r="188" spans="1:7">
+      <c r="B188" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
-      <c r="B177" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4">
-      <c r="B179" t="s">
+    <row r="189" spans="1:7">
+      <c r="B189" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="B191" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
-      <c r="B180" t="s">
+    <row r="192" spans="1:7">
+      <c r="B192" t="s">
         <v>230</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D192" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
-      <c r="B181" t="s">
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
         <v>233</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D193" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
-      <c r="B182" t="s">
+    <row r="194" spans="2:4">
+      <c r="B194" t="s">
         <v>229</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D194" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
-      <c r="B184" t="s">
+    <row r="196" spans="2:4">
+      <c r="B196" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
-      <c r="C185" t="s">
+    <row r="197" spans="2:4">
+      <c r="C197" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="188" spans="2:4">
-      <c r="B188" t="s">
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
         <v>295</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C200" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="2:4">
-      <c r="B189" t="s">
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
         <v>216</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C201" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="190" spans="2:4">
-      <c r="B190" t="s">
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
         <v>238</v>
       </c>
-      <c r="D190" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4">
-      <c r="C191" t="s">
+      <c r="D202" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="C203" t="s">
         <v>346</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D203" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="192" spans="2:4">
-      <c r="C192" t="s">
+    <row r="204" spans="2:4">
+      <c r="C204" t="s">
         <v>347</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D204" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="C193" t="s">
+    <row r="205" spans="2:4">
+      <c r="C205" t="s">
         <v>348</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D205" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="B194" t="s">
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
         <v>234</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C206" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="B195" t="s">
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
         <v>296</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C207" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199">
+    <row r="211" spans="1:4">
+      <c r="A211">
         <v>7</v>
       </c>
-      <c r="B199" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201" s="50" t="s">
+      <c r="B211" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="B213" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="B202" t="s">
+    <row r="214" spans="1:4">
+      <c r="B214" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="B204" t="s">
+    <row r="216" spans="1:4">
+      <c r="B216" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="B205" t="s">
-        <v>510</v>
-      </c>
-      <c r="D205" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="B206" t="s">
-        <v>229</v>
-      </c>
-      <c r="D206" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="B207" t="s">
-        <v>406</v>
-      </c>
-      <c r="D207" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="B210" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="B211" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="B213" t="s">
-        <v>295</v>
-      </c>
-      <c r="C213" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="B214" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="B215" t="s">
-        <v>505</v>
-      </c>
-      <c r="C215" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="B216" t="s">
-        <v>513</v>
-      </c>
-      <c r="C216" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="B217" t="s">
         <v>508</v>
       </c>
-      <c r="C217" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="B218" t="s">
+        <v>229</v>
+      </c>
+      <c r="D218" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="B219" t="s">
+        <v>406</v>
+      </c>
+      <c r="D219" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="B222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="B223" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="B225" t="s">
+        <v>295</v>
+      </c>
+      <c r="C225" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="B227" t="s">
+        <v>503</v>
+      </c>
+      <c r="C227" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="B228" t="s">
+        <v>511</v>
+      </c>
+      <c r="C228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="B229" t="s">
+        <v>506</v>
+      </c>
+      <c r="C229" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="B230" t="s">
+        <v>507</v>
+      </c>
+      <c r="C230" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="B231" t="s">
+        <v>296</v>
+      </c>
+      <c r="C231" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="B236" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="B237" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="B239" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="B240" t="s">
+        <v>379</v>
+      </c>
+      <c r="D240" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
+        <v>229</v>
+      </c>
+      <c r="D241" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
+        <v>406</v>
+      </c>
+      <c r="D242" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>295</v>
+      </c>
+      <c r="C248" t="s">
         <v>509</v>
       </c>
-      <c r="C218" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="B219" t="s">
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="C249" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>383</v>
+      </c>
+      <c r="C250" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
+        <v>384</v>
+      </c>
+      <c r="C251" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
+        <v>386</v>
+      </c>
+      <c r="C252" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
+        <v>387</v>
+      </c>
+      <c r="C253" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
         <v>296</v>
       </c>
-      <c r="C219" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
-        <v>8</v>
-      </c>
-      <c r="B222" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="B224" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4">
-      <c r="B225" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4">
-      <c r="B227" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4">
-      <c r="B228" t="s">
-        <v>379</v>
-      </c>
-      <c r="D228" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4">
-      <c r="B229" t="s">
-        <v>229</v>
-      </c>
-      <c r="D229" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4">
-      <c r="B230" t="s">
-        <v>406</v>
-      </c>
-      <c r="D230" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4">
-      <c r="B233" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4">
-      <c r="B234" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4">
-      <c r="B236" t="s">
-        <v>295</v>
-      </c>
-      <c r="C236" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4">
-      <c r="B237" t="s">
-        <v>216</v>
-      </c>
-      <c r="C237" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4">
-      <c r="B238" t="s">
-        <v>383</v>
-      </c>
-      <c r="C238" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4">
-      <c r="B239" t="s">
-        <v>384</v>
-      </c>
-      <c r="C239" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4">
-      <c r="B240" t="s">
-        <v>386</v>
-      </c>
-      <c r="C240" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="B241" t="s">
-        <v>387</v>
-      </c>
-      <c r="C241" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="B242" t="s">
-        <v>296</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="C254" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247">
+    <row r="259" spans="1:4">
+      <c r="A259">
         <v>9</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B259" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="B249" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="B250" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="B252" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="B253" t="s">
-        <v>379</v>
-      </c>
-      <c r="D253" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="B254" t="s">
-        <v>229</v>
-      </c>
-      <c r="D254" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="B255" t="s">
-        <v>406</v>
-      </c>
-      <c r="D255" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="B258" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="B259" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="B261" t="s">
-        <v>295</v>
-      </c>
-      <c r="C261" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>216</v>
-      </c>
-      <c r="C262" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="B263" t="s">
-        <v>238</v>
-      </c>
-      <c r="D263" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="C264" t="s">
-        <v>409</v>
-      </c>
-      <c r="D264" t="s">
-        <v>414</v>
+      <c r="B264" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="C265" t="s">
-        <v>410</v>
+      <c r="B265" t="s">
+        <v>379</v>
       </c>
       <c r="D265" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="C266" t="s">
-        <v>411</v>
+      <c r="B266" t="s">
+        <v>229</v>
       </c>
       <c r="D266" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="B267" t="s">
+        <v>406</v>
+      </c>
+      <c r="D267" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="B270" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="B271" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="B273" t="s">
+        <v>295</v>
+      </c>
+      <c r="C273" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="B274" t="s">
+        <v>216</v>
+      </c>
+      <c r="C274" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="B275" t="s">
+        <v>238</v>
+      </c>
+      <c r="D275" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="C276" t="s">
+        <v>409</v>
+      </c>
+      <c r="D276" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="C277" t="s">
+        <v>410</v>
+      </c>
+      <c r="D277" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="C278" t="s">
+        <v>411</v>
+      </c>
+      <c r="D278" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="B279" t="s">
         <v>234</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C279" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="B268" t="s">
+    <row r="280" spans="1:4">
+      <c r="B280" t="s">
         <v>296</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C280" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272">
+    <row r="284" spans="1:4">
+      <c r="A284">
         <v>10</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B284" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="274" spans="2:5">
-      <c r="B274" t="s">
+    <row r="287" spans="1:4">
+      <c r="B287" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="275" spans="2:5">
-      <c r="B275" t="s">
+    <row r="290" spans="2:5">
+      <c r="B290" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5">
+      <c r="B291" t="s">
+        <v>229</v>
+      </c>
+      <c r="D291" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292" t="s">
+        <v>406</v>
+      </c>
+      <c r="D292" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293" t="s">
+        <v>483</v>
+      </c>
+      <c r="D293" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="278" spans="2:5">
-      <c r="B278" t="s">
+      <c r="D294" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="C295" t="s">
+        <v>463</v>
+      </c>
+      <c r="D295" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="C296" t="s">
+        <v>464</v>
+      </c>
+      <c r="D296" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="C297" t="s">
+        <v>409</v>
+      </c>
+      <c r="D297" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="C298" t="s">
+        <v>465</v>
+      </c>
+      <c r="D298" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="C299" t="s">
+        <v>466</v>
+      </c>
+      <c r="D299" t="s">
+        <v>478</v>
+      </c>
+      <c r="E299" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5">
+      <c r="C300" t="s">
+        <v>467</v>
+      </c>
+      <c r="D300" t="s">
+        <v>479</v>
+      </c>
+      <c r="E300" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301" t="s">
+        <v>468</v>
+      </c>
+      <c r="D301" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="C304" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="C307" t="s">
+        <v>359</v>
+      </c>
+      <c r="D307" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="C308" t="s">
+        <v>216</v>
+      </c>
+      <c r="D308" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="C309" t="s">
+        <v>457</v>
+      </c>
+      <c r="D309" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="C310" t="s">
+        <v>296</v>
+      </c>
+      <c r="D310" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s">
+        <v>525</v>
+      </c>
+      <c r="C316" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="B318" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="B319" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="279" spans="2:5">
-      <c r="B279" t="s">
+    <row r="320" spans="1:4">
+      <c r="B320" t="s">
         <v>229</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D320" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" t="s">
+        <v>406</v>
+      </c>
+      <c r="D321" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="280" spans="2:5">
-      <c r="B280" t="s">
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>527</v>
+      </c>
+      <c r="D322" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="C325" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="B327" t="s">
+        <v>359</v>
+      </c>
+      <c r="C327" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="B328" t="s">
+        <v>216</v>
+      </c>
+      <c r="C328" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4">
+      <c r="B329" t="s">
+        <v>533</v>
+      </c>
+      <c r="C329" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>11</v>
+      </c>
+      <c r="B337" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>12</v>
+      </c>
+      <c r="B350" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>13</v>
+      </c>
+      <c r="B365" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="B368" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="370" spans="2:5">
+      <c r="B370" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="371" spans="2:5">
+      <c r="B371" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="372" spans="2:5">
+      <c r="B372" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="373" spans="2:5">
+      <c r="B373" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="374" spans="2:5">
+      <c r="B374" t="s">
         <v>406</v>
       </c>
-      <c r="D280" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5">
-      <c r="B281" t="s">
-        <v>484</v>
-      </c>
-      <c r="D281" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5">
-      <c r="B282" t="s">
-        <v>463</v>
-      </c>
-      <c r="D282" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5">
-      <c r="C283" t="s">
-        <v>464</v>
-      </c>
-      <c r="D283" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5">
-      <c r="C284" t="s">
-        <v>465</v>
-      </c>
-      <c r="D284" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5">
-      <c r="C285" t="s">
-        <v>409</v>
-      </c>
-      <c r="D285" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5">
-      <c r="C286" t="s">
-        <v>466</v>
-      </c>
-      <c r="D286" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5">
-      <c r="C287" t="s">
-        <v>467</v>
-      </c>
-      <c r="D287" t="s">
-        <v>479</v>
-      </c>
-      <c r="E287" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5">
-      <c r="C288" t="s">
-        <v>468</v>
-      </c>
-      <c r="D288" t="s">
-        <v>480</v>
-      </c>
-      <c r="E288" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="B289" t="s">
-        <v>469</v>
-      </c>
-      <c r="D289" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="B291" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="C292" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="C295" t="s">
-        <v>359</v>
-      </c>
-      <c r="D295" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="C296" t="s">
+    </row>
+    <row r="377" spans="2:5">
+      <c r="B377" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="378" spans="2:5">
+      <c r="B378" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="380" spans="2:5">
+      <c r="B380" t="s">
+        <v>295</v>
+      </c>
+      <c r="C380" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="381" spans="2:5">
+      <c r="B381" t="s">
         <v>216</v>
       </c>
-      <c r="D296" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="C297" t="s">
-        <v>458</v>
-      </c>
-      <c r="D297" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="C298" t="s">
+      <c r="C381" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="382" spans="2:5">
+      <c r="B382" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="383" spans="2:5">
+      <c r="C383" t="s">
+        <v>441</v>
+      </c>
+      <c r="E383" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5">
+      <c r="C384" t="s">
+        <v>442</v>
+      </c>
+      <c r="E384" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5">
+      <c r="C385" t="s">
+        <v>443</v>
+      </c>
+      <c r="E385" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5">
+      <c r="C386" t="s">
+        <v>444</v>
+      </c>
+      <c r="E386" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5">
+      <c r="C387" t="s">
+        <v>445</v>
+      </c>
+      <c r="E387" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5">
+      <c r="B388" t="s">
+        <v>234</v>
+      </c>
+      <c r="C388" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5">
+      <c r="B389" t="s">
         <v>296</v>
       </c>
-      <c r="D298" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303">
-        <v>11</v>
-      </c>
-      <c r="B303" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316">
-        <v>12</v>
-      </c>
-      <c r="B316" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331">
-        <v>13</v>
-      </c>
-      <c r="B331" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="B334" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="B336" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="337" spans="2:5">
-      <c r="B337" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="338" spans="2:5">
-      <c r="B338" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="339" spans="2:5">
-      <c r="B339" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="340" spans="2:5">
-      <c r="B340" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="343" spans="2:5">
-      <c r="B343" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="344" spans="2:5">
-      <c r="B344" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="346" spans="2:5">
-      <c r="B346" t="s">
-        <v>295</v>
-      </c>
-      <c r="C346" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="347" spans="2:5">
-      <c r="B347" t="s">
-        <v>216</v>
-      </c>
-      <c r="C347" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="348" spans="2:5">
-      <c r="B348" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="349" spans="2:5">
-      <c r="C349" t="s">
-        <v>441</v>
-      </c>
-      <c r="E349" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="350" spans="2:5">
-      <c r="C350" t="s">
-        <v>442</v>
-      </c>
-      <c r="E350" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="351" spans="2:5">
-      <c r="C351" t="s">
-        <v>443</v>
-      </c>
-      <c r="E351" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="352" spans="2:5">
-      <c r="C352" t="s">
-        <v>444</v>
-      </c>
-      <c r="E352" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="353" spans="2:5">
-      <c r="C353" t="s">
-        <v>445</v>
-      </c>
-      <c r="E353" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="354" spans="2:5">
-      <c r="B354" t="s">
-        <v>234</v>
-      </c>
-      <c r="C354" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="2:5">
-      <c r="B355" t="s">
-        <v>296</v>
-      </c>
-      <c r="C355" t="s">
+      <c r="C389" t="s">
         <v>451</v>
       </c>
     </row>
@@ -17924,13 +18105,13 @@
       <c r="AE11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AF11" s="62">
+      <c r="AF11" s="61">
         <v>41548</v>
       </c>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="62"/>
       <c r="AK11" s="45" t="s">
         <v>160</v>
       </c>
@@ -20182,12 +20363,12 @@
       <c r="O62" s="17"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="64" t="s">
+      <c r="R62" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="S62" s="65"/>
-      <c r="T62" s="65"/>
-      <c r="U62" s="66"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="65"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="18"/>
@@ -20195,16 +20376,16 @@
       <c r="AE62" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="AF62" s="64" t="s">
+      <c r="AF62" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="AG62" s="65"/>
-      <c r="AH62" s="65"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="64" t="s">
+      <c r="AG62" s="64"/>
+      <c r="AH62" s="64"/>
+      <c r="AI62" s="65"/>
+      <c r="AJ62" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="AK62" s="66"/>
+      <c r="AK62" s="65"/>
       <c r="AL62" s="47" t="s">
         <v>106</v>
       </c>
@@ -20357,13 +20538,13 @@
       <c r="P70" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q70" s="68">
+      <c r="Q70" s="67">
         <v>41577</v>
       </c>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="68"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
       <c r="V70" s="45" t="s">
         <v>160</v>
       </c>
@@ -20812,20 +20993,20 @@
     </row>
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
-      <c r="P89" s="67" t="s">
+      <c r="P89" s="66" t="s">
         <v>428</v>
       </c>
-      <c r="Q89" s="67"/>
-      <c r="R89" s="67" t="s">
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="S89" s="67"/>
-      <c r="T89" s="64" t="s">
+      <c r="S89" s="66"/>
+      <c r="T89" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="U89" s="65"/>
-      <c r="V89" s="65"/>
-      <c r="W89" s="66"/>
+      <c r="U89" s="64"/>
+      <c r="V89" s="64"/>
+      <c r="W89" s="65"/>
       <c r="X89" s="18"/>
       <c r="BD89" s="8"/>
       <c r="BE89" s="3"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="545">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,651 +1489,686 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>考勤申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常,返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error，500时返回UserValidateError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getPaidVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余调休取得：返回该员工当日所在年的调休天数的合计，以及当日开始30天内可用调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPaidVCTimeHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getPaidVCTime complete","module":"getPaidVCTimeHandle"，"LeftWH","15"，"LeftDay","2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWH</t>
+  </si>
+  <si>
+    <t>LeftDay</t>
+  </si>
+  <si>
+    <t>小时合计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWHin30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDayin30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计(小时数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLieuVCTimeHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录用户uuid校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/6/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid，uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用户的uuid，判断用户是否已登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回User Valid，300时返回User InValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前员工可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得可填写项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>usertoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
+  </si>
+  <si>
+    <t>PJInfoID</t>
+  </si>
+  <si>
+    <t>PJNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vcid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假记录的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得每种假期的申请规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请规则取得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getVCSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"DtVacationType":1,"des":"有薪假","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"queryresult1":{"DtVacationType":2,"des":"调休","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"rowcount":19,"module":"getVCSetting"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtVacationType</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>MinUsedUnit</t>
+  </si>
+  <si>
+    <t>ApplyStartWH</t>
+  </si>
+  <si>
+    <t>FlgWhole</t>
+  </si>
+  <si>
+    <t>休假类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假类型区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性使用标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回setting get Succ，300返回setting get Empty,400 返回setting get error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，测试OK。2014/07/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班申请:以天为单位，每一天为一个request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 OV Submit Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVFormID</t>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"OVSubmit succ","OVFormID":11119,"module":"OVSubmit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定为OVSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/OVSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","applydate":"20140725","ovwh":"17","TrnOVFormDetail0":{"FromDt":"1800","ToDt":"1900","PJInfoID":"118","OVWH":"1","FlgOut":"1","FlgPJG":"0"},"TrnOVFormDetail1":{"FromDt":"1900", "ToDt":"2100", "PJInfoID":"258","OVWH":"2","FlgOut":"1","FlgPJG":"2"},"detailrow":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrnOVFormDetail0</t>
+  </si>
+  <si>
+    <t>FromDt</t>
+  </si>
+  <si>
+    <t>ToDt</t>
+  </si>
+  <si>
+    <t>OVWH</t>
+  </si>
+  <si>
+    <t>FlgOut</t>
+  </si>
+  <si>
+    <t>FlgPJG</t>
+  </si>
+  <si>
+    <t>detailrow</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请的加班日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+  </si>
+  <si>
+    <t>编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每条加班的明细数据，编号从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间，格式为HHMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班小时数，需要根据考勤规则计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出标志，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJG标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：是，2：否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功的加班申请的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天内可用合计（按照考勤规则转换成的天数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成。测试OK。2014/07/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAvailPJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWHDetailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVCSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLieuVCTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时合计数(有薪假剩余小时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请，但未承认的有薪休假小时按照考勤规则转换成的天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计，可申请小时数=剩余小时数 - 有薪假中已申请未承认的小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，400 返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为200，表示取得成功，返回值 300 表示没有考勤规则，返回值为400，表示系统异常，返回值500，用户校验失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200时返回getPaidVCTime complete，300时getWHSetting Error，400时返回getPaidVCTime error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码加密的Java实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String password = "123456";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String shaPwdString = "{SHA}:  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                + new sun.misc.BASE64Encoder().encode(java.security.MessageDigest.getInstance("SHA1").digest(password.getBytes()));</t>
+  </si>
+  <si>
+    <t>import java.io.IOException;</t>
+  </si>
+  <si>
+    <t>import java.security.NoSuchAlgorithmException;</t>
+  </si>
+  <si>
+    <t>员工号，加班主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回删除是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成,测试OK，2014/7/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteOVInfo</t>
+  </si>
+  <si>
+    <t>小时合计数(已申请，但未承认的有薪休假，未承认的休假中的有薪假数字不会扣除，但是申请时不能申请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovformid</t>
+  </si>
+  <si>
+    <t>申请的加班信息的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400，用户uuid失效返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"OVDelete succ","module":"OVSubmit"}</t>
+  </si>
+  <si>
+    <t>成功返回200，加班数据不能删除返回301，异常返回400，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVDelete</t>
+  </si>
+  <si>
+    <t>返回对应消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteVCInfo</t>
+  </si>
+  <si>
+    <t>DeleteVCInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPaidVCTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存数据OK，check没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"DeleteVCInfo succ","module":"OVSubmit"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>休假申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考勤申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"User Valid","queryresult":{"username":"feng-jin.deng@ivision-china.cn","userid":26,"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"},"module":"login"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得考勤成功，返回值300 表示取得考勤失败，返回值为400，表示系统异常,返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回setting get Succ，300时返回setting get Empty，400时返回setting get Error，500时返回UserValidateError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getWHDetailList?{"userid":"26","startdt":"20140501","enddt":"20140531"，"uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJG标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值300 表示取得失败，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getPaidVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余调休取得：返回该员工当日所在年的调休天数的合计，以及当日开始30天内可用调休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPaidVCTimeHandle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"getPaidVCTime complete","module":"getPaidVCTimeHandle"，"LeftWH","15"，"LeftDay","2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftWH</t>
-  </si>
-  <si>
-    <t>LeftDay</t>
-  </si>
-  <si>
-    <t>小时合计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftWHin30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftDayin30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天内可用合计(小时数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLieuVCTimeHandle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录用户uuid校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/6/27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid，uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验用户的uuid，判断用户是否已登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getCalendar?{"startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得日历成功，返回值300 表示取得日历未设定，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回Calendar get Succ，300时返回Calendar get Empty，400时返回Calendar get Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回User Valid，300时返回User InValid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前员工可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回json，包含这个该员工当月能填写的项目号，项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得可填写项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAvailPJ?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>usertoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
-  </si>
-  <si>
-    <t>PJInfoID</t>
-  </si>
-  <si>
-    <t>PJNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回AvailPJ get Succ，300返回AvailPJ get Empty,400 返回AvailPJ get error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验通过后，返回的唯一编码，用于以后各个操作的身份校验，下文所有的模块都需要uuid作为登录权限校验，检验失败时，返回500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vcid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假记录的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140602","whid":"1","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"1","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"1","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140603","whid":"11","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"12","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vc14":"0","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"EmployeeID":24,"ObjYMD":"20140604","whid":"21","abswh":null,"whStatus":0,"whFlgHR":2,"whFromDt":null,"whToDt":null,"whPJInfoID":"6","whFlgOut":"2","whFlgPJG":"2","ovid":"20","ovwh":0,"ovStatus":0,"ovFlgHR":0,"ovFromDt":"0","ovPJInfoID":"0","ovFlgOut":"0","ovFlgPJG":"0","vcid":"22","vcwh":0,"vcStatus":0,"vcFlgHR":0,"vcFromDt":"0","vcToDt":"0","vcPJInfoID":"0"},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/7/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryresult0:{"FromDT":"20140601","ToDT":"20391231","AMFrom":"0900","AMTo":"1200","MiddleFrom":"1200","MiddleTo":"1300","PMFrom":"1300","PMTo":"1730","AlarmWH":40,"OvertimeWHUnit":0.25,"OvertimeStartTime":"1800","OvertimeStartWH":0.5,"OvertimeDuration":6},</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getWHSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得每种假期的申请规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假申请规则取得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getVCSetting?{"userid":"26","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"setting get Succ","queryresult0":{"DtVacationType":1,"des":"有薪假","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"queryresult1":{"DtVacationType":2,"des":"调休","MinUsedUnit":0.25,"ApplyStartWH":0.5,"FlgWhole":0},"rowcount":19,"module":"getVCSetting"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtVacationType</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>MinUsedUnit</t>
-  </si>
-  <si>
-    <t>ApplyStartWH</t>
-  </si>
-  <si>
-    <t>FlgWhole</t>
-  </si>
-  <si>
-    <t>休假类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假类型区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最少申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性使用标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getVCSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回setting get Succ，300返回setting get Empty,400 返回setting get error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成，测试OK。2014/07/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除休假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班申请:以天为单位，每一天为一个request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 OV Submit Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVFormID</t>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"OVSubmit succ","OVFormID":11119,"module":"OVSubmit"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定为OVSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/OVSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","applydate":"20140725","ovwh":"17","TrnOVFormDetail0":{"FromDt":"1800","ToDt":"1900","PJInfoID":"118","OVWH":"1","FlgOut":"1","FlgPJG":"0"},"TrnOVFormDetail1":{"FromDt":"1900", "ToDt":"2100", "PJInfoID":"258","OVWH":"2","FlgOut":"1","FlgPJG":"2"},"detailrow":"2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrnOVFormDetail0</t>
-  </si>
-  <si>
-    <t>FromDt</t>
-  </si>
-  <si>
-    <t>ToDt</t>
-  </si>
-  <si>
-    <t>OVWH</t>
-  </si>
-  <si>
-    <t>FlgOut</t>
-  </si>
-  <si>
-    <t>FlgPJG</t>
-  </si>
-  <si>
-    <t>detailrow</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请的加班日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号从0开始</t>
-  </si>
-  <si>
-    <t>编号从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每条加班的明细数据，编号从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间，格式为HHMM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间，格式为HHMM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班小时数，需要根据考勤规则计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外出标志，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJG标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：是，2：否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getAccessRecord?{"userid":"24","startdt":"20140501","enddt":"20140531","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getLieuVCTime?{"userid":"24","currentdt":"20140501","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"getLieuVCTime complete","module":"getLieuVCTimeHandle"，"LeftWH","15"，"LeftDay","2"，"LeftWHin30","15","LeftDayin30":"2"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请成功的加班申请的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天内可用合计（按照考勤规则转换成的天数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成。测试OK。2014/07/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAvailPJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getWHDetailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getVCSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLieuVCTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时合计数(有薪假剩余小时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余小时按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请，但未承认的有薪休假小时按照考勤规则转换成的天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年度剩余有薪假取得：返回该员工当日所在年的剩余可用有薪假天数合计，可申请小时数=剩余小时数 - 有薪假中已申请未承认的小时数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftWH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCWH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回getPaidVCTime complete，400 返回getPaidVCTime error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值为200，表示取得成功，返回值 300 表示没有考勤规则，返回值为400，表示系统异常，返回值500，用户校验失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200时返回getPaidVCTime complete，300时getWHSetting Error，400时返回getPaidVCTime error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码加密的Java实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String password = "123456";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        String shaPwdString = "{SHA}:  "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                + new sun.misc.BASE64Encoder().encode(java.security.MessageDigest.getInstance("SHA1").digest(password.getBytes()));</t>
-  </si>
-  <si>
-    <t>import java.io.IOException;</t>
-  </si>
-  <si>
-    <t>import java.security.NoSuchAlgorithmException;</t>
-  </si>
-  <si>
-    <t>员工号，加班主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回删除是否成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成,测试OK，2014/7/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteOVInfo</t>
-  </si>
-  <si>
-    <t>小时合计数(已申请，但未承认的有薪休假，未承认的休假中的有薪假数字不会扣除，但是申请时不能申请)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以天为单位，删除未审批通过的加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovformid</t>
-  </si>
-  <si>
-    <t>申请的加班信息的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功返回200，业务错误返回3XX，具体参见OVSubmit.js中的定义。系统异常返回400，用户uuid失效返回500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errno":"200","errmsg":"OVDelete succ","module":"OVSubmit"}</t>
-  </si>
-  <si>
-    <t>成功返回200，加班数据不能删除返回301，异常返回400，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVDelete</t>
-  </si>
-  <si>
-    <t>返回对应消息</t>
+    <t>休假删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以天为单位，删除提交的休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以天为单位，删除未提交的加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DeleteOVInfo?{ "userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","ovformid":"656"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/DeleteVCInfo?{ "userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","vcformid":"656"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2571,9 +2606,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2584,6 +2616,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15238,7 +15273,7 @@
   <dimension ref="C3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15270,8 +15305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:O19"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15288,25 +15323,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="48" t="s">
         <v>150</v>
       </c>
@@ -15317,11 +15352,11 @@
         <v>164</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="54" t="s">
@@ -15347,7 +15382,7 @@
         <v>157</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" s="48" t="s">
@@ -15355,19 +15390,19 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="54"/>
@@ -15377,15 +15412,15 @@
       <c r="O6" s="54"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R6" s="48"/>
       <c r="S6" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="57"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="54" t="s">
         <v>174</v>
       </c>
@@ -15407,15 +15442,15 @@
       <c r="O7" s="54"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="57"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="54" t="s">
         <v>175</v>
       </c>
@@ -15437,15 +15472,15 @@
       <c r="O8" s="54"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -15469,7 +15504,7 @@
       <c r="O9" s="54"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" s="48" t="s">
@@ -15477,7 +15512,7 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="57"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="54" t="s">
         <v>177</v>
       </c>
@@ -15503,7 +15538,7 @@
       <c r="S10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="57"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="54" t="s">
         <v>178</v>
       </c>
@@ -15529,7 +15564,7 @@
       <c r="S11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="57"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="54" t="s">
         <v>179</v>
       </c>
@@ -15555,7 +15590,7 @@
       <c r="S12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="54" t="s">
         <v>180</v>
       </c>
@@ -15581,9 +15616,9 @@
       <c r="S13" s="48"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -15593,7 +15628,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
@@ -15605,15 +15640,15 @@
         <v>152</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -15639,15 +15674,15 @@
         <v>152</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R15" s="48"/>
       <c r="S15" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="59"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="55" t="s">
         <v>207</v>
       </c>
@@ -15675,9 +15710,9 @@
       <c r="S16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="60"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -15686,20 +15721,20 @@
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -15727,19 +15762,19 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="57"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="54"/>
@@ -15751,15 +15786,15 @@
         <v>169</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R19" s="48"/>
       <c r="S19" s="48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="55" t="s">
         <v>206</v>
       </c>
@@ -15780,12 +15815,14 @@
       <c r="P20" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="Q20" s="51"/>
+      <c r="Q20" s="51" t="s">
+        <v>537</v>
+      </c>
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -15813,9 +15850,9 @@
       <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="57"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
@@ -15825,7 +15862,7 @@
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
       <c r="I22" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J22" s="54"/>
       <c r="K22" s="54"/>
@@ -15837,15 +15874,15 @@
         <v>170</v>
       </c>
       <c r="Q22" s="52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R22" s="48"/>
       <c r="S22" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="57"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="55" t="s">
         <v>205</v>
       </c>
@@ -15871,9 +15908,9 @@
       <c r="S23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15892,38 +15929,42 @@
       </c>
       <c r="Q24" s="51"/>
       <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="S24" s="48" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="57"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55" t="s">
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="51" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="Q25" s="51"/>
+      <c r="Q25" s="52"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="48"/>
+      <c r="S25" s="48" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="54" t="s">
         <v>185</v>
       </c>
@@ -15947,11 +15988,11 @@
         <v>170</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R26" s="23"/>
       <c r="S26" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -15984,50 +16025,22 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="I18:O18"/>
@@ -16044,22 +16057,50 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I27:O27"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16068,10 +16109,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G389"/>
+  <dimension ref="A2:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="J325" sqref="J325"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16122,32 +16163,32 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -16157,7 +16198,7 @@
     </row>
     <row r="29" spans="2:4" ht="15">
       <c r="B29" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -16173,7 +16214,7 @@
         <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -16202,7 +16243,7 @@
         <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -16228,7 +16269,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -16275,15 +16316,15 @@
         <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" t="s">
         <v>371</v>
-      </c>
-      <c r="D58" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -16414,7 +16455,7 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -16432,7 +16473,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -16471,15 +16512,15 @@
         <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -16545,7 +16586,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="B108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -16574,7 +16615,7 @@
         <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="2:6">
@@ -16599,7 +16640,7 @@
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="2:6">
@@ -16629,7 +16670,7 @@
     </row>
     <row r="128" spans="2:6">
       <c r="F128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="2:6">
@@ -16639,7 +16680,7 @@
     </row>
     <row r="130" spans="2:6">
       <c r="F130" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="2:6">
@@ -16649,7 +16690,7 @@
     </row>
     <row r="132" spans="2:6">
       <c r="F132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="2:6">
@@ -16707,7 +16748,7 @@
         <v>295</v>
       </c>
       <c r="E145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="4:7">
@@ -16741,10 +16782,10 @@
     </row>
     <row r="150" spans="4:7">
       <c r="E150" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G150" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="4:7">
@@ -16808,15 +16849,15 @@
         <v>306</v>
       </c>
       <c r="G158" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="4:7">
       <c r="E159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="4:7">
@@ -16880,15 +16921,15 @@
         <v>313</v>
       </c>
       <c r="G167" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="4:7">
       <c r="E168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="4:7">
@@ -17004,7 +17045,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="B189" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -17033,7 +17074,7 @@
         <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="2:4">
@@ -17051,7 +17092,7 @@
         <v>295</v>
       </c>
       <c r="C200" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="2:4">
@@ -17067,7 +17108,7 @@
         <v>238</v>
       </c>
       <c r="D202" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="2:4">
@@ -17112,10 +17153,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -17125,7 +17166,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="B214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -17135,10 +17176,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="B217" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D217" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -17146,15 +17187,15 @@
         <v>229</v>
       </c>
       <c r="D218" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="B219" t="s">
+        <v>405</v>
+      </c>
+      <c r="D219" t="s">
         <v>406</v>
-      </c>
-      <c r="D219" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -17164,7 +17205,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="B223" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -17172,7 +17213,7 @@
         <v>295</v>
       </c>
       <c r="C225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -17180,39 +17221,39 @@
         <v>216</v>
       </c>
       <c r="C226" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="B227" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C227" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="B228" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C228" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="B229" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C229" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="B230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C230" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -17220,25 +17261,25 @@
         <v>296</v>
       </c>
       <c r="C231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="B236" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="B237" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -17248,10 +17289,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="B240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D240" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="241" spans="2:4">
@@ -17259,15 +17300,15 @@
         <v>229</v>
       </c>
       <c r="D241" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
+        <v>405</v>
+      </c>
+      <c r="D242" t="s">
         <v>406</v>
-      </c>
-      <c r="D242" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="245" spans="2:4">
@@ -17277,7 +17318,7 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="248" spans="2:4">
@@ -17285,7 +17326,7 @@
         <v>295</v>
       </c>
       <c r="C248" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="249" spans="2:4">
@@ -17293,39 +17334,39 @@
         <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C250" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C251" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C252" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="2:4">
@@ -17333,25 +17374,25 @@
         <v>296</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="B261" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -17361,10 +17402,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="B265" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D265" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -17372,15 +17413,15 @@
         <v>229</v>
       </c>
       <c r="D266" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="B267" t="s">
+        <v>405</v>
+      </c>
+      <c r="D267" t="s">
         <v>406</v>
-      </c>
-      <c r="D267" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -17390,7 +17431,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="B271" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -17398,7 +17439,7 @@
         <v>295</v>
       </c>
       <c r="C273" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -17406,7 +17447,7 @@
         <v>216</v>
       </c>
       <c r="C274" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -17414,31 +17455,31 @@
         <v>238</v>
       </c>
       <c r="D275" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D276" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="C277" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D277" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="C278" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D278" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -17454,20 +17495,20 @@
         <v>296</v>
       </c>
       <c r="C280" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="B287" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="290" spans="2:5">
@@ -17480,93 +17521,93 @@
         <v>229</v>
       </c>
       <c r="D291" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="292" spans="2:5">
       <c r="B292" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D292" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="293" spans="2:5">
       <c r="B293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D293" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="294" spans="2:5">
       <c r="B294" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D294" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="295" spans="2:5">
       <c r="C295" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D295" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="296" spans="2:5">
       <c r="C296" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D296" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297" spans="2:5">
       <c r="C297" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D297" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="2:5">
       <c r="C298" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D298" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="C299" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D299" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E299" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="300" spans="2:5">
       <c r="C300" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D300" t="s">
+        <v>478</v>
+      </c>
+      <c r="E300" t="s">
         <v>479</v>
-      </c>
-      <c r="E300" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D301" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="303" spans="2:5">
@@ -17576,7 +17617,7 @@
     </row>
     <row r="304" spans="2:5">
       <c r="C304" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -17584,7 +17625,7 @@
         <v>359</v>
       </c>
       <c r="D307" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -17592,15 +17633,15 @@
         <v>216</v>
       </c>
       <c r="D308" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="C309" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D309" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -17608,227 +17649,316 @@
         <v>296</v>
       </c>
       <c r="D310" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C316" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="B318" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="B319" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="B320" t="s">
-        <v>229</v>
-      </c>
-      <c r="D320" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4">
-      <c r="B321" t="s">
-        <v>406</v>
-      </c>
-      <c r="D321" t="s">
-        <v>470</v>
+      <c r="C319" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="322" spans="2:4">
       <c r="B322" t="s">
-        <v>527</v>
-      </c>
-      <c r="D322" t="s">
-        <v>528</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>229</v>
+      </c>
+      <c r="D323" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="B324" t="s">
-        <v>529</v>
+        <v>405</v>
+      </c>
+      <c r="D324" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="325" spans="2:4">
-      <c r="C325" t="s">
-        <v>531</v>
+      <c r="B325" t="s">
+        <v>525</v>
+      </c>
+      <c r="D325" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="327" spans="2:4">
       <c r="B327" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="C328" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330" t="s">
         <v>359</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C330" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" t="s">
+        <v>216</v>
+      </c>
+      <c r="C331" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" t="s">
+        <v>531</v>
+      </c>
+      <c r="C332" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="328" spans="2:4">
-      <c r="B328" t="s">
-        <v>216</v>
-      </c>
-      <c r="C328" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4">
-      <c r="B329" t="s">
-        <v>533</v>
-      </c>
-      <c r="C329" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337">
+    <row r="340" spans="1:3">
+      <c r="A340">
         <v>11</v>
       </c>
-      <c r="B337" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="B340" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350">
         <v>12</v>
       </c>
       <c r="B350" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365">
+        <v>540</v>
+      </c>
+      <c r="C350" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="B352" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="C353" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="B356" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="B357" t="s">
+        <v>229</v>
+      </c>
+      <c r="D357" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="B358" t="s">
+        <v>405</v>
+      </c>
+      <c r="D358" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="B359" t="s">
+        <v>525</v>
+      </c>
+      <c r="D359" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="B361" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="C362" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="B364" t="s">
+        <v>359</v>
+      </c>
+      <c r="C364" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="B365" t="s">
+        <v>216</v>
+      </c>
+      <c r="C365" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
         <v>13</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>14</v>
+      </c>
+      <c r="B383" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
-      <c r="B368" t="s">
+    <row r="388" spans="2:3">
+      <c r="B388" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="370" spans="2:5">
-      <c r="B370" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="371" spans="2:5">
-      <c r="B371" t="s">
+    <row r="390" spans="2:3">
+      <c r="B390" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="372" spans="2:5">
-      <c r="B372" t="s">
+    <row r="391" spans="2:3">
+      <c r="B391" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="B392" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="B396" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="373" spans="2:5">
-      <c r="B373" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="374" spans="2:5">
-      <c r="B374" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="377" spans="2:5">
-      <c r="B377" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="378" spans="2:5">
-      <c r="B378" t="s">
+    <row r="398" spans="2:3">
+      <c r="B398" t="s">
+        <v>295</v>
+      </c>
+      <c r="C398" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" t="s">
+        <v>216</v>
+      </c>
+      <c r="C399" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="401" spans="2:5">
+      <c r="C401" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="380" spans="2:5">
-      <c r="B380" t="s">
-        <v>295</v>
-      </c>
-      <c r="C380" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="381" spans="2:5">
-      <c r="B381" t="s">
-        <v>216</v>
-      </c>
-      <c r="C381" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="382" spans="2:5">
-      <c r="B382" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="383" spans="2:5">
-      <c r="C383" t="s">
+      <c r="E401" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="402" spans="2:5">
+      <c r="C402" t="s">
         <v>441</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E402" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5">
+      <c r="C403" t="s">
+        <v>442</v>
+      </c>
+      <c r="E403" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="384" spans="2:5">
-      <c r="C384" t="s">
-        <v>442</v>
-      </c>
-      <c r="E384" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5">
-      <c r="C385" t="s">
+    <row r="404" spans="2:5">
+      <c r="C404" t="s">
         <v>443</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E404" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="386" spans="2:5">
-      <c r="C386" t="s">
+    <row r="405" spans="2:5">
+      <c r="C405" t="s">
         <v>444</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E405" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="387" spans="2:5">
-      <c r="C387" t="s">
-        <v>445</v>
-      </c>
-      <c r="E387" t="s">
+    <row r="406" spans="2:5">
+      <c r="B406" t="s">
+        <v>234</v>
+      </c>
+      <c r="C406" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5">
+      <c r="B407" t="s">
+        <v>296</v>
+      </c>
+      <c r="C407" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="388" spans="2:5">
-      <c r="B388" t="s">
-        <v>234</v>
-      </c>
-      <c r="C388" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="389" spans="2:5">
-      <c r="B389" t="s">
-        <v>296</v>
-      </c>
-      <c r="C389" t="s">
-        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -20364,7 +20494,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S62" s="64"/>
       <c r="T62" s="64"/>
@@ -20377,7 +20507,7 @@
         <v>105</v>
       </c>
       <c r="AF62" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG62" s="64"/>
       <c r="AH62" s="64"/>
@@ -20994,15 +21124,15 @@
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
       <c r="P89" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q89" s="66"/>
       <c r="R89" s="66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S89" s="66"/>
       <c r="T89" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -1137,9 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"errno":"200","errmsg":"Calendar get Succ","queryresult0":{"ymd":"20140501","weekdate":4,"dtdaytype":1},"queryresult1":{"ymd":"20140502","weekdate":5,"dtdaytype":1},"queryresult2":{"ymd":"20140503","weekdate":6,"dtdaytype":2},"queryresult3":{"ymd":"20140504","weekdate":7,"dtdaytype":2},"queryresult4":{"ymd":"20140505","weekdate":1,"dtdaytype":1},"queryresult5":{"ymd":"20140506","weekdate":2,"dtdaytype":1},"queryresult6":{"ymd":"20140507","weekdate":3,"dtdaytype":1},"queryresult7":{"ymd":"20140508","weekdate":4,"dtdaytype":1},"queryresult8":{"ymd":"20140509","weekdate":5,"dtdaytype":1},"queryresult9":{"ymd":"20140510","weekdate":6,"dtdaytype":2},"queryresult10":{"ymd":"20140511","weekdate":7,"dtdaytype":2},"queryresult11":{"ymd":"20140512","weekdate":1,"dtdaytype":1},"queryresult12":{"ymd":"20140513","weekdate":2,"dtdaytype":1},"queryresult13":{"ymd":"20140514","weekdate":3,"dtdaytype":1},"queryresult14":{"ymd":"20140515","weekdate":4,"dtdaytype":1},"queryresult15":{"ymd":"20140516","weekdate":5,"dtdaytype":1},"queryresult16":{"ymd":"20140517","weekdate":6,"dtdaytype":2},"queryresult17":{"ymd":"20140518","weekdate":7,"dtdaytype":2},"queryresult18":{"ymd":"20140519","weekdate":1,"dtdaytype":1},"queryresult19":{"ymd":"20140520","weekdate":2,"dtdaytype":1},"queryresult20":{"ymd":"20140521","weekdate":3,"dtdaytype":1},"queryresult21":{"ymd":"20140522","weekdate":4,"dtdaytype":1},"queryresult22":{"ymd":"20140523","weekdate":5,"dtdaytype":1},"queryresult23":{"ymd":"20140524","weekdate":6,"dtdaytype":2},"queryresult24":{"ymd":"20140525","weekdate":7,"dtdaytype":2},"queryresult25":{"ymd":"20140526","weekdate":1,"dtdaytype":1},"queryresult26":{"ymd":"20140527","weekdate":2,"dtdaytype":1},"queryresult27":{"ymd":"20140528","weekdate":3,"dtdaytype":1},"queryresult28":{"ymd":"20140529","weekdate":4,"dtdaytype":1},"queryresult29":{"ymd":"20140530","weekdate":5,"dtdaytype":1},"queryresult30":{"ymd":"20140531","weekdate":6,"dtdaytype":2},"module":"getCalendar","rowcount":31}]</t>
-  </si>
-  <si>
     <t>ymd</t>
   </si>
   <si>
@@ -1646,9 +1643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}]</t>
-  </si>
-  <si>
     <t>PJInfoID</t>
   </si>
   <si>
@@ -2114,10 +2108,6 @@
     <t>{"errno":"200","errmsg":"OVDelete succ","module":"OVSubmit"}</t>
   </si>
   <si>
-    <t>成功返回200，加班数据不能删除返回301，异常返回400，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2169,6 +2159,18 @@
   </si>
   <si>
     <t>/DeleteVCInfo?{ "userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","vcformid":"656"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回200，加班数据不能删除返回301，异常返回400，用户失效返回500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"Calendar get Succ","queryresult0":{"ymd":"20140501","weekdate":4,"dtdaytype":1},"queryresult1":{"ymd":"20140502","weekdate":5,"dtdaytype":1},"queryresult2":{"ymd":"20140503","weekdate":6,"dtdaytype":2},"queryresult3":{"ymd":"20140504","weekdate":7,"dtdaytype":2},"queryresult4":{"ymd":"20140505","weekdate":1,"dtdaytype":1},"queryresult5":{"ymd":"20140506","weekdate":2,"dtdaytype":1},"queryresult6":{"ymd":"20140507","weekdate":3,"dtdaytype":1},"queryresult7":{"ymd":"20140508","weekdate":4,"dtdaytype":1},"queryresult8":{"ymd":"20140509","weekdate":5,"dtdaytype":1},"queryresult9":{"ymd":"20140510","weekdate":6,"dtdaytype":2},"queryresult10":{"ymd":"20140511","weekdate":7,"dtdaytype":2},"queryresult11":{"ymd":"20140512","weekdate":1,"dtdaytype":1},"queryresult12":{"ymd":"20140513","weekdate":2,"dtdaytype":1},"queryresult13":{"ymd":"20140514","weekdate":3,"dtdaytype":1},"queryresult14":{"ymd":"20140515","weekdate":4,"dtdaytype":1},"queryresult15":{"ymd":"20140516","weekdate":5,"dtdaytype":1},"queryresult16":{"ymd":"20140517","weekdate":6,"dtdaytype":2},"queryresult17":{"ymd":"20140518","weekdate":7,"dtdaytype":2},"queryresult18":{"ymd":"20140519","weekdate":1,"dtdaytype":1},"queryresult19":{"ymd":"20140520","weekdate":2,"dtdaytype":1},"queryresult20":{"ymd":"20140521","weekdate":3,"dtdaytype":1},"queryresult21":{"ymd":"20140522","weekdate":4,"dtdaytype":1},"queryresult22":{"ymd":"20140523","weekdate":5,"dtdaytype":1},"queryresult23":{"ymd":"20140524","weekdate":6,"dtdaytype":2},"queryresult24":{"ymd":"20140525","weekdate":7,"dtdaytype":2},"queryresult25":{"ymd":"20140526","weekdate":1,"dtdaytype":1},"queryresult26":{"ymd":"20140527","weekdate":2,"dtdaytype":1},"queryresult27":{"ymd":"20140528","weekdate":3,"dtdaytype":1},"queryresult28":{"ymd":"20140529","weekdate":4,"dtdaytype":1},"queryresult29":{"ymd":"20140530","weekdate":5,"dtdaytype":1},"queryresult30":{"ymd":"20140531","weekdate":6,"dtdaytype":2},"module":"getCalendar","rowcount":31}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2606,6 +2608,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2616,9 +2621,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15323,25 +15325,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="48" t="s">
         <v>150</v>
       </c>
@@ -15352,11 +15354,11 @@
         <v>164</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="54" t="s">
@@ -15382,7 +15384,7 @@
         <v>157</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" s="48" t="s">
@@ -15390,19 +15392,19 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="54"/>
@@ -15412,15 +15414,15 @@
       <c r="O6" s="54"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R6" s="48"/>
       <c r="S6" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="54" t="s">
         <v>174</v>
       </c>
@@ -15442,15 +15444,15 @@
       <c r="O7" s="54"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R7" s="48"/>
       <c r="S7" s="48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="54" t="s">
         <v>175</v>
       </c>
@@ -15472,15 +15474,15 @@
       <c r="O8" s="54"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R8" s="48"/>
       <c r="S8" s="48" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -15504,15 +15506,15 @@
       <c r="O9" s="54"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R9" s="48"/>
       <c r="S9" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="54" t="s">
         <v>177</v>
       </c>
@@ -15538,7 +15540,7 @@
       <c r="S10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="54" t="s">
         <v>178</v>
       </c>
@@ -15564,7 +15566,7 @@
       <c r="S11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="54" t="s">
         <v>179</v>
       </c>
@@ -15590,7 +15592,7 @@
       <c r="S12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="54" t="s">
         <v>180</v>
       </c>
@@ -15616,9 +15618,9 @@
       <c r="S13" s="48"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -15628,7 +15630,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
@@ -15640,15 +15642,15 @@
         <v>152</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -15674,15 +15676,15 @@
         <v>152</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R15" s="48"/>
       <c r="S15" s="48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="55" t="s">
         <v>207</v>
       </c>
@@ -15710,9 +15712,9 @@
       <c r="S16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -15721,20 +15723,20 @@
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -15762,19 +15764,19 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="54" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="54"/>
@@ -15786,15 +15788,15 @@
         <v>169</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R19" s="48"/>
       <c r="S19" s="48" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="55" t="s">
         <v>206</v>
       </c>
@@ -15816,13 +15818,13 @@
         <v>169</v>
       </c>
       <c r="Q20" s="51" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -15850,9 +15852,9 @@
       <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="54" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
@@ -15862,7 +15864,7 @@
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
       <c r="I22" s="54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J22" s="54"/>
       <c r="K22" s="54"/>
@@ -15874,15 +15876,15 @@
         <v>170</v>
       </c>
       <c r="Q22" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="R22" s="48"/>
       <c r="S22" s="48" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="55" t="s">
         <v>205</v>
       </c>
@@ -15908,9 +15910,9 @@
       <c r="S23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="55" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15930,11 +15932,11 @@
       <c r="Q24" s="51"/>
       <c r="R24" s="48"/>
       <c r="S24" s="48" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="54" t="s">
         <v>184</v>
       </c>
@@ -15960,11 +15962,11 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="23"/>
       <c r="S25" s="48" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="54" t="s">
         <v>185</v>
       </c>
@@ -15988,11 +15990,11 @@
         <v>170</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="R26" s="23"/>
       <c r="S26" s="48" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -16025,6 +16027,66 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F23:H23"/>
@@ -16041,66 +16103,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16111,8 +16113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="C354" sqref="C354"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16163,32 +16165,32 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -16198,7 +16200,7 @@
     </row>
     <row r="29" spans="2:4" ht="15">
       <c r="B29" s="49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -16214,7 +16216,7 @@
         <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -16243,7 +16245,7 @@
         <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -16269,7 +16271,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -16308,7 +16310,7 @@
     </row>
     <row r="54" spans="2:5" ht="15">
       <c r="B54" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -16316,15 +16318,15 @@
         <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" t="s">
         <v>370</v>
-      </c>
-      <c r="D58" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -16412,7 +16414,7 @@
         <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -16420,7 +16422,7 @@
         <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -16428,7 +16430,7 @@
         <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F71" t="s">
         <v>253</v>
@@ -16455,7 +16457,7 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -16473,7 +16475,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -16504,7 +16506,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>269</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -16512,15 +16514,15 @@
         <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -16533,26 +16535,26 @@
     </row>
     <row r="97" spans="1:5">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="C98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="C99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -16560,7 +16562,7 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -16576,7 +16578,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -16586,7 +16588,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="B108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -16615,7 +16617,7 @@
         <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="2:6">
@@ -16625,130 +16627,130 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="C120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="D121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="D122" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="D123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="C124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="C125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="D126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="E127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="F128" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="E129" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="F130" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="E131" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="F132" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="E133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="D134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="C135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="2:6">
       <c r="C136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="C142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="C144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="4:7">
       <c r="D145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E145" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="4:7">
@@ -16766,226 +16768,226 @@
     </row>
     <row r="148" spans="4:7">
       <c r="E148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="149" spans="4:7">
       <c r="E149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="4:7">
       <c r="E150" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G150" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="4:7">
       <c r="E151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="4:7">
       <c r="E152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G152" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="4:7">
       <c r="E153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G153" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="4:7">
       <c r="E154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="4:7">
       <c r="E155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="4:7">
       <c r="E156" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="4:7">
       <c r="E157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="4:7">
       <c r="E158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G158" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="4:7">
       <c r="E159" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G159" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="160" spans="4:7">
       <c r="E160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G160" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="4:7">
       <c r="E161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G161" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="4:7">
       <c r="E162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G162" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="4:7">
       <c r="E163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="4:7">
       <c r="E164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G164" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="4:7">
       <c r="E165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G165" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="4:7">
       <c r="E166" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="4:7">
       <c r="E167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G167" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="4:7">
       <c r="E168" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="4:7">
       <c r="E169" t="s">
+        <v>339</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="170" spans="4:7">
       <c r="E170" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G170" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="4:7">
       <c r="E171" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G171" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="4:7">
       <c r="E172" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G172" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="4:7">
       <c r="E173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G173" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="4:7">
       <c r="E174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G174" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="4:7">
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="G175" t="s">
         <v>343</v>
-      </c>
-      <c r="G175" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="176" spans="4:7">
@@ -16995,7 +16997,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="D177" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G177" t="s">
         <v>208</v>
@@ -17003,15 +17005,15 @@
     </row>
     <row r="179" spans="1:7">
       <c r="B179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="C180" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -17019,15 +17021,15 @@
         <v>216</v>
       </c>
       <c r="D181" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="C182" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -17035,7 +17037,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -17045,7 +17047,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="B189" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -17074,7 +17076,7 @@
         <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="2:4">
@@ -17084,15 +17086,15 @@
     </row>
     <row r="197" spans="2:4">
       <c r="C197" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="2:4">
@@ -17100,7 +17102,7 @@
         <v>216</v>
       </c>
       <c r="C201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="2:4">
@@ -17108,31 +17110,31 @@
         <v>238</v>
       </c>
       <c r="D202" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="C203" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D203" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="2:4">
       <c r="C204" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D204" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="C205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D205" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="2:4">
@@ -17140,15 +17142,15 @@
         <v>234</v>
       </c>
       <c r="C206" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -17156,7 +17158,7 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -17166,7 +17168,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="B214" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -17176,10 +17178,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="B217" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D217" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -17187,15 +17189,15 @@
         <v>229</v>
       </c>
       <c r="D218" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="B219" t="s">
+        <v>404</v>
+      </c>
+      <c r="D219" t="s">
         <v>405</v>
-      </c>
-      <c r="D219" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -17205,15 +17207,15 @@
     </row>
     <row r="223" spans="1:4">
       <c r="B223" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="B225" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C225" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -17221,47 +17223,47 @@
         <v>216</v>
       </c>
       <c r="C226" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="B227" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C227" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="B228" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C228" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="B229" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C229" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="B230" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C230" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="B231" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -17269,17 +17271,17 @@
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="B236" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="B237" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -17289,10 +17291,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="B240" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D240" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="241" spans="2:4">
@@ -17300,15 +17302,15 @@
         <v>229</v>
       </c>
       <c r="D241" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
+        <v>404</v>
+      </c>
+      <c r="D242" t="s">
         <v>405</v>
-      </c>
-      <c r="D242" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="245" spans="2:4">
@@ -17318,15 +17320,15 @@
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C248" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="249" spans="2:4">
@@ -17334,47 +17336,47 @@
         <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C250" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C251" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C252" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C254" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -17382,17 +17384,17 @@
         <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="B261" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="B262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -17402,10 +17404,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="B265" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D265" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -17413,15 +17415,15 @@
         <v>229</v>
       </c>
       <c r="D266" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="B267" t="s">
+        <v>404</v>
+      </c>
+      <c r="D267" t="s">
         <v>405</v>
-      </c>
-      <c r="D267" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -17431,15 +17433,15 @@
     </row>
     <row r="271" spans="1:4">
       <c r="B271" t="s">
-        <v>407</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="B273" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C273" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -17447,7 +17449,7 @@
         <v>216</v>
       </c>
       <c r="C274" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -17455,31 +17457,31 @@
         <v>238</v>
       </c>
       <c r="D275" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="C276" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D276" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="C277" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D277" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="C278" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D278" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -17487,15 +17489,15 @@
         <v>234</v>
       </c>
       <c r="C279" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="B280" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C280" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -17503,12 +17505,12 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="B287" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="290" spans="2:5">
@@ -17521,111 +17523,111 @@
         <v>229</v>
       </c>
       <c r="D291" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="2:5">
       <c r="B292" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D292" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="2:5">
       <c r="B293" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D293" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="294" spans="2:5">
       <c r="B294" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D294" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="2:5">
       <c r="C295" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D295" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="296" spans="2:5">
       <c r="C296" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D296" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="297" spans="2:5">
       <c r="C297" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D297" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298" spans="2:5">
       <c r="C298" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D298" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="299" spans="2:5">
       <c r="C299" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D299" t="s">
+        <v>475</v>
+      </c>
+      <c r="E299" t="s">
         <v>477</v>
-      </c>
-      <c r="E299" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="300" spans="2:5">
       <c r="C300" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D300" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E300" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="2:5">
       <c r="B301" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D301" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="303" spans="2:5">
       <c r="B303" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="304" spans="2:5">
       <c r="C304" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="C307" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D307" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -17633,23 +17635,23 @@
         <v>216</v>
       </c>
       <c r="D308" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="C309" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D309" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="C310" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D310" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -17657,20 +17659,20 @@
         <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C316" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="B318" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="C319" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="322" spans="2:4">
@@ -17683,41 +17685,41 @@
         <v>229</v>
       </c>
       <c r="D323" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="B324" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D324" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="2:4">
       <c r="B325" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D325" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="2:4">
       <c r="B327" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="328" spans="2:4">
       <c r="C328" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="330" spans="2:4">
       <c r="B330" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C330" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="331" spans="2:4">
@@ -17725,15 +17727,15 @@
         <v>216</v>
       </c>
       <c r="C331" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="332" spans="2:4">
       <c r="B332" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C332" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -17741,7 +17743,7 @@
         <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -17749,10 +17751,10 @@
         <v>12</v>
       </c>
       <c r="B350" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C350" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -17762,7 +17764,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="C353" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -17775,41 +17777,41 @@
         <v>229</v>
       </c>
       <c r="D357" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="B358" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D358" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="B359" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="B361" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="C362" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="B364" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -17817,7 +17819,7 @@
         <v>216</v>
       </c>
       <c r="C365" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -17825,7 +17827,7 @@
         <v>8</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -17833,7 +17835,7 @@
         <v>13</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -17841,12 +17843,12 @@
         <v>14</v>
       </c>
       <c r="B383" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="386" spans="2:3">
       <c r="B386" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="388" spans="2:3">
@@ -17856,12 +17858,12 @@
     </row>
     <row r="389" spans="2:3">
       <c r="B389" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="2:3">
       <c r="B390" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="391" spans="2:3">
@@ -17871,7 +17873,7 @@
     </row>
     <row r="392" spans="2:3">
       <c r="B392" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="2:3">
@@ -17881,15 +17883,15 @@
     </row>
     <row r="396" spans="2:3">
       <c r="B396" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="2:3">
       <c r="B398" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C398" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="399" spans="2:3">
@@ -17897,7 +17899,7 @@
         <v>216</v>
       </c>
       <c r="C399" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="400" spans="2:3">
@@ -17907,42 +17909,42 @@
     </row>
     <row r="401" spans="2:5">
       <c r="C401" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E401" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="402" spans="2:5">
       <c r="C402" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E402" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="2:5">
       <c r="C403" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E403" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="404" spans="2:5">
       <c r="C404" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E404" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="405" spans="2:5">
       <c r="C405" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E405" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="406" spans="2:5">
@@ -17950,15 +17952,15 @@
         <v>234</v>
       </c>
       <c r="C406" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="407" spans="2:5">
       <c r="B407" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C407" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -18623,7 +18625,7 @@
       <c r="M17" s="3"/>
       <c r="O17" s="8"/>
       <c r="P17" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -18632,7 +18634,7 @@
         <v>7</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="9"/>
@@ -18742,7 +18744,7 @@
       <c r="M19" s="3"/>
       <c r="O19" s="8"/>
       <c r="P19" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -18752,7 +18754,7 @@
         <v>9</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="9"/>
@@ -18860,7 +18862,7 @@
       <c r="M21" s="3"/>
       <c r="O21" s="8"/>
       <c r="P21" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -18870,7 +18872,7 @@
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="9"/>
@@ -20494,7 +20496,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S62" s="64"/>
       <c r="T62" s="64"/>
@@ -20507,7 +20509,7 @@
         <v>105</v>
       </c>
       <c r="AF62" s="63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG62" s="64"/>
       <c r="AH62" s="64"/>
@@ -21124,15 +21126,15 @@
     <row r="89" spans="15:65">
       <c r="O89" s="17"/>
       <c r="P89" s="66" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q89" s="66"/>
       <c r="R89" s="66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S89" s="66"/>
       <c r="T89" s="63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>

--- a/功能列表.xlsx
+++ b/功能列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="570">
   <si>
     <t>图例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2171,6 +2171,101 @@
   </si>
   <si>
     <t>{"errno":"200","errmsg":"AvailPJ get Succ","queryresult0":{"PJInfoID":1,"PJNo":"P0005","Name":"社内培训"},"queryresult1":{"PJInfoID":2,"PJNo":"P0006","Name":"社外培训"},"queryresult2":{"PJInfoID":3,"PJNo":"P0007","Name":"部门业务"},"queryresult3":{"PJInfoID":4,"PJNo":"P0008","Name":"非稼动"},"queryresult4":{"PJInfoID":6,"PJNo":"I1209-20","Name":"CIC新中国国内通信センターの運用関連業務1210‐1509"},"module":"getAvailPJ","rowcount":5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定为VCSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功的休假申请的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功返回OVSubmit Succ，校验错误返回具体错误的消息，系统异常返回 具体的异常消息 或者 VC Submit Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errno":"200","errmsg":"VCSubmit succ","VCFormID":162,"module":"VCSubmit"}</t>
+  </si>
+  <si>
+    <t>/VCSubmit?{"userid":"149","uuid":"7485d6b3-c8b6-43b9-bea0-8fc8a8f2400f","VCDay":"3","Memo":"2天有薪假,1天调休","TrnVCFormDetail0":{"ObjYMD":"20140701","FromDt":"0900","ToDt":"1730","VCTime":"7.5","vctype":"1","SplitNo":"1"},"TrnVCFormDetail1":{"ObjYMD":"20140702","FromDt":"0900","ToDt":"1730","VCTime":"7.5","vctype":"1","SplitNo":"1"},"TrnVCFormDetail2":{"ObjYMD":"20140703","FromDt":"0900","ToDt":"1730","VCTime":"7.5","vctype":"2","SplitNo":"2"},"detailrow":"3"}</t>
+  </si>
+  <si>
+    <t>VCDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计休息天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrnVCFormDetail0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细行，从0开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCTime</t>
+  </si>
+  <si>
+    <t>vctype</t>
+  </si>
+  <si>
+    <t>SplitNo</t>
+  </si>
+  <si>
+    <t>明细合计行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请休息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：有薪假，2：调休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分行号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同的拆分行号对应的明细数据在画面上需要合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在一条头表中申请多日(不能跨月)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2608,9 +2703,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2621,6 +2713,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15307,8 +15402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15325,25 +15420,25 @@
   <sheetData>
     <row r="4" spans="2:19">
       <c r="B4" s="48"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="48" t="s">
         <v>150</v>
       </c>
@@ -15358,7 +15453,7 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="54" t="s">
@@ -15392,7 +15487,7 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="54" t="s">
         <v>389</v>
       </c>
@@ -15422,7 +15517,7 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="57"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="54" t="s">
         <v>174</v>
       </c>
@@ -15452,7 +15547,7 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="57"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="54" t="s">
         <v>175</v>
       </c>
@@ -15482,7 +15577,7 @@
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -15514,7 +15609,7 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="57"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="54" t="s">
         <v>177</v>
       </c>
@@ -15540,7 +15635,7 @@
       <c r="S10" s="48"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="57"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="54" t="s">
         <v>178</v>
       </c>
@@ -15566,7 +15661,7 @@
       <c r="S11" s="48"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="57"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="54" t="s">
         <v>179</v>
       </c>
@@ -15592,7 +15687,7 @@
       <c r="S12" s="48"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="54" t="s">
         <v>180</v>
       </c>
@@ -15618,7 +15713,7 @@
       <c r="S13" s="48"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="54" t="s">
         <v>399</v>
       </c>
@@ -15650,7 +15745,7 @@
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -15684,7 +15779,7 @@
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="59"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="55" t="s">
         <v>207</v>
       </c>
@@ -15712,7 +15807,7 @@
       <c r="S16" s="48"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="60"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="55" t="s">
         <v>486</v>
       </c>
@@ -15723,20 +15818,20 @@
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="56" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -15764,7 +15859,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="57"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="54" t="s">
         <v>484</v>
       </c>
@@ -15796,7 +15891,7 @@
       </c>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="55" t="s">
         <v>206</v>
       </c>
@@ -15824,7 +15919,7 @@
       <c r="S20" s="48"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -15852,7 +15947,7 @@
       <c r="S21" s="48"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="57"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="54" t="s">
         <v>431</v>
       </c>
@@ -15884,7 +15979,7 @@
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="57"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="55" t="s">
         <v>205</v>
       </c>
@@ -15910,7 +16005,7 @@
       <c r="S23" s="48"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="55" t="s">
         <v>451</v>
       </c>
@@ -15936,7 +16031,7 @@
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="57"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="54" t="s">
         <v>184</v>
       </c>
@@ -15966,7 +16061,7 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="54" t="s">
         <v>185</v>
       </c>
@@ -16027,50 +16122,22 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I10:O10"/>
     <mergeCell ref="I18:O18"/>
@@ -16087,22 +16154,50 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I27:O27"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16111,10 +16206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G407"/>
+  <dimension ref="A2:G426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="F352" sqref="F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17738,228 +17833,382 @@
         <v>529</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:4">
       <c r="A340">
         <v>11</v>
       </c>
       <c r="B340" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350">
-        <v>12</v>
-      </c>
-      <c r="B350" t="s">
-        <v>537</v>
-      </c>
+      <c r="C340" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="B342" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="B344" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="B345" t="s">
+        <v>229</v>
+      </c>
+      <c r="D345" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="B346" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="B347" t="s">
+        <v>550</v>
+      </c>
+      <c r="D347" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="B348" t="s">
+        <v>551</v>
+      </c>
+      <c r="D348" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="B349" t="s">
+        <v>555</v>
+      </c>
+      <c r="D349" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="C350" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="B352" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
+        <v>297</v>
+      </c>
+      <c r="D350" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="C351" t="s">
+        <v>460</v>
+      </c>
+      <c r="D351" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="C352" t="s">
+        <v>461</v>
+      </c>
+      <c r="D352" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5">
       <c r="C353" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+        <v>557</v>
+      </c>
+      <c r="D353" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="C354" t="s">
+        <v>558</v>
+      </c>
+      <c r="D354" t="s">
+        <v>565</v>
+      </c>
+      <c r="E354" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="C355" t="s">
+        <v>559</v>
+      </c>
+      <c r="D355" t="s">
+        <v>567</v>
+      </c>
+      <c r="E355" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="356" spans="2:5">
       <c r="B356" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="B357" t="s">
-        <v>229</v>
-      </c>
-      <c r="D357" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="B358" t="s">
-        <v>404</v>
-      </c>
-      <c r="D358" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="B359" t="s">
-        <v>523</v>
-      </c>
-      <c r="D359" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
+        <v>465</v>
+      </c>
+      <c r="D356" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="361" spans="2:5">
       <c r="B361" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5">
       <c r="C362" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5">
       <c r="B364" t="s">
-        <v>358</v>
+        <v>215</v>
       </c>
       <c r="C364" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5">
       <c r="B365" t="s">
         <v>216</v>
       </c>
       <c r="C365" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5">
+      <c r="B366" t="s">
+        <v>454</v>
+      </c>
+      <c r="C366" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5">
+      <c r="B367" t="s">
+        <v>295</v>
+      </c>
+      <c r="C367" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>12</v>
+      </c>
+      <c r="B369" t="s">
+        <v>537</v>
+      </c>
+      <c r="C369" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="B371" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="C372" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="B375" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="B376" t="s">
+        <v>229</v>
+      </c>
+      <c r="D376" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="B377" t="s">
+        <v>404</v>
+      </c>
+      <c r="D377" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="B378" t="s">
+        <v>523</v>
+      </c>
+      <c r="D378" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="B380" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="C381" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="B383" t="s">
+        <v>358</v>
+      </c>
+      <c r="C383" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="B384" t="s">
+        <v>216</v>
+      </c>
+      <c r="C384" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="B366" t="s">
+    <row r="385" spans="1:3">
+      <c r="B385" t="s">
         <v>8</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C385" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368">
+    <row r="387" spans="1:3">
+      <c r="A387">
         <v>13</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B387" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
-      <c r="A383">
+    <row r="402" spans="1:2">
+      <c r="A402">
         <v>14</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B402" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="386" spans="2:3">
-      <c r="B386" t="s">
+    <row r="405" spans="1:2">
+      <c r="B405" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="388" spans="2:3">
-      <c r="B388" t="s">
+    <row r="407" spans="1:2">
+      <c r="B407" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="389" spans="2:3">
-      <c r="B389" t="s">
+    <row r="408" spans="1:2">
+      <c r="B408" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="390" spans="2:3">
-      <c r="B390" t="s">
+    <row r="409" spans="1:2">
+      <c r="B409" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="391" spans="2:3">
-      <c r="B391" t="s">
+    <row r="410" spans="1:2">
+      <c r="B410" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="392" spans="2:3">
-      <c r="B392" t="s">
+    <row r="411" spans="1:2">
+      <c r="B411" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="395" spans="2:3">
-      <c r="B395" t="s">
+    <row r="414" spans="1:2">
+      <c r="B414" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="396" spans="2:3">
-      <c r="B396" t="s">
+    <row r="415" spans="1:2">
+      <c r="B415" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="398" spans="2:3">
-      <c r="B398" t="s">
+    <row r="417" spans="2:5">
+      <c r="B417" t="s">
         <v>294</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C417" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="399" spans="2:3">
-      <c r="B399" t="s">
+    <row r="418" spans="2:5">
+      <c r="B418" t="s">
         <v>216</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C418" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="400" spans="2:3">
-      <c r="B400" t="s">
+    <row r="419" spans="2:5">
+      <c r="B419" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="401" spans="2:5">
-      <c r="C401" t="s">
+    <row r="420" spans="2:5">
+      <c r="C420" t="s">
         <v>438</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E420" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="402" spans="2:5">
-      <c r="C402" t="s">
+    <row r="421" spans="2:5">
+      <c r="C421" t="s">
         <v>439</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E421" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="403" spans="2:5">
-      <c r="C403" t="s">
+    <row r="422" spans="2:5">
+      <c r="C422" t="s">
         <v>440</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E422" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="404" spans="2:5">
-      <c r="C404" t="s">
+    <row r="423" spans="2:5">
+      <c r="C423" t="s">
         <v>441</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E423" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="405" spans="2:5">
-      <c r="C405" t="s">
+    <row r="424" spans="2:5">
+      <c r="C424" t="s">
         <v>442</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E424" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="406" spans="2:5">
-      <c r="B406" t="s">
+    <row r="425" spans="2:5">
+      <c r="B425" t="s">
         <v>234</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C425" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="407" spans="2:5">
-      <c r="B407" t="s">
+    <row r="426" spans="2:5">
+      <c r="B426" t="s">
         <v>295</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C426" t="s">
         <v>448</v>
       </c>
     </row>
